--- a/Rubric/roguebot_rubric.xlsx
+++ b/Rubric/roguebot_rubric.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2d57614d8706229c/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Connor\Source\Repos\game200-project\Rubric\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" tabRatio="698" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" tabRatio="698" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Game Data" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2234" uniqueCount="923">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2236" uniqueCount="925">
   <si>
     <t>GAME NAME</t>
   </si>
@@ -3560,6 +3560,12 @@
   </si>
   <si>
     <t>msvcrt is statically linked, redistributable is not required. The game runs without it on the windows 8.1 clean machine.</t>
+  </si>
+  <si>
+    <t>All sound effects were made entirely by Troy</t>
+  </si>
+  <si>
+    <t>Buttons make a little ding noise</t>
   </si>
 </sst>
 </file>
@@ -5287,19 +5293,34 @@
     <xf numFmtId="0" fontId="28" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="643" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5311,22 +5332,43 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="26" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="26" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5356,76 +5398,82 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="26" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="26" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="21" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="21" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5446,45 +5494,6 @@
     <xf numFmtId="9" fontId="4" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="21" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="21" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -5494,6 +5503,33 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -5501,42 +5537,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5575,32 +5575,41 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -5636,9 +5645,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="643" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -26627,54 +26633,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="14" customHeight="1" thickBot="1">
-      <c r="A1" s="135" t="s">
+      <c r="A1" s="147" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="136"/>
-      <c r="C1" s="136"/>
-      <c r="D1" s="137"/>
+      <c r="B1" s="148"/>
+      <c r="C1" s="148"/>
+      <c r="D1" s="149"/>
       <c r="E1" s="16"/>
-      <c r="F1" s="135" t="s">
+      <c r="F1" s="147" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="136"/>
-      <c r="H1" s="136"/>
-      <c r="I1" s="136"/>
-      <c r="J1" s="137"/>
+      <c r="G1" s="148"/>
+      <c r="H1" s="148"/>
+      <c r="I1" s="148"/>
+      <c r="J1" s="149"/>
       <c r="K1" s="6"/>
       <c r="L1" s="6"/>
       <c r="M1" s="32"/>
     </row>
     <row r="2" spans="1:13" ht="14" customHeight="1">
-      <c r="A2" s="138" t="s">
+      <c r="A2" s="150" t="s">
         <v>882</v>
       </c>
-      <c r="B2" s="139"/>
-      <c r="C2" s="139"/>
-      <c r="D2" s="140"/>
+      <c r="B2" s="151"/>
+      <c r="C2" s="151"/>
+      <c r="D2" s="152"/>
       <c r="E2" s="16"/>
-      <c r="F2" s="138" t="s">
+      <c r="F2" s="150" t="s">
         <v>883</v>
       </c>
-      <c r="G2" s="139"/>
-      <c r="H2" s="139"/>
-      <c r="I2" s="139"/>
-      <c r="J2" s="140"/>
+      <c r="G2" s="151"/>
+      <c r="H2" s="151"/>
+      <c r="I2" s="151"/>
+      <c r="J2" s="152"/>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
       <c r="M2" s="32"/>
     </row>
     <row r="3" spans="1:13" ht="14" customHeight="1" thickBot="1">
-      <c r="A3" s="141"/>
-      <c r="B3" s="142"/>
-      <c r="C3" s="142"/>
-      <c r="D3" s="143"/>
+      <c r="A3" s="153"/>
+      <c r="B3" s="154"/>
+      <c r="C3" s="154"/>
+      <c r="D3" s="155"/>
       <c r="E3" s="16"/>
-      <c r="F3" s="141"/>
-      <c r="G3" s="142"/>
-      <c r="H3" s="142"/>
-      <c r="I3" s="142"/>
-      <c r="J3" s="143"/>
+      <c r="F3" s="153"/>
+      <c r="G3" s="154"/>
+      <c r="H3" s="154"/>
+      <c r="I3" s="154"/>
+      <c r="J3" s="155"/>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
       <c r="M3" s="32"/>
@@ -26695,41 +26701,41 @@
       <c r="M4" s="32"/>
     </row>
     <row r="5" spans="1:13" ht="14" customHeight="1" thickBot="1">
-      <c r="A5" s="135" t="s">
+      <c r="A5" s="147" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="136"/>
-      <c r="C5" s="136"/>
-      <c r="D5" s="137"/>
+      <c r="B5" s="148"/>
+      <c r="C5" s="148"/>
+      <c r="D5" s="149"/>
       <c r="E5" s="16"/>
-      <c r="F5" s="135" t="s">
+      <c r="F5" s="147" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="136"/>
-      <c r="H5" s="136"/>
-      <c r="I5" s="136"/>
-      <c r="J5" s="137"/>
+      <c r="G5" s="148"/>
+      <c r="H5" s="148"/>
+      <c r="I5" s="148"/>
+      <c r="J5" s="149"/>
       <c r="K5" s="6"/>
       <c r="L5" s="27"/>
       <c r="M5" s="32"/>
     </row>
     <row r="6" spans="1:13" ht="14" customHeight="1" thickBot="1">
-      <c r="A6" s="147" t="s">
+      <c r="A6" s="144" t="s">
         <v>903</v>
       </c>
-      <c r="B6" s="148"/>
-      <c r="C6" s="148"/>
-      <c r="D6" s="149"/>
+      <c r="B6" s="145"/>
+      <c r="C6" s="145"/>
+      <c r="D6" s="146"/>
       <c r="E6" s="16"/>
-      <c r="F6" s="147" t="s">
+      <c r="F6" s="144" t="s">
         <v>905</v>
       </c>
-      <c r="G6" s="148"/>
-      <c r="H6" s="148"/>
-      <c r="I6" s="148"/>
-      <c r="J6" s="149"/>
+      <c r="G6" s="145"/>
+      <c r="H6" s="145"/>
+      <c r="I6" s="145"/>
+      <c r="J6" s="146"/>
       <c r="K6" s="6"/>
-      <c r="L6" s="144" t="s">
+      <c r="L6" s="141" t="s">
         <v>27</v>
       </c>
       <c r="M6" s="32"/>
@@ -26740,51 +26746,51 @@
       <c r="C7" s="5"/>
       <c r="D7" s="34"/>
       <c r="E7" s="16"/>
-      <c r="F7" s="147" t="s">
+      <c r="F7" s="144" t="s">
         <v>907</v>
       </c>
-      <c r="G7" s="148"/>
-      <c r="H7" s="148"/>
-      <c r="I7" s="148"/>
-      <c r="J7" s="149"/>
+      <c r="G7" s="145"/>
+      <c r="H7" s="145"/>
+      <c r="I7" s="145"/>
+      <c r="J7" s="146"/>
       <c r="K7" s="6"/>
-      <c r="L7" s="145"/>
+      <c r="L7" s="142"/>
       <c r="M7" s="32"/>
     </row>
     <row r="8" spans="1:13" ht="14" customHeight="1" thickBot="1">
-      <c r="A8" s="135" t="s">
+      <c r="A8" s="147" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="136"/>
-      <c r="C8" s="136"/>
-      <c r="D8" s="137"/>
+      <c r="B8" s="148"/>
+      <c r="C8" s="148"/>
+      <c r="D8" s="149"/>
       <c r="E8" s="16"/>
-      <c r="F8" s="147" t="s">
+      <c r="F8" s="144" t="s">
         <v>906</v>
       </c>
-      <c r="G8" s="148"/>
-      <c r="H8" s="148"/>
-      <c r="I8" s="148"/>
-      <c r="J8" s="149"/>
+      <c r="G8" s="145"/>
+      <c r="H8" s="145"/>
+      <c r="I8" s="145"/>
+      <c r="J8" s="146"/>
       <c r="K8" s="6"/>
-      <c r="L8" s="145"/>
+      <c r="L8" s="142"/>
       <c r="M8" s="32"/>
     </row>
     <row r="9" spans="1:13" ht="14" customHeight="1" thickBot="1">
-      <c r="A9" s="147" t="s">
+      <c r="A9" s="144" t="s">
         <v>904</v>
       </c>
-      <c r="B9" s="148"/>
-      <c r="C9" s="148"/>
-      <c r="D9" s="149"/>
+      <c r="B9" s="145"/>
+      <c r="C9" s="145"/>
+      <c r="D9" s="146"/>
       <c r="E9" s="16"/>
-      <c r="F9" s="147"/>
-      <c r="G9" s="148"/>
-      <c r="H9" s="148"/>
-      <c r="I9" s="148"/>
-      <c r="J9" s="149"/>
+      <c r="F9" s="144"/>
+      <c r="G9" s="145"/>
+      <c r="H9" s="145"/>
+      <c r="I9" s="145"/>
+      <c r="J9" s="146"/>
       <c r="K9" s="6"/>
-      <c r="L9" s="146"/>
+      <c r="L9" s="143"/>
       <c r="M9" s="32"/>
     </row>
     <row r="10" spans="1:13" ht="14" customHeight="1" thickBot="1">
@@ -26803,18 +26809,18 @@
       <c r="M10" s="32"/>
     </row>
     <row r="11" spans="1:13" ht="14" customHeight="1" thickBot="1">
-      <c r="A11" s="135" t="s">
+      <c r="A11" s="147" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="136"/>
-      <c r="C11" s="136"/>
-      <c r="D11" s="137"/>
+      <c r="B11" s="148"/>
+      <c r="C11" s="148"/>
+      <c r="D11" s="149"/>
       <c r="E11" s="16"/>
-      <c r="F11" s="135" t="s">
+      <c r="F11" s="147" t="s">
         <v>6</v>
       </c>
-      <c r="G11" s="136"/>
-      <c r="H11" s="137"/>
+      <c r="G11" s="148"/>
+      <c r="H11" s="149"/>
       <c r="I11" s="2" t="s">
         <v>7</v>
       </c>
@@ -26854,7 +26860,7 @@
         <v>-0.08</v>
       </c>
       <c r="K12" s="6"/>
-      <c r="L12" s="144" t="s">
+      <c r="L12" s="141" t="s">
         <v>8</v>
       </c>
       <c r="M12" s="32"/>
@@ -26885,7 +26891,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="44"/>
-      <c r="L13" s="145"/>
+      <c r="L13" s="142"/>
       <c r="M13" s="45"/>
     </row>
     <row r="14" spans="1:13" ht="14" customHeight="1" thickBot="1">
@@ -26913,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="12"/>
-      <c r="L14" s="146"/>
+      <c r="L14" s="143"/>
       <c r="M14" s="49"/>
     </row>
     <row r="15" spans="1:13" ht="14" customHeight="1" thickBot="1">
@@ -26969,11 +26975,11 @@
       <c r="C17" s="42"/>
       <c r="D17" s="43"/>
       <c r="E17" s="6"/>
-      <c r="F17" s="135" t="s">
+      <c r="F17" s="147" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="136"/>
-      <c r="H17" s="137"/>
+      <c r="G17" s="148"/>
+      <c r="H17" s="149"/>
       <c r="I17" s="2"/>
       <c r="J17" s="35">
         <v>0.75</v>
@@ -26991,17 +26997,17 @@
       <c r="F18" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="G18" s="123" t="s">
+      <c r="G18" s="158" t="s">
         <v>20</v>
       </c>
-      <c r="H18" s="124"/>
-      <c r="I18" s="125"/>
+      <c r="H18" s="159"/>
+      <c r="I18" s="160"/>
       <c r="J18" s="40">
         <f>IF(LEFT(G18,6)="Entire",0,IF(LEFT(G18,6)="Custom",-0.05,-0.1))</f>
         <v>0</v>
       </c>
       <c r="K18" s="51"/>
-      <c r="L18" s="144" t="s">
+      <c r="L18" s="141" t="s">
         <v>18</v>
       </c>
       <c r="M18" s="32"/>
@@ -27015,17 +27021,17 @@
       <c r="F19" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="G19" s="126" t="s">
+      <c r="G19" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="H19" s="127"/>
-      <c r="I19" s="128"/>
+      <c r="H19" s="132"/>
+      <c r="I19" s="133"/>
       <c r="J19" s="48">
         <f>IF(G19="2D Graphics and 2D Gameplay",IF(J11=0.15,-0.05,0),IF(G19="3D Graphics but 2D Gameplay",IF(J11=0.15,-0.02,-0.3),IF(J11=0.15,0,-0.3)))</f>
         <v>0</v>
       </c>
       <c r="K19" s="6"/>
-      <c r="L19" s="146"/>
+      <c r="L19" s="143"/>
       <c r="M19" s="32"/>
     </row>
     <row r="20" spans="1:13" ht="14" customHeight="1" thickBot="1">
@@ -27069,23 +27075,23 @@
       <c r="C22" s="42"/>
       <c r="D22" s="43"/>
       <c r="E22" s="6"/>
-      <c r="F22" s="131" t="s">
+      <c r="F22" s="163" t="s">
         <v>846</v>
       </c>
-      <c r="G22" s="129">
+      <c r="G22" s="161">
         <f>'Project Grade'!$G$3</f>
-        <v>0.9</v>
-      </c>
-      <c r="H22" s="122"/>
+        <v>0.91</v>
+      </c>
+      <c r="H22" s="157"/>
       <c r="I22" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="J22" s="133">
+      <c r="J22" s="165">
         <f>J20+J15</f>
         <v>0.77</v>
       </c>
       <c r="K22" s="6"/>
-      <c r="L22" s="150" t="s">
+      <c r="L22" s="122" t="s">
         <v>25</v>
       </c>
       <c r="M22" s="32"/>
@@ -27096,15 +27102,15 @@
       <c r="C23" s="42"/>
       <c r="D23" s="43"/>
       <c r="E23" s="6"/>
-      <c r="F23" s="132"/>
-      <c r="G23" s="130"/>
-      <c r="H23" s="122"/>
+      <c r="F23" s="164"/>
+      <c r="G23" s="162"/>
+      <c r="H23" s="157"/>
       <c r="I23" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="J23" s="134"/>
+      <c r="J23" s="166"/>
       <c r="K23" s="6"/>
-      <c r="L23" s="151"/>
+      <c r="L23" s="123"/>
       <c r="M23" s="32"/>
     </row>
     <row r="24" spans="1:13" ht="14" customHeight="1" thickBot="1">
@@ -27128,13 +27134,13 @@
       <c r="C25" s="42"/>
       <c r="D25" s="43"/>
       <c r="E25" s="6"/>
-      <c r="F25" s="160" t="s">
+      <c r="F25" s="135" t="s">
         <v>738</v>
       </c>
-      <c r="G25" s="161"/>
-      <c r="H25" s="161"/>
-      <c r="I25" s="161"/>
-      <c r="J25" s="162"/>
+      <c r="G25" s="136"/>
+      <c r="H25" s="136"/>
+      <c r="I25" s="136"/>
+      <c r="J25" s="137"/>
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
       <c r="M25" s="32"/>
@@ -27145,11 +27151,11 @@
       <c r="C26" s="42"/>
       <c r="D26" s="43"/>
       <c r="E26" s="16"/>
-      <c r="F26" s="163"/>
-      <c r="G26" s="164"/>
-      <c r="H26" s="164"/>
-      <c r="I26" s="164"/>
-      <c r="J26" s="165"/>
+      <c r="F26" s="138"/>
+      <c r="G26" s="139"/>
+      <c r="H26" s="139"/>
+      <c r="I26" s="139"/>
+      <c r="J26" s="140"/>
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
       <c r="M26" s="32"/>
@@ -27175,13 +27181,13 @@
       <c r="C28" s="42"/>
       <c r="D28" s="43"/>
       <c r="E28" s="16"/>
-      <c r="F28" s="159" t="s">
+      <c r="F28" s="134" t="s">
         <v>26</v>
       </c>
-      <c r="G28" s="159"/>
-      <c r="H28" s="159"/>
-      <c r="I28" s="159"/>
-      <c r="J28" s="159"/>
+      <c r="G28" s="134"/>
+      <c r="H28" s="134"/>
+      <c r="I28" s="134"/>
+      <c r="J28" s="134"/>
       <c r="K28" s="6"/>
       <c r="L28" s="6"/>
       <c r="M28" s="32"/>
@@ -27192,13 +27198,13 @@
       <c r="C29" s="42"/>
       <c r="D29" s="43"/>
       <c r="E29" s="16"/>
-      <c r="F29" s="156" t="s">
+      <c r="F29" s="128" t="s">
         <v>737</v>
       </c>
-      <c r="G29" s="157"/>
-      <c r="H29" s="157"/>
-      <c r="I29" s="157"/>
-      <c r="J29" s="158"/>
+      <c r="G29" s="129"/>
+      <c r="H29" s="129"/>
+      <c r="I29" s="129"/>
+      <c r="J29" s="130"/>
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
       <c r="M29" s="32"/>
@@ -27209,28 +27215,28 @@
       <c r="C30" s="42"/>
       <c r="D30" s="43"/>
       <c r="E30" s="16"/>
-      <c r="F30" s="156"/>
-      <c r="G30" s="157"/>
-      <c r="H30" s="157"/>
-      <c r="I30" s="157"/>
-      <c r="J30" s="158"/>
+      <c r="F30" s="128"/>
+      <c r="G30" s="129"/>
+      <c r="H30" s="129"/>
+      <c r="I30" s="129"/>
+      <c r="J30" s="130"/>
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
       <c r="M30" s="32"/>
     </row>
     <row r="31" spans="1:13" ht="14" customHeight="1" thickBot="1">
-      <c r="A31" s="152" t="s">
+      <c r="A31" s="124" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="153"/>
-      <c r="C31" s="154"/>
-      <c r="D31" s="155"/>
+      <c r="B31" s="125"/>
+      <c r="C31" s="126"/>
+      <c r="D31" s="127"/>
       <c r="E31" s="6"/>
-      <c r="F31" s="126"/>
-      <c r="G31" s="127"/>
-      <c r="H31" s="127"/>
-      <c r="I31" s="127"/>
-      <c r="J31" s="128"/>
+      <c r="F31" s="131"/>
+      <c r="G31" s="132"/>
+      <c r="H31" s="132"/>
+      <c r="I31" s="132"/>
+      <c r="J31" s="133"/>
       <c r="K31" s="6"/>
       <c r="L31" s="6"/>
       <c r="M31" s="32"/>
@@ -27251,39 +27257,46 @@
       <c r="M32" s="32"/>
     </row>
     <row r="33" spans="1:10" ht="14" customHeight="1">
-      <c r="A33" s="121" t="s">
+      <c r="A33" s="156" t="s">
         <v>858</v>
       </c>
-      <c r="B33" s="121"/>
-      <c r="C33" s="121"/>
-      <c r="D33" s="121"/>
-      <c r="E33" s="121"/>
-      <c r="F33" s="121"/>
-      <c r="G33" s="121"/>
-      <c r="H33" s="121"/>
-      <c r="I33" s="121"/>
-      <c r="J33" s="121"/>
+      <c r="B33" s="156"/>
+      <c r="C33" s="156"/>
+      <c r="D33" s="156"/>
+      <c r="E33" s="156"/>
+      <c r="F33" s="156"/>
+      <c r="G33" s="156"/>
+      <c r="H33" s="156"/>
+      <c r="I33" s="156"/>
+      <c r="J33" s="156"/>
     </row>
     <row r="34" spans="1:10" ht="14" customHeight="1">
-      <c r="A34" s="121"/>
-      <c r="B34" s="121"/>
-      <c r="C34" s="121"/>
-      <c r="D34" s="121"/>
-      <c r="E34" s="121"/>
-      <c r="F34" s="121"/>
-      <c r="G34" s="121"/>
-      <c r="H34" s="121"/>
-      <c r="I34" s="121"/>
-      <c r="J34" s="121"/>
+      <c r="A34" s="156"/>
+      <c r="B34" s="156"/>
+      <c r="C34" s="156"/>
+      <c r="D34" s="156"/>
+      <c r="E34" s="156"/>
+      <c r="F34" s="156"/>
+      <c r="G34" s="156"/>
+      <c r="H34" s="156"/>
+      <c r="I34" s="156"/>
+      <c r="J34" s="156"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="F29:J31"/>
-    <mergeCell ref="F28:J28"/>
-    <mergeCell ref="F25:J26"/>
+    <mergeCell ref="A33:J34"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="A2:D3"/>
+    <mergeCell ref="F2:J3"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="F5:J5"/>
     <mergeCell ref="L12:L14"/>
     <mergeCell ref="L18:L19"/>
     <mergeCell ref="A6:D6"/>
@@ -27297,19 +27310,12 @@
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="F11:H11"/>
     <mergeCell ref="F17:H17"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="A2:D3"/>
-    <mergeCell ref="F2:J3"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="F5:J5"/>
-    <mergeCell ref="A33:J34"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="F29:J31"/>
+    <mergeCell ref="F28:J28"/>
+    <mergeCell ref="F25:J26"/>
   </mergeCells>
   <dataValidations count="9">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="A6:D6">
@@ -27374,56 +27380,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="168" t="s">
+      <c r="A1" s="182" t="s">
         <v>845</v>
       </c>
-      <c r="B1" s="169"/>
+      <c r="B1" s="183"/>
       <c r="C1" s="114"/>
-      <c r="D1" s="179" t="s">
+      <c r="D1" s="172" t="s">
         <v>740</v>
       </c>
-      <c r="E1" s="180"/>
+      <c r="E1" s="173"/>
       <c r="F1" s="70"/>
-      <c r="G1" s="179" t="s">
+      <c r="G1" s="172" t="s">
         <v>741</v>
       </c>
-      <c r="H1" s="180"/>
+      <c r="H1" s="173"/>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1" thickBot="1">
-      <c r="A2" s="168"/>
-      <c r="B2" s="169"/>
+      <c r="A2" s="182"/>
+      <c r="B2" s="183"/>
       <c r="C2" s="114"/>
-      <c r="D2" s="181" t="s">
+      <c r="D2" s="174" t="s">
         <v>634</v>
       </c>
-      <c r="E2" s="182"/>
+      <c r="E2" s="175"/>
       <c r="F2" s="70"/>
-      <c r="G2" s="181" t="s">
+      <c r="G2" s="174" t="s">
         <v>634</v>
       </c>
-      <c r="H2" s="182"/>
+      <c r="H2" s="175"/>
       <c r="J2" s="72" t="s">
         <v>642</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="23" customHeight="1" thickBot="1">
-      <c r="A3" s="168"/>
-      <c r="B3" s="169"/>
+      <c r="A3" s="182"/>
+      <c r="B3" s="183"/>
       <c r="C3" s="115"/>
-      <c r="D3" s="183">
+      <c r="D3" s="176">
         <f>MAX(0,MIN(1,IF(($A$6+$D$6) &lt;= 0.95, ROUND($A$6+$D$6,2), FLOOR((0.95+($A$6+$D$6-0.95)/5),0.01))))</f>
+        <v>0.92</v>
+      </c>
+      <c r="E3" s="177"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="176">
+        <f>MAX(0,MIN(1,IF(($A$6+$G$6+J3) &lt;= 0.95, ROUND($A$6+$G$6+J3,2), FLOOR((0.95+($A$6+$G$6+J3-0.95)/5),0.01))))</f>
         <v>0.91</v>
       </c>
-      <c r="E3" s="184"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="183">
-        <f>MAX(0,MIN(1,IF(($A$6+$G$6+J3) &lt;= 0.95, ROUND($A$6+$G$6+J3,2), FLOOR((0.95+($A$6+$G$6+J3-0.95)/5),0.01))))</f>
-        <v>0.9</v>
-      </c>
-      <c r="H3" s="184"/>
+      <c r="H3" s="177"/>
       <c r="J3" s="116">
         <f>IF(J6 &gt; 0.06, 0, 0.03-J6/2)</f>
-        <v>1.6250000000000001E-2</v>
+        <v>1.6250000000000007E-2</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="14" customHeight="1" thickBot="1">
@@ -27438,60 +27444,60 @@
       <c r="J4" s="11"/>
     </row>
     <row r="5" spans="1:10" ht="14" customHeight="1" thickBot="1">
-      <c r="A5" s="170" t="s">
+      <c r="A5" s="184" t="s">
         <v>635</v>
       </c>
-      <c r="B5" s="171"/>
+      <c r="B5" s="185"/>
       <c r="C5" s="25"/>
-      <c r="D5" s="135" t="s">
+      <c r="D5" s="147" t="s">
         <v>735</v>
       </c>
-      <c r="E5" s="137"/>
+      <c r="E5" s="149"/>
       <c r="F5" s="11"/>
-      <c r="G5" s="135" t="s">
+      <c r="G5" s="147" t="s">
         <v>735</v>
       </c>
-      <c r="H5" s="137"/>
+      <c r="H5" s="149"/>
       <c r="J5" s="72" t="s">
         <v>732</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="14" customHeight="1" thickBot="1">
-      <c r="A6" s="172">
+      <c r="A6" s="186">
         <f>'Game Data'!$J$22+Submission!$E$16</f>
         <v>0.77</v>
       </c>
-      <c r="B6" s="173"/>
+      <c r="B6" s="187"/>
       <c r="C6" s="103"/>
-      <c r="D6" s="166">
+      <c r="D6" s="167">
         <f>E15+E24+E33+E42+E51+E60</f>
-        <v>0.13874999999999998</v>
-      </c>
-      <c r="E6" s="167"/>
+        <v>0.15249999999999997</v>
+      </c>
+      <c r="E6" s="168"/>
       <c r="F6" s="11"/>
-      <c r="G6" s="166">
+      <c r="G6" s="167">
         <f>H15+H24+H33+H42+H51+H60</f>
-        <v>0.11124999999999999</v>
-      </c>
-      <c r="H6" s="167"/>
+        <v>0.12499999999999999</v>
+      </c>
+      <c r="H6" s="168"/>
       <c r="J6" s="75">
         <f>ABS($D$6-$G$6)</f>
-        <v>2.7499999999999997E-2</v>
+        <v>2.7499999999999983E-2</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="14" customHeight="1" thickBot="1">
       <c r="A7" s="3"/>
       <c r="B7" s="11"/>
       <c r="C7" s="103"/>
-      <c r="D7" s="175" t="s">
+      <c r="D7" s="178" t="s">
         <v>74</v>
       </c>
-      <c r="E7" s="175"/>
+      <c r="E7" s="178"/>
       <c r="F7" s="11"/>
-      <c r="G7" s="175" t="s">
+      <c r="G7" s="178" t="s">
         <v>75</v>
       </c>
-      <c r="H7" s="175"/>
+      <c r="H7" s="178"/>
       <c r="J7" s="74"/>
     </row>
     <row r="8" spans="1:10" ht="14" customHeight="1" thickBot="1">
@@ -27515,7 +27521,7 @@
       <c r="H8" s="105" t="s">
         <v>32</v>
       </c>
-      <c r="J8" s="176" t="s">
+      <c r="J8" s="179" t="s">
         <v>729</v>
       </c>
     </row>
@@ -27545,7 +27551,7 @@
         <f t="shared" ref="H9:H14" si="1">$B9*G9</f>
         <v>0</v>
       </c>
-      <c r="J9" s="177"/>
+      <c r="J9" s="180"/>
     </row>
     <row r="10" spans="1:10" ht="14" customHeight="1" thickBot="1">
       <c r="A10" s="9" t="str">
@@ -27573,7 +27579,7 @@
         <f t="shared" si="1"/>
         <v>-0.01</v>
       </c>
-      <c r="J10" s="178"/>
+      <c r="J10" s="181"/>
     </row>
     <row r="11" spans="1:10" ht="14" customHeight="1" thickBot="1">
       <c r="A11" s="9" t="str">
@@ -27659,7 +27665,7 @@
         <f t="shared" si="1"/>
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="J13" s="185" t="s">
+      <c r="J13" s="169" t="s">
         <v>731</v>
       </c>
     </row>
@@ -27689,7 +27695,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J14" s="185"/>
+      <c r="J14" s="169"/>
     </row>
     <row r="15" spans="1:10" ht="14" customHeight="1">
       <c r="A15" s="3"/>
@@ -27710,22 +27716,22 @@
         <f>SUM(H9:H14)</f>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="J15" s="185"/>
+      <c r="J15" s="169"/>
     </row>
     <row r="16" spans="1:10" ht="14" customHeight="1" thickBot="1">
       <c r="A16" s="3"/>
       <c r="B16" s="11"/>
       <c r="C16" s="103"/>
-      <c r="D16" s="174" t="s">
+      <c r="D16" s="171" t="s">
         <v>74</v>
       </c>
-      <c r="E16" s="174"/>
+      <c r="E16" s="171"/>
       <c r="F16" s="103"/>
-      <c r="G16" s="174" t="s">
+      <c r="G16" s="171" t="s">
         <v>75</v>
       </c>
-      <c r="H16" s="174"/>
-      <c r="J16" s="185"/>
+      <c r="H16" s="171"/>
+      <c r="J16" s="169"/>
     </row>
     <row r="17" spans="1:10" ht="14" customHeight="1" thickBot="1">
       <c r="A17" s="1" t="s">
@@ -27748,7 +27754,7 @@
       <c r="H17" s="105" t="s">
         <v>32</v>
       </c>
-      <c r="J17" s="185"/>
+      <c r="J17" s="169"/>
     </row>
     <row r="18" spans="1:10" ht="14" customHeight="1" thickBot="1">
       <c r="A18" s="53" t="str">
@@ -27776,7 +27782,7 @@
         <f t="shared" ref="H18:H23" si="3">$B18*G18</f>
         <v>0</v>
       </c>
-      <c r="J18" s="186"/>
+      <c r="J18" s="170"/>
     </row>
     <row r="19" spans="1:10" ht="14" customHeight="1" thickBot="1">
       <c r="A19" s="9" t="str">
@@ -27952,15 +27958,15 @@
       <c r="A25" s="3"/>
       <c r="B25" s="11"/>
       <c r="C25" s="103"/>
-      <c r="D25" s="174" t="s">
+      <c r="D25" s="171" t="s">
         <v>74</v>
       </c>
-      <c r="E25" s="174"/>
+      <c r="E25" s="171"/>
       <c r="F25" s="103"/>
-      <c r="G25" s="174" t="s">
+      <c r="G25" s="171" t="s">
         <v>75</v>
       </c>
-      <c r="H25" s="174"/>
+      <c r="H25" s="171"/>
       <c r="J25" s="78" t="s">
         <v>647</v>
       </c>
@@ -28179,15 +28185,15 @@
       <c r="A34" s="3"/>
       <c r="B34" s="11"/>
       <c r="C34" s="103"/>
-      <c r="D34" s="174" t="s">
+      <c r="D34" s="171" t="s">
         <v>74</v>
       </c>
-      <c r="E34" s="174"/>
+      <c r="E34" s="171"/>
       <c r="F34" s="103"/>
-      <c r="G34" s="174" t="s">
+      <c r="G34" s="171" t="s">
         <v>75</v>
       </c>
-      <c r="H34" s="174"/>
+      <c r="H34" s="171"/>
     </row>
     <row r="35" spans="1:8" ht="14" customHeight="1" thickBot="1">
       <c r="A35" s="1" t="s">
@@ -28397,15 +28403,15 @@
       <c r="A43" s="3"/>
       <c r="B43" s="11"/>
       <c r="C43" s="103"/>
-      <c r="D43" s="174" t="s">
+      <c r="D43" s="171" t="s">
         <v>74</v>
       </c>
-      <c r="E43" s="174"/>
+      <c r="E43" s="171"/>
       <c r="F43" s="103"/>
-      <c r="G43" s="174" t="s">
+      <c r="G43" s="171" t="s">
         <v>75</v>
       </c>
-      <c r="H43" s="174"/>
+      <c r="H43" s="171"/>
     </row>
     <row r="44" spans="1:8" ht="14" customHeight="1" thickBot="1">
       <c r="A44" s="1" t="s">
@@ -28615,15 +28621,15 @@
       <c r="A52" s="3"/>
       <c r="B52" s="11"/>
       <c r="C52" s="103"/>
-      <c r="D52" s="174" t="s">
+      <c r="D52" s="171" t="s">
         <v>74</v>
       </c>
-      <c r="E52" s="174"/>
+      <c r="E52" s="171"/>
       <c r="F52" s="103"/>
-      <c r="G52" s="174" t="s">
+      <c r="G52" s="171" t="s">
         <v>75</v>
       </c>
-      <c r="H52" s="174"/>
+      <c r="H52" s="171"/>
     </row>
     <row r="53" spans="1:8" ht="14" customHeight="1" thickBot="1">
       <c r="A53" s="1" t="s">
@@ -28712,20 +28718,20 @@
       <c r="C56" s="95"/>
       <c r="D56" s="99">
         <f>ACRs!$E$4</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E56" s="107">
         <f t="shared" si="10"/>
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="F56" s="103"/>
       <c r="G56" s="99">
         <f>ACRs!$F$4</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H56" s="107">
         <f t="shared" si="11"/>
-        <v>-0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="14" customHeight="1">
@@ -28766,20 +28772,20 @@
       <c r="C58" s="97"/>
       <c r="D58" s="99">
         <f>ACRs!$E$8</f>
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E58" s="107">
         <f t="shared" si="10"/>
-        <v>1.125E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="F58" s="103"/>
       <c r="G58" s="99">
         <f>ACRs!$F$8</f>
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H58" s="107">
         <f t="shared" si="11"/>
-        <v>1.125E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="14" customHeight="1" thickBot="1">
@@ -28818,7 +28824,7 @@
       </c>
       <c r="E60" s="101">
         <f>SUM(E54:E59)</f>
-        <v>6.2499999999999995E-3</v>
+        <v>0.02</v>
       </c>
       <c r="F60" s="11"/>
       <c r="G60" s="73" t="s">
@@ -28826,11 +28832,30 @@
       </c>
       <c r="H60" s="101">
         <f>SUM(H54:H59)</f>
-        <v>1.2499999999999994E-3</v>
+        <v>1.4999999999999999E-2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="A1:B3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="J8:J10"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="J13:J18"/>
@@ -28839,25 +28864,6 @@
     <mergeCell ref="G25:H25"/>
     <mergeCell ref="G34:H34"/>
     <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="J8:J10"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="A1:B3"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -28889,54 +28895,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14" customHeight="1" thickBot="1">
-      <c r="A1" s="190" t="s">
+      <c r="A1" s="200" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="191"/>
-      <c r="C1" s="191"/>
-      <c r="D1" s="191"/>
-      <c r="E1" s="191"/>
-      <c r="F1" s="192"/>
+      <c r="B1" s="201"/>
+      <c r="C1" s="201"/>
+      <c r="D1" s="201"/>
+      <c r="E1" s="201"/>
+      <c r="F1" s="202"/>
     </row>
     <row r="2" spans="1:6" ht="43.25" customHeight="1" thickBot="1">
-      <c r="A2" s="187" t="s">
+      <c r="A2" s="188" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="188"/>
-      <c r="C2" s="188"/>
-      <c r="D2" s="188"/>
-      <c r="E2" s="188"/>
-      <c r="F2" s="189"/>
+      <c r="B2" s="189"/>
+      <c r="C2" s="189"/>
+      <c r="D2" s="189"/>
+      <c r="E2" s="189"/>
+      <c r="F2" s="190"/>
     </row>
     <row r="3" spans="1:6" ht="43.25" customHeight="1" thickBot="1">
-      <c r="A3" s="193" t="s">
+      <c r="A3" s="215" t="s">
         <v>880</v>
       </c>
-      <c r="B3" s="194"/>
-      <c r="C3" s="194"/>
-      <c r="D3" s="194"/>
-      <c r="E3" s="194"/>
-      <c r="F3" s="195"/>
+      <c r="B3" s="216"/>
+      <c r="C3" s="216"/>
+      <c r="D3" s="216"/>
+      <c r="E3" s="216"/>
+      <c r="F3" s="217"/>
     </row>
     <row r="4" spans="1:6" ht="29" customHeight="1" thickBot="1">
-      <c r="A4" s="187" t="s">
+      <c r="A4" s="188" t="s">
         <v>651</v>
       </c>
-      <c r="B4" s="188"/>
-      <c r="C4" s="188"/>
-      <c r="D4" s="188"/>
-      <c r="E4" s="188"/>
-      <c r="F4" s="189"/>
+      <c r="B4" s="189"/>
+      <c r="C4" s="189"/>
+      <c r="D4" s="189"/>
+      <c r="E4" s="189"/>
+      <c r="F4" s="190"/>
     </row>
     <row r="5" spans="1:6" ht="29" customHeight="1" thickBot="1">
-      <c r="A5" s="196" t="s">
+      <c r="A5" s="218" t="s">
         <v>879</v>
       </c>
-      <c r="B5" s="197"/>
-      <c r="C5" s="197"/>
-      <c r="D5" s="197"/>
-      <c r="E5" s="197"/>
-      <c r="F5" s="198"/>
+      <c r="B5" s="219"/>
+      <c r="C5" s="219"/>
+      <c r="D5" s="219"/>
+      <c r="E5" s="219"/>
+      <c r="F5" s="220"/>
     </row>
     <row r="6" spans="1:6" ht="14" customHeight="1" thickBot="1">
       <c r="A6" s="6"/>
@@ -28965,10 +28971,10 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="14" customHeight="1">
-      <c r="A8" s="193" t="s">
+      <c r="A8" s="215" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="194"/>
+      <c r="B8" s="216"/>
       <c r="C8" s="17">
         <v>0</v>
       </c>
@@ -28984,10 +28990,10 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="14" customHeight="1">
-      <c r="A9" s="200" t="s">
+      <c r="A9" s="222" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="201"/>
+      <c r="B9" s="223"/>
       <c r="C9" s="12">
         <v>0</v>
       </c>
@@ -29003,10 +29009,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="14" customHeight="1">
-      <c r="A10" s="202" t="s">
+      <c r="A10" s="224" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="202"/>
+      <c r="B10" s="224"/>
       <c r="C10" s="12">
         <v>0</v>
       </c>
@@ -29022,10 +29028,10 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="14" customHeight="1">
-      <c r="A11" s="202" t="s">
+      <c r="A11" s="224" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="202"/>
+      <c r="B11" s="224"/>
       <c r="C11" s="12">
         <v>0</v>
       </c>
@@ -29041,10 +29047,10 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="14" customHeight="1">
-      <c r="A12" s="202" t="s">
+      <c r="A12" s="224" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="202"/>
+      <c r="B12" s="224"/>
       <c r="C12" s="12">
         <v>0</v>
       </c>
@@ -29060,10 +29066,10 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="14" customHeight="1">
-      <c r="A13" s="200" t="s">
+      <c r="A13" s="222" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="201"/>
+      <c r="B13" s="223"/>
       <c r="C13" s="12">
         <v>0</v>
       </c>
@@ -29079,10 +29085,10 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="14" customHeight="1">
-      <c r="A14" s="200" t="s">
+      <c r="A14" s="222" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="201"/>
+      <c r="B14" s="223"/>
       <c r="C14" s="12">
         <v>0</v>
       </c>
@@ -29098,10 +29104,10 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="14" customHeight="1" thickBot="1">
-      <c r="A15" s="203" t="s">
+      <c r="A15" s="225" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="204"/>
+      <c r="B15" s="226"/>
       <c r="C15" s="18">
         <v>0</v>
       </c>
@@ -29118,11 +29124,11 @@
     </row>
     <row r="16" spans="1:6" ht="14" customHeight="1">
       <c r="A16" s="6"/>
-      <c r="B16" s="199" t="s">
+      <c r="B16" s="221" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="199"/>
-      <c r="D16" s="199"/>
+      <c r="C16" s="221"/>
+      <c r="D16" s="221"/>
       <c r="E16" s="81">
         <f>SUM(E8:E15)</f>
         <v>0</v>
@@ -29141,317 +29147,322 @@
       <c r="A18" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="190" t="s">
+      <c r="B18" s="200" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="191"/>
-      <c r="D18" s="191"/>
-      <c r="E18" s="191"/>
-      <c r="F18" s="192"/>
+      <c r="C18" s="201"/>
+      <c r="D18" s="201"/>
+      <c r="E18" s="201"/>
+      <c r="F18" s="202"/>
     </row>
     <row r="19" spans="1:6" ht="29" customHeight="1" thickBot="1">
       <c r="A19" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="B19" s="187" t="s">
+      <c r="B19" s="188" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="188"/>
-      <c r="D19" s="188"/>
-      <c r="E19" s="188"/>
-      <c r="F19" s="189"/>
+      <c r="C19" s="189"/>
+      <c r="D19" s="189"/>
+      <c r="E19" s="189"/>
+      <c r="F19" s="190"/>
     </row>
     <row r="20" spans="1:6" ht="72" customHeight="1" thickBot="1">
       <c r="A20" s="59" t="s">
         <v>54</v>
       </c>
-      <c r="B20" s="187" t="s">
+      <c r="B20" s="188" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="188"/>
-      <c r="D20" s="188"/>
-      <c r="E20" s="188"/>
-      <c r="F20" s="189"/>
+      <c r="C20" s="189"/>
+      <c r="D20" s="189"/>
+      <c r="E20" s="189"/>
+      <c r="F20" s="190"/>
     </row>
     <row r="21" spans="1:6" ht="58.25" customHeight="1" thickBot="1">
       <c r="A21" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="187" t="s">
+      <c r="B21" s="188" t="s">
         <v>743</v>
       </c>
-      <c r="C21" s="188"/>
-      <c r="D21" s="188"/>
-      <c r="E21" s="188"/>
-      <c r="F21" s="189"/>
+      <c r="C21" s="189"/>
+      <c r="D21" s="189"/>
+      <c r="E21" s="189"/>
+      <c r="F21" s="190"/>
     </row>
     <row r="22" spans="1:6" ht="29" customHeight="1">
-      <c r="A22" s="205" t="s">
+      <c r="A22" s="203" t="s">
         <v>775</v>
       </c>
-      <c r="B22" s="208" t="s">
+      <c r="B22" s="206" t="s">
         <v>747</v>
       </c>
-      <c r="C22" s="209"/>
-      <c r="D22" s="209"/>
-      <c r="E22" s="209"/>
-      <c r="F22" s="210"/>
+      <c r="C22" s="207"/>
+      <c r="D22" s="207"/>
+      <c r="E22" s="207"/>
+      <c r="F22" s="208"/>
     </row>
     <row r="23" spans="1:6" ht="15.75">
-      <c r="A23" s="206"/>
-      <c r="B23" s="211"/>
-      <c r="C23" s="212"/>
-      <c r="D23" s="212"/>
-      <c r="E23" s="212"/>
-      <c r="F23" s="213"/>
+      <c r="A23" s="204"/>
+      <c r="B23" s="209"/>
+      <c r="C23" s="210"/>
+      <c r="D23" s="210"/>
+      <c r="E23" s="210"/>
+      <c r="F23" s="211"/>
     </row>
     <row r="24" spans="1:6" ht="15.75">
-      <c r="A24" s="206"/>
-      <c r="B24" s="214" t="s">
+      <c r="A24" s="204"/>
+      <c r="B24" s="212" t="s">
         <v>748</v>
       </c>
-      <c r="C24" s="215"/>
-      <c r="D24" s="215"/>
-      <c r="E24" s="215"/>
-      <c r="F24" s="216"/>
+      <c r="C24" s="213"/>
+      <c r="D24" s="213"/>
+      <c r="E24" s="213"/>
+      <c r="F24" s="214"/>
     </row>
     <row r="25" spans="1:6" ht="15.75">
-      <c r="A25" s="206"/>
-      <c r="B25" s="217" t="s">
+      <c r="A25" s="204"/>
+      <c r="B25" s="194" t="s">
         <v>749</v>
       </c>
-      <c r="C25" s="218"/>
-      <c r="D25" s="218"/>
-      <c r="E25" s="218"/>
-      <c r="F25" s="219"/>
+      <c r="C25" s="195"/>
+      <c r="D25" s="195"/>
+      <c r="E25" s="195"/>
+      <c r="F25" s="196"/>
     </row>
     <row r="26" spans="1:6" ht="15.75">
-      <c r="A26" s="206"/>
-      <c r="B26" s="211"/>
-      <c r="C26" s="212"/>
-      <c r="D26" s="212"/>
-      <c r="E26" s="212"/>
-      <c r="F26" s="213"/>
+      <c r="A26" s="204"/>
+      <c r="B26" s="209"/>
+      <c r="C26" s="210"/>
+      <c r="D26" s="210"/>
+      <c r="E26" s="210"/>
+      <c r="F26" s="211"/>
     </row>
     <row r="27" spans="1:6" ht="43.25" customHeight="1">
-      <c r="A27" s="206"/>
-      <c r="B27" s="217" t="s">
+      <c r="A27" s="204"/>
+      <c r="B27" s="194" t="s">
         <v>750</v>
       </c>
-      <c r="C27" s="218"/>
-      <c r="D27" s="218"/>
-      <c r="E27" s="218"/>
-      <c r="F27" s="219"/>
+      <c r="C27" s="195"/>
+      <c r="D27" s="195"/>
+      <c r="E27" s="195"/>
+      <c r="F27" s="196"/>
     </row>
     <row r="28" spans="1:6" ht="15.75">
-      <c r="A28" s="206"/>
-      <c r="B28" s="211"/>
-      <c r="C28" s="212"/>
-      <c r="D28" s="212"/>
-      <c r="E28" s="212"/>
-      <c r="F28" s="213"/>
+      <c r="A28" s="204"/>
+      <c r="B28" s="209"/>
+      <c r="C28" s="210"/>
+      <c r="D28" s="210"/>
+      <c r="E28" s="210"/>
+      <c r="F28" s="211"/>
     </row>
     <row r="29" spans="1:6" ht="15.75">
-      <c r="A29" s="206"/>
-      <c r="B29" s="217" t="s">
+      <c r="A29" s="204"/>
+      <c r="B29" s="194" t="s">
         <v>751</v>
       </c>
-      <c r="C29" s="218"/>
-      <c r="D29" s="218"/>
-      <c r="E29" s="218"/>
-      <c r="F29" s="219"/>
+      <c r="C29" s="195"/>
+      <c r="D29" s="195"/>
+      <c r="E29" s="195"/>
+      <c r="F29" s="196"/>
     </row>
     <row r="30" spans="1:6" ht="15.75">
-      <c r="A30" s="206"/>
-      <c r="B30" s="217" t="s">
+      <c r="A30" s="204"/>
+      <c r="B30" s="194" t="s">
         <v>752</v>
       </c>
-      <c r="C30" s="218"/>
-      <c r="D30" s="218"/>
-      <c r="E30" s="218"/>
-      <c r="F30" s="219"/>
+      <c r="C30" s="195"/>
+      <c r="D30" s="195"/>
+      <c r="E30" s="195"/>
+      <c r="F30" s="196"/>
     </row>
     <row r="31" spans="1:6" ht="15.75">
-      <c r="A31" s="206"/>
-      <c r="B31" s="217" t="s">
+      <c r="A31" s="204"/>
+      <c r="B31" s="194" t="s">
         <v>753</v>
       </c>
-      <c r="C31" s="218"/>
-      <c r="D31" s="218"/>
-      <c r="E31" s="218"/>
-      <c r="F31" s="219"/>
+      <c r="C31" s="195"/>
+      <c r="D31" s="195"/>
+      <c r="E31" s="195"/>
+      <c r="F31" s="196"/>
     </row>
     <row r="32" spans="1:6" ht="15.75">
-      <c r="A32" s="206"/>
-      <c r="B32" s="217" t="s">
+      <c r="A32" s="204"/>
+      <c r="B32" s="194" t="s">
         <v>754</v>
       </c>
-      <c r="C32" s="218"/>
-      <c r="D32" s="218"/>
-      <c r="E32" s="218"/>
-      <c r="F32" s="219"/>
+      <c r="C32" s="195"/>
+      <c r="D32" s="195"/>
+      <c r="E32" s="195"/>
+      <c r="F32" s="196"/>
     </row>
     <row r="33" spans="1:6" ht="15.75">
-      <c r="A33" s="206"/>
-      <c r="B33" s="217" t="s">
+      <c r="A33" s="204"/>
+      <c r="B33" s="194" t="s">
         <v>755</v>
       </c>
-      <c r="C33" s="218"/>
-      <c r="D33" s="218"/>
-      <c r="E33" s="218"/>
-      <c r="F33" s="219"/>
+      <c r="C33" s="195"/>
+      <c r="D33" s="195"/>
+      <c r="E33" s="195"/>
+      <c r="F33" s="196"/>
     </row>
     <row r="34" spans="1:6" ht="15.75">
-      <c r="A34" s="206"/>
-      <c r="B34" s="217" t="s">
+      <c r="A34" s="204"/>
+      <c r="B34" s="194" t="s">
         <v>756</v>
       </c>
-      <c r="C34" s="218"/>
-      <c r="D34" s="218"/>
-      <c r="E34" s="218"/>
-      <c r="F34" s="219"/>
+      <c r="C34" s="195"/>
+      <c r="D34" s="195"/>
+      <c r="E34" s="195"/>
+      <c r="F34" s="196"/>
     </row>
     <row r="35" spans="1:6" ht="15.75">
-      <c r="A35" s="206"/>
-      <c r="B35" s="217" t="s">
+      <c r="A35" s="204"/>
+      <c r="B35" s="194" t="s">
         <v>757</v>
       </c>
-      <c r="C35" s="218"/>
-      <c r="D35" s="218"/>
-      <c r="E35" s="218"/>
-      <c r="F35" s="219"/>
+      <c r="C35" s="195"/>
+      <c r="D35" s="195"/>
+      <c r="E35" s="195"/>
+      <c r="F35" s="196"/>
     </row>
     <row r="36" spans="1:6" ht="16.149999999999999" thickBot="1">
-      <c r="A36" s="207"/>
-      <c r="B36" s="220" t="s">
+      <c r="A36" s="205"/>
+      <c r="B36" s="197" t="s">
         <v>758</v>
       </c>
-      <c r="C36" s="221"/>
-      <c r="D36" s="221"/>
-      <c r="E36" s="221"/>
-      <c r="F36" s="222"/>
+      <c r="C36" s="198"/>
+      <c r="D36" s="198"/>
+      <c r="E36" s="198"/>
+      <c r="F36" s="199"/>
     </row>
     <row r="37" spans="1:6" ht="58.25" customHeight="1" thickBot="1">
       <c r="A37" s="54" t="s">
         <v>774</v>
       </c>
-      <c r="B37" s="223" t="s">
+      <c r="B37" s="191" t="s">
         <v>759</v>
       </c>
-      <c r="C37" s="224"/>
-      <c r="D37" s="224"/>
-      <c r="E37" s="224"/>
-      <c r="F37" s="225"/>
+      <c r="C37" s="192"/>
+      <c r="D37" s="192"/>
+      <c r="E37" s="192"/>
+      <c r="F37" s="193"/>
     </row>
     <row r="38" spans="1:6" ht="58.25" customHeight="1" thickBot="1">
       <c r="A38" s="54" t="s">
         <v>773</v>
       </c>
-      <c r="B38" s="223" t="s">
+      <c r="B38" s="191" t="s">
         <v>760</v>
       </c>
-      <c r="C38" s="224"/>
-      <c r="D38" s="224"/>
-      <c r="E38" s="224"/>
-      <c r="F38" s="225"/>
+      <c r="C38" s="192"/>
+      <c r="D38" s="192"/>
+      <c r="E38" s="192"/>
+      <c r="F38" s="193"/>
     </row>
     <row r="39" spans="1:6" ht="16.149999999999999" thickBot="1">
       <c r="A39" s="54" t="s">
         <v>772</v>
       </c>
-      <c r="B39" s="223" t="s">
+      <c r="B39" s="191" t="s">
         <v>761</v>
       </c>
-      <c r="C39" s="224"/>
-      <c r="D39" s="224"/>
-      <c r="E39" s="224"/>
-      <c r="F39" s="225"/>
+      <c r="C39" s="192"/>
+      <c r="D39" s="192"/>
+      <c r="E39" s="192"/>
+      <c r="F39" s="193"/>
     </row>
     <row r="40" spans="1:6" ht="39.75" thickBot="1">
       <c r="A40" s="55" t="s">
         <v>766</v>
       </c>
-      <c r="B40" s="223" t="s">
+      <c r="B40" s="191" t="s">
         <v>762</v>
       </c>
-      <c r="C40" s="224"/>
-      <c r="D40" s="224"/>
-      <c r="E40" s="224"/>
-      <c r="F40" s="225"/>
+      <c r="C40" s="192"/>
+      <c r="D40" s="192"/>
+      <c r="E40" s="192"/>
+      <c r="F40" s="193"/>
     </row>
     <row r="41" spans="1:6" ht="29" customHeight="1" thickBot="1">
       <c r="A41" s="54" t="s">
         <v>771</v>
       </c>
-      <c r="B41" s="223" t="s">
+      <c r="B41" s="191" t="s">
         <v>763</v>
       </c>
-      <c r="C41" s="224"/>
-      <c r="D41" s="224"/>
-      <c r="E41" s="224"/>
-      <c r="F41" s="225"/>
+      <c r="C41" s="192"/>
+      <c r="D41" s="192"/>
+      <c r="E41" s="192"/>
+      <c r="F41" s="193"/>
     </row>
     <row r="42" spans="1:6" ht="16.149999999999999" thickBot="1">
       <c r="A42" s="54" t="s">
         <v>770</v>
       </c>
-      <c r="B42" s="223" t="s">
+      <c r="B42" s="191" t="s">
         <v>764</v>
       </c>
-      <c r="C42" s="224"/>
-      <c r="D42" s="224"/>
-      <c r="E42" s="224"/>
-      <c r="F42" s="225"/>
+      <c r="C42" s="192"/>
+      <c r="D42" s="192"/>
+      <c r="E42" s="192"/>
+      <c r="F42" s="193"/>
     </row>
     <row r="43" spans="1:6" ht="39.75" thickBot="1">
       <c r="A43" s="55" t="s">
         <v>767</v>
       </c>
-      <c r="B43" s="223" t="s">
+      <c r="B43" s="191" t="s">
         <v>768</v>
       </c>
-      <c r="C43" s="224"/>
-      <c r="D43" s="224"/>
-      <c r="E43" s="224"/>
-      <c r="F43" s="225"/>
+      <c r="C43" s="192"/>
+      <c r="D43" s="192"/>
+      <c r="E43" s="192"/>
+      <c r="F43" s="193"/>
     </row>
     <row r="44" spans="1:6" ht="29" customHeight="1" thickBot="1">
       <c r="A44" s="54" t="s">
         <v>769</v>
       </c>
-      <c r="B44" s="223" t="s">
+      <c r="B44" s="191" t="s">
         <v>765</v>
       </c>
-      <c r="C44" s="224"/>
-      <c r="D44" s="224"/>
-      <c r="E44" s="224"/>
-      <c r="F44" s="225"/>
+      <c r="C44" s="192"/>
+      <c r="D44" s="192"/>
+      <c r="E44" s="192"/>
+      <c r="F44" s="193"/>
     </row>
     <row r="45" spans="1:6" ht="28.25" customHeight="1" thickBot="1">
       <c r="A45" s="54" t="s">
         <v>776</v>
       </c>
-      <c r="B45" s="187" t="s">
+      <c r="B45" s="188" t="s">
         <v>777</v>
       </c>
-      <c r="C45" s="188"/>
-      <c r="D45" s="188"/>
-      <c r="E45" s="188"/>
-      <c r="F45" s="189"/>
+      <c r="C45" s="189"/>
+      <c r="D45" s="189"/>
+      <c r="E45" s="189"/>
+      <c r="F45" s="190"/>
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="B45:F45"/>
-    <mergeCell ref="B40:F40"/>
-    <mergeCell ref="B41:F41"/>
-    <mergeCell ref="B42:F42"/>
-    <mergeCell ref="B43:F43"/>
-    <mergeCell ref="B44:F44"/>
-    <mergeCell ref="B35:F35"/>
-    <mergeCell ref="B36:F36"/>
-    <mergeCell ref="B37:F37"/>
-    <mergeCell ref="B38:F38"/>
-    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
     <mergeCell ref="B18:F18"/>
     <mergeCell ref="B19:F19"/>
     <mergeCell ref="A22:A36"/>
@@ -29468,22 +29479,17 @@
     <mergeCell ref="B32:F32"/>
     <mergeCell ref="B33:F33"/>
     <mergeCell ref="B34:F34"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="B37:F37"/>
+    <mergeCell ref="B38:F38"/>
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="B45:F45"/>
+    <mergeCell ref="B40:F40"/>
+    <mergeCell ref="B41:F41"/>
+    <mergeCell ref="B42:F42"/>
+    <mergeCell ref="B43:F43"/>
+    <mergeCell ref="B44:F44"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -29499,7 +29505,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -29544,10 +29550,10 @@
       <c r="B2" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="232" t="s">
+      <c r="C2" s="233" t="s">
         <v>746</v>
       </c>
-      <c r="D2" s="233"/>
+      <c r="D2" s="234"/>
       <c r="E2" s="61">
         <f>SUMPRODUCT(($A$10:$A$249="Required")*(E$10:E$249="Missing"))+0.5*SUMPRODUCT(($A$10:$A$249="Required")*(E$10:E$249="Partial"))</f>
         <v>0</v>
@@ -29568,8 +29574,8 @@
       <c r="B3" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="234"/>
-      <c r="D3" s="235"/>
+      <c r="C3" s="235"/>
+      <c r="D3" s="236"/>
       <c r="E3" s="61">
         <f>SUMPRODUCT(($A$10:$A$249="Basic")*(E$10:E$249="Missing"))+0.5*SUMPRODUCT(($A$10:$A$249="Basic")*(E$10:E$249="Partial"))</f>
         <v>0</v>
@@ -29590,8 +29596,8 @@
       <c r="B4" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="234"/>
-      <c r="D4" s="235"/>
+      <c r="C4" s="235"/>
+      <c r="D4" s="236"/>
       <c r="E4" s="61">
         <f>SUMPRODUCT(($A$10:$A$249="Intermediate")*(E$10:E$249="Missing"))+0.5*SUMPRODUCT(($A$10:$A$249="Intermediate")*(E$10:E$249="Partial"))</f>
         <v>1</v>
@@ -29612,8 +29618,8 @@
       <c r="B5" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="234"/>
-      <c r="D5" s="235"/>
+      <c r="C5" s="235"/>
+      <c r="D5" s="236"/>
       <c r="E5" s="61">
         <f>SUMPRODUCT(($A$10:$A$249="Intermediate")*(E$10:E$249="Completed"))+SUMPRODUCT(($A$10:$A$249="Intermediate")*(E$10:E$249="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$249="Intermediate")*(E$10:E$249="Partial"))</f>
         <v>7</v>
@@ -29634,8 +29640,8 @@
       <c r="B6" s="55" t="s">
         <v>733</v>
       </c>
-      <c r="C6" s="234"/>
-      <c r="D6" s="235"/>
+      <c r="C6" s="235"/>
+      <c r="D6" s="236"/>
       <c r="E6" s="61">
         <f>SUMPRODUCT(($A$10:$A$249="Advanced")*(E$10:E$249="Missing"))+0.5*SUMPRODUCT(($A$10:$A$249="Advanced")*(E$10:E$249="Partial"))</f>
         <v>3</v>
@@ -29656,8 +29662,8 @@
       <c r="B7" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="C7" s="234"/>
-      <c r="D7" s="235"/>
+      <c r="C7" s="235"/>
+      <c r="D7" s="236"/>
       <c r="E7" s="61">
         <f>SUMPRODUCT(($A$10:$A$249="Advanced")*(E$10:E$249="Completed"))+SUMPRODUCT(($A$10:$A$249="Advanced")*(E$10:E$249="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$249="Advanced")*(E$10:E$249="Partial"))</f>
         <v>12</v>
@@ -29672,12 +29678,12 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="14" customHeight="1" thickBot="1">
-      <c r="A8" s="228" t="s">
+      <c r="A8" s="229" t="s">
         <v>734</v>
       </c>
-      <c r="B8" s="229"/>
-      <c r="C8" s="234"/>
-      <c r="D8" s="235"/>
+      <c r="B8" s="230"/>
+      <c r="C8" s="235"/>
+      <c r="D8" s="236"/>
       <c r="E8" s="61">
         <f>SUMPRODUCT(($A$10:$A$249="Professional")*(E$10:E$249="Completed"))+SUMPRODUCT(($A$10:$A$249="Professional")*(E$10:E$249="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$249="Professional")*(E$10:E$249="Partial"))</f>
         <v>1.5</v>
@@ -29692,10 +29698,10 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="14" customHeight="1" thickBot="1">
-      <c r="A9" s="230"/>
-      <c r="B9" s="231"/>
-      <c r="C9" s="236"/>
-      <c r="D9" s="237"/>
+      <c r="A9" s="231"/>
+      <c r="B9" s="232"/>
+      <c r="C9" s="237"/>
+      <c r="D9" s="238"/>
       <c r="E9" s="61">
         <f>SUMPRODUCT(($A$10:$A$239="Exceptional")*(E$10:E$239="Completed"))+SUMPRODUCT(($A$10:$A$239="Exceptional")*(E$10:E$239="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$239="Exceptional")*(E$10:E$239="Partial"))</f>
         <v>0</v>
@@ -29710,10 +29716,10 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="14" customHeight="1" thickBot="1">
-      <c r="A10" s="226" t="s">
+      <c r="A10" s="227" t="s">
         <v>739</v>
       </c>
-      <c r="B10" s="227"/>
+      <c r="B10" s="228"/>
       <c r="C10" s="8" t="s">
         <v>73</v>
       </c>
@@ -29965,10 +29971,10 @@
       <c r="G22" s="55"/>
     </row>
     <row r="23" spans="1:7" ht="14" customHeight="1" thickBot="1">
-      <c r="A23" s="226" t="s">
+      <c r="A23" s="227" t="s">
         <v>97</v>
       </c>
-      <c r="B23" s="227"/>
+      <c r="B23" s="228"/>
       <c r="C23" s="8" t="s">
         <v>73</v>
       </c>
@@ -30281,10 +30287,10 @@
       <c r="G38" s="55"/>
     </row>
     <row r="39" spans="1:7" ht="14" customHeight="1" thickBot="1">
-      <c r="A39" s="226" t="s">
+      <c r="A39" s="227" t="s">
         <v>789</v>
       </c>
-      <c r="B39" s="227"/>
+      <c r="B39" s="228"/>
       <c r="C39" s="8" t="s">
         <v>73</v>
       </c>
@@ -30382,10 +30388,10 @@
       </c>
     </row>
     <row r="44" spans="1:7" ht="14" customHeight="1" thickBot="1">
-      <c r="A44" s="226" t="s">
+      <c r="A44" s="227" t="s">
         <v>798</v>
       </c>
-      <c r="B44" s="227"/>
+      <c r="B44" s="228"/>
       <c r="C44" s="8" t="s">
         <v>73</v>
       </c>
@@ -30498,10 +30504,10 @@
       <c r="G49" s="55"/>
     </row>
     <row r="50" spans="1:7" ht="14" customHeight="1" thickBot="1">
-      <c r="A50" s="226" t="s">
+      <c r="A50" s="227" t="s">
         <v>119</v>
       </c>
-      <c r="B50" s="227"/>
+      <c r="B50" s="228"/>
       <c r="C50" s="8" t="s">
         <v>73</v>
       </c>
@@ -30671,10 +30677,10 @@
       <c r="G58" s="55"/>
     </row>
     <row r="59" spans="1:7" ht="14" customHeight="1" thickBot="1">
-      <c r="A59" s="226" t="s">
+      <c r="A59" s="227" t="s">
         <v>134</v>
       </c>
-      <c r="B59" s="227"/>
+      <c r="B59" s="228"/>
       <c r="C59" s="8" t="s">
         <v>73</v>
       </c>
@@ -30787,10 +30793,10 @@
       <c r="G64" s="55"/>
     </row>
     <row r="65" spans="1:7" ht="14" customHeight="1" thickBot="1">
-      <c r="A65" s="226" t="s">
+      <c r="A65" s="227" t="s">
         <v>145</v>
       </c>
-      <c r="B65" s="227"/>
+      <c r="B65" s="228"/>
       <c r="C65" s="8" t="s">
         <v>73</v>
       </c>
@@ -31120,10 +31126,10 @@
       <c r="G81" s="55"/>
     </row>
     <row r="82" spans="1:7" ht="14" customHeight="1" thickBot="1">
-      <c r="A82" s="226" t="s">
+      <c r="A82" s="227" t="s">
         <v>169</v>
       </c>
-      <c r="B82" s="227"/>
+      <c r="B82" s="228"/>
       <c r="C82" s="8" t="s">
         <v>73</v>
       </c>
@@ -31259,10 +31265,10 @@
       <c r="G88" s="55"/>
     </row>
     <row r="89" spans="1:7" ht="14" customHeight="1" thickBot="1">
-      <c r="A89" s="226" t="s">
+      <c r="A89" s="227" t="s">
         <v>176</v>
       </c>
-      <c r="B89" s="227"/>
+      <c r="B89" s="228"/>
       <c r="C89" s="8" t="s">
         <v>73</v>
       </c>
@@ -31430,7 +31436,7 @@
       <c r="C97" s="55" t="s">
         <v>779</v>
       </c>
-      <c r="D97" s="238" t="s">
+      <c r="D97" s="121" t="s">
         <v>917</v>
       </c>
       <c r="E97" s="8" t="s">
@@ -31444,10 +31450,10 @@
       </c>
     </row>
     <row r="98" spans="1:7" ht="14" customHeight="1" thickBot="1">
-      <c r="A98" s="226" t="s">
+      <c r="A98" s="227" t="s">
         <v>848</v>
       </c>
-      <c r="B98" s="227"/>
+      <c r="B98" s="228"/>
       <c r="C98" s="8" t="s">
         <v>73</v>
       </c>
@@ -31543,10 +31549,10 @@
       <c r="G102" s="55"/>
     </row>
     <row r="103" spans="1:7" ht="14" customHeight="1" thickBot="1">
-      <c r="A103" s="226" t="s">
+      <c r="A103" s="227" t="s">
         <v>187</v>
       </c>
-      <c r="B103" s="227"/>
+      <c r="B103" s="228"/>
       <c r="C103" s="8" t="s">
         <v>73</v>
       </c>
@@ -31640,10 +31646,10 @@
       <c r="G107" s="55"/>
     </row>
     <row r="108" spans="1:7" ht="14" customHeight="1" thickBot="1">
-      <c r="A108" s="226" t="s">
+      <c r="A108" s="227" t="s">
         <v>193</v>
       </c>
-      <c r="B108" s="227"/>
+      <c r="B108" s="228"/>
       <c r="C108" s="8" t="s">
         <v>73</v>
       </c>
@@ -31718,10 +31724,10 @@
       <c r="G111" s="55"/>
     </row>
     <row r="112" spans="1:7" ht="14" customHeight="1" thickBot="1">
-      <c r="A112" s="226" t="s">
+      <c r="A112" s="227" t="s">
         <v>826</v>
       </c>
-      <c r="B112" s="227"/>
+      <c r="B112" s="228"/>
       <c r="C112" s="8" t="s">
         <v>73</v>
       </c>
@@ -31819,10 +31825,10 @@
       <c r="G116" s="55"/>
     </row>
     <row r="117" spans="1:7" ht="14" customHeight="1" thickBot="1">
-      <c r="A117" s="226" t="s">
+      <c r="A117" s="227" t="s">
         <v>199</v>
       </c>
-      <c r="B117" s="227"/>
+      <c r="B117" s="228"/>
       <c r="C117" s="8" t="s">
         <v>682</v>
       </c>
@@ -31993,6 +31999,13 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A8:B9"/>
+    <mergeCell ref="C2:D9"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A39:B39"/>
     <mergeCell ref="A108:B108"/>
     <mergeCell ref="A117:B117"/>
     <mergeCell ref="A50:B50"/>
@@ -32002,13 +32015,6 @@
     <mergeCell ref="A89:B89"/>
     <mergeCell ref="A112:B112"/>
     <mergeCell ref="A98:B98"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A8:B9"/>
-    <mergeCell ref="C2:D9"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A39:B39"/>
   </mergeCells>
   <conditionalFormatting sqref="A97 A11:A18 A89:A91 A82:A86 A94:A95 A117:A250 A103:A105 A107:A111 A58:A68 A50:A56 A40:A42 A33:A38 A20:A29">
     <cfRule type="beginsWith" dxfId="1536" priority="949" stopIfTrue="1" operator="beginsWith" text="Exceptional">
@@ -33763,10 +33769,10 @@
       <c r="B2" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="232" t="s">
+      <c r="C2" s="233" t="s">
         <v>720</v>
       </c>
-      <c r="D2" s="233"/>
+      <c r="D2" s="234"/>
       <c r="E2" s="61">
         <f>SUMPRODUCT(($A$10:$A$234="Required")*(E$10:E$234="Missing"))+0.5*SUMPRODUCT(($A$10:$A$234="Required")*(E$10:E$234="Partial"))</f>
         <v>0</v>
@@ -33787,8 +33793,8 @@
       <c r="B3" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="234"/>
-      <c r="D3" s="235"/>
+      <c r="C3" s="235"/>
+      <c r="D3" s="236"/>
       <c r="E3" s="61">
         <f>SUMPRODUCT(($A$10:$A$234="Basic")*(E$10:E$234="Missing"))+0.5*SUMPRODUCT(($A$10:$A$234="Basic")*(E$10:E$234="Partial"))</f>
         <v>0</v>
@@ -33809,8 +33815,8 @@
       <c r="B4" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="234"/>
-      <c r="D4" s="235"/>
+      <c r="C4" s="235"/>
+      <c r="D4" s="236"/>
       <c r="E4" s="61">
         <f>SUMPRODUCT(($A$10:$A$234="Intermediate")*(E$10:E$234="Missing"))+0.5*SUMPRODUCT(($A$10:$A$234="Intermediate")*(E$10:E$234="Partial"))</f>
         <v>0</v>
@@ -33831,8 +33837,8 @@
       <c r="B5" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="234"/>
-      <c r="D5" s="235"/>
+      <c r="C5" s="235"/>
+      <c r="D5" s="236"/>
       <c r="E5" s="61">
         <f>SUMPRODUCT(($A$10:$A$234="Intermediate")*(E$10:E$234="Completed"))+SUMPRODUCT(($A$10:$A$234="Intermediate")*(E$10:E$234="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$234="Intermediate")*(E$10:E$234="Partial"))</f>
         <v>5</v>
@@ -33853,8 +33859,8 @@
       <c r="B6" s="55" t="s">
         <v>733</v>
       </c>
-      <c r="C6" s="234"/>
-      <c r="D6" s="235"/>
+      <c r="C6" s="235"/>
+      <c r="D6" s="236"/>
       <c r="E6" s="61">
         <f>SUMPRODUCT(($A$10:$A$234="Advanced")*(E$10:E$234="Missing"))+0.5*SUMPRODUCT(($A$10:$A$234="Advanced")*(E$10:E$234="Partial"))</f>
         <v>2</v>
@@ -33875,8 +33881,8 @@
       <c r="B7" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="C7" s="234"/>
-      <c r="D7" s="235"/>
+      <c r="C7" s="235"/>
+      <c r="D7" s="236"/>
       <c r="E7" s="61">
         <f>SUMPRODUCT(($A$10:$A$234="Advanced")*(E$10:E$234="Completed"))+SUMPRODUCT(($A$10:$A$234="Advanced")*(E$10:E$234="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$234="Advanced")*(E$10:E$234="Partial"))</f>
         <v>12</v>
@@ -33891,12 +33897,12 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="14" customHeight="1" thickBot="1">
-      <c r="A8" s="228" t="s">
+      <c r="A8" s="229" t="s">
         <v>734</v>
       </c>
-      <c r="B8" s="229"/>
-      <c r="C8" s="234"/>
-      <c r="D8" s="235"/>
+      <c r="B8" s="230"/>
+      <c r="C8" s="235"/>
+      <c r="D8" s="236"/>
       <c r="E8" s="61">
         <f>SUMPRODUCT(($A$10:$A$234="Professional")*(E$10:E$234="Completed"))+SUMPRODUCT(($A$10:$A$234="Professional")*(E$10:E$234="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$234="Professional")*(E$10:E$234="Partial"))</f>
         <v>2</v>
@@ -33911,10 +33917,10 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="14" customHeight="1" thickBot="1">
-      <c r="A9" s="230"/>
-      <c r="B9" s="231"/>
-      <c r="C9" s="236"/>
-      <c r="D9" s="237"/>
+      <c r="A9" s="231"/>
+      <c r="B9" s="232"/>
+      <c r="C9" s="237"/>
+      <c r="D9" s="238"/>
       <c r="E9" s="61">
         <f>SUMPRODUCT(($A$10:$A$233="Exceptional")*(E$10:E$233="Completed"))+SUMPRODUCT(($A$10:$A$233="Exceptional")*(E$10:E$233="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$233="Exceptional")*(E$10:E$233="Partial"))</f>
         <v>0</v>
@@ -33929,10 +33935,10 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="14" customHeight="1" thickBot="1">
-      <c r="A10" s="226" t="s">
+      <c r="A10" s="227" t="s">
         <v>229</v>
       </c>
-      <c r="B10" s="227"/>
+      <c r="B10" s="228"/>
       <c r="C10" s="8" t="s">
         <v>73</v>
       </c>
@@ -34085,10 +34091,10 @@
       <c r="G17" s="55"/>
     </row>
     <row r="18" spans="1:7" ht="14" customHeight="1" thickBot="1">
-      <c r="A18" s="226" t="s">
+      <c r="A18" s="227" t="s">
         <v>237</v>
       </c>
-      <c r="B18" s="227"/>
+      <c r="B18" s="228"/>
       <c r="C18" s="8" t="s">
         <v>73</v>
       </c>
@@ -34239,10 +34245,10 @@
       <c r="G25" s="55"/>
     </row>
     <row r="26" spans="1:7" ht="14" customHeight="1" thickBot="1">
-      <c r="A26" s="226" t="s">
+      <c r="A26" s="227" t="s">
         <v>242</v>
       </c>
-      <c r="B26" s="227"/>
+      <c r="B26" s="228"/>
       <c r="C26" s="8" t="s">
         <v>73</v>
       </c>
@@ -34735,10 +34741,10 @@
       <c r="G51" s="55"/>
     </row>
     <row r="52" spans="1:7" ht="14" customHeight="1" thickBot="1">
-      <c r="A52" s="226" t="s">
+      <c r="A52" s="227" t="s">
         <v>268</v>
       </c>
-      <c r="B52" s="227"/>
+      <c r="B52" s="228"/>
       <c r="C52" s="68" t="s">
         <v>691</v>
       </c>
@@ -35119,10 +35125,10 @@
       <c r="G71" s="55"/>
     </row>
     <row r="72" spans="1:7" ht="14" customHeight="1" thickBot="1">
-      <c r="A72" s="226" t="s">
+      <c r="A72" s="227" t="s">
         <v>278</v>
       </c>
-      <c r="B72" s="227"/>
+      <c r="B72" s="228"/>
       <c r="C72" s="8" t="s">
         <v>73</v>
       </c>
@@ -36319,10 +36325,10 @@
       <c r="B2" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="232" t="s">
+      <c r="C2" s="233" t="s">
         <v>689</v>
       </c>
-      <c r="D2" s="233"/>
+      <c r="D2" s="234"/>
       <c r="E2" s="61">
         <f>SUMPRODUCT(($A$10:$A$176="Required")*(E$10:E$176="Missing"))+0.5*SUMPRODUCT(($A$10:$A$176="Required")*(E$10:E$176="Partial"))</f>
         <v>0</v>
@@ -36343,8 +36349,8 @@
       <c r="B3" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="234"/>
-      <c r="D3" s="235"/>
+      <c r="C3" s="235"/>
+      <c r="D3" s="236"/>
       <c r="E3" s="61">
         <f>SUMPRODUCT(($A$10:$A$176="Basic")*(E$10:E$176="Missing"))+0.5*SUMPRODUCT(($A$10:$A$176="Basic")*(E$10:E$176="Partial"))</f>
         <v>0</v>
@@ -36365,8 +36371,8 @@
       <c r="B4" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="234"/>
-      <c r="D4" s="235"/>
+      <c r="C4" s="235"/>
+      <c r="D4" s="236"/>
       <c r="E4" s="61">
         <f>SUMPRODUCT(($A$10:$A$176="Intermediate")*(E$10:E$176="Missing"))+0.5*SUMPRODUCT(($A$10:$A$176="Intermediate")*(E$10:E$176="Partial"))</f>
         <v>0</v>
@@ -36387,8 +36393,8 @@
       <c r="B5" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="234"/>
-      <c r="D5" s="235"/>
+      <c r="C5" s="235"/>
+      <c r="D5" s="236"/>
       <c r="E5" s="61">
         <f>SUMPRODUCT(($A$10:$A$176="Intermediate")*(E$10:E$176="Completed"))+SUMPRODUCT(($A$10:$A$176="Intermediate")*(E$10:E$176="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$176="Intermediate")*(E$10:E$176="Partial"))</f>
         <v>4</v>
@@ -36409,8 +36415,8 @@
       <c r="B6" s="55" t="s">
         <v>733</v>
       </c>
-      <c r="C6" s="234"/>
-      <c r="D6" s="235"/>
+      <c r="C6" s="235"/>
+      <c r="D6" s="236"/>
       <c r="E6" s="61">
         <f>SUMPRODUCT(($A$10:$A$176="Advanced")*(E$10:E$176="Missing"))+0.5*SUMPRODUCT(($A$10:$A$176="Advanced")*(E$10:E$176="Partial"))</f>
         <v>5</v>
@@ -36431,8 +36437,8 @@
       <c r="B7" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="C7" s="234"/>
-      <c r="D7" s="235"/>
+      <c r="C7" s="235"/>
+      <c r="D7" s="236"/>
       <c r="E7" s="61">
         <f>SUMPRODUCT(($A$10:$A$176="Advanced")*(E$10:E$176="Completed"))+SUMPRODUCT(($A$10:$A$176="Advanced")*(E$10:E$176="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$176="Advanced")*(E$10:E$176="Partial"))</f>
         <v>2</v>
@@ -36447,12 +36453,12 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="14" customHeight="1" thickBot="1">
-      <c r="A8" s="228" t="s">
+      <c r="A8" s="229" t="s">
         <v>734</v>
       </c>
-      <c r="B8" s="229"/>
-      <c r="C8" s="234"/>
-      <c r="D8" s="235"/>
+      <c r="B8" s="230"/>
+      <c r="C8" s="235"/>
+      <c r="D8" s="236"/>
       <c r="E8" s="61">
         <f>SUMPRODUCT(($A$10:$A$176="Professional")*(E$10:E$176="Completed"))+SUMPRODUCT(($A$10:$A$176="Professional")*(E$10:E$176="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$176="Professional")*(E$10:E$176="Partial"))</f>
         <v>0</v>
@@ -36467,10 +36473,10 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="14" customHeight="1" thickBot="1">
-      <c r="A9" s="230"/>
-      <c r="B9" s="231"/>
-      <c r="C9" s="236"/>
-      <c r="D9" s="237"/>
+      <c r="A9" s="231"/>
+      <c r="B9" s="232"/>
+      <c r="C9" s="237"/>
+      <c r="D9" s="238"/>
       <c r="E9" s="61">
         <f>SUMPRODUCT(($A$10:$A$239="Exceptional")*(E$10:E$239="Completed"))+SUMPRODUCT(($A$10:$A$239="Exceptional")*(E$10:E$239="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$239="Exceptional")*(E$10:E$239="Partial"))</f>
         <v>0</v>
@@ -36485,10 +36491,10 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="14" customHeight="1" thickBot="1">
-      <c r="A10" s="226" t="s">
+      <c r="A10" s="227" t="s">
         <v>217</v>
       </c>
-      <c r="B10" s="227"/>
+      <c r="B10" s="228"/>
       <c r="C10" s="8" t="s">
         <v>73</v>
       </c>
@@ -36715,10 +36721,10 @@
       <c r="G21" s="55"/>
     </row>
     <row r="22" spans="1:7" ht="14" customHeight="1" thickBot="1">
-      <c r="A22" s="226" t="s">
+      <c r="A22" s="227" t="s">
         <v>484</v>
       </c>
-      <c r="B22" s="227"/>
+      <c r="B22" s="228"/>
       <c r="C22" s="8" t="s">
         <v>73</v>
       </c>
@@ -36907,10 +36913,10 @@
       <c r="G31" s="55"/>
     </row>
     <row r="32" spans="1:7" ht="14" customHeight="1" thickBot="1">
-      <c r="A32" s="226" t="s">
+      <c r="A32" s="227" t="s">
         <v>500</v>
       </c>
-      <c r="B32" s="227"/>
+      <c r="B32" s="228"/>
       <c r="C32" s="8" t="s">
         <v>73</v>
       </c>
@@ -37118,10 +37124,10 @@
       <c r="G42" s="55"/>
     </row>
     <row r="43" spans="1:7" ht="14" customHeight="1" thickBot="1">
-      <c r="A43" s="226" t="s">
+      <c r="A43" s="227" t="s">
         <v>609</v>
       </c>
-      <c r="B43" s="227"/>
+      <c r="B43" s="228"/>
       <c r="C43" s="8" t="s">
         <v>73</v>
       </c>
@@ -37669,10 +37675,10 @@
       <c r="B2" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="232" t="s">
+      <c r="C2" s="233" t="s">
         <v>356</v>
       </c>
-      <c r="D2" s="233"/>
+      <c r="D2" s="234"/>
       <c r="E2" s="61">
         <f>SUMPRODUCT(($A$10:$A$249="Required")*(E$10:E$249="Missing"))+0.5*SUMPRODUCT(($A$10:$A$249="Required")*(E$10:E$249="Partial"))</f>
         <v>0</v>
@@ -37693,8 +37699,8 @@
       <c r="B3" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="234"/>
-      <c r="D3" s="235"/>
+      <c r="C3" s="235"/>
+      <c r="D3" s="236"/>
       <c r="E3" s="61">
         <f>SUMPRODUCT(($A$10:$A$249="Basic")*(E$10:E$249="Missing"))+0.5*SUMPRODUCT(($A$10:$A$249="Basic")*(E$10:E$249="Partial"))</f>
         <v>0</v>
@@ -37715,8 +37721,8 @@
       <c r="B4" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="234"/>
-      <c r="D4" s="235"/>
+      <c r="C4" s="235"/>
+      <c r="D4" s="236"/>
       <c r="E4" s="61">
         <f>SUMPRODUCT(($A$10:$A$249="Intermediate")*(E$10:E$249="Missing"))+0.5*SUMPRODUCT(($A$10:$A$249="Intermediate")*(E$10:E$249="Partial"))</f>
         <v>0</v>
@@ -37737,8 +37743,8 @@
       <c r="B5" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="234"/>
-      <c r="D5" s="235"/>
+      <c r="C5" s="235"/>
+      <c r="D5" s="236"/>
       <c r="E5" s="61">
         <f>SUMPRODUCT(($A$10:$A$249="Intermediate")*(E$10:E$249="Completed"))+SUMPRODUCT(($A$10:$A$249="Intermediate")*(E$10:E$249="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$249="Intermediate")*(E$10:E$249="Partial"))</f>
         <v>1</v>
@@ -37759,8 +37765,8 @@
       <c r="B6" s="55" t="s">
         <v>733</v>
       </c>
-      <c r="C6" s="234"/>
-      <c r="D6" s="235"/>
+      <c r="C6" s="235"/>
+      <c r="D6" s="236"/>
       <c r="E6" s="61">
         <f>SUMPRODUCT(($A$10:$A$249="Advanced")*(E$10:E$249="Missing"))+0.5*SUMPRODUCT(($A$10:$A$249="Advanced")*(E$10:E$249="Partial"))</f>
         <v>0</v>
@@ -37781,8 +37787,8 @@
       <c r="B7" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="C7" s="234"/>
-      <c r="D7" s="235"/>
+      <c r="C7" s="235"/>
+      <c r="D7" s="236"/>
       <c r="E7" s="61">
         <f>SUMPRODUCT(($A$10:$A$249="Advanced")*(E$10:E$249="Completed"))+SUMPRODUCT(($A$10:$A$249="Advanced")*(E$10:E$249="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$249="Advanced")*(E$10:E$249="Partial"))</f>
         <v>2</v>
@@ -37797,12 +37803,12 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="14" customHeight="1" thickBot="1">
-      <c r="A8" s="228" t="s">
+      <c r="A8" s="229" t="s">
         <v>734</v>
       </c>
-      <c r="B8" s="229"/>
-      <c r="C8" s="234"/>
-      <c r="D8" s="235"/>
+      <c r="B8" s="230"/>
+      <c r="C8" s="235"/>
+      <c r="D8" s="236"/>
       <c r="E8" s="61">
         <f>SUMPRODUCT(($A$10:$A$249="Professional")*(E$10:E$249="Completed"))+SUMPRODUCT(($A$10:$A$249="Professional")*(E$10:E$249="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$249="Professional")*(E$10:E$249="Partial"))</f>
         <v>0</v>
@@ -37817,10 +37823,10 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="14" customHeight="1" thickBot="1">
-      <c r="A9" s="230"/>
-      <c r="B9" s="231"/>
-      <c r="C9" s="236"/>
-      <c r="D9" s="237"/>
+      <c r="A9" s="231"/>
+      <c r="B9" s="232"/>
+      <c r="C9" s="237"/>
+      <c r="D9" s="238"/>
       <c r="E9" s="61">
         <f>SUMPRODUCT(($A$10:$A$241="Exceptional")*(E$10:E$241="Completed"))+SUMPRODUCT(($A$10:$A$241="Exceptional")*(E$10:E$241="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$241="Exceptional")*(E$10:E$241="Partial"))</f>
         <v>0</v>
@@ -37835,10 +37841,10 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="14" customHeight="1" thickBot="1">
-      <c r="A10" s="226" t="s">
+      <c r="A10" s="227" t="s">
         <v>357</v>
       </c>
-      <c r="B10" s="227"/>
+      <c r="B10" s="228"/>
       <c r="C10" s="8" t="s">
         <v>73</v>
       </c>
@@ -37972,10 +37978,10 @@
       <c r="G16" s="55"/>
     </row>
     <row r="17" spans="1:7" ht="14" customHeight="1" thickBot="1">
-      <c r="A17" s="226" t="s">
+      <c r="A17" s="227" t="s">
         <v>368</v>
       </c>
-      <c r="B17" s="227"/>
+      <c r="B17" s="228"/>
       <c r="C17" s="8" t="s">
         <v>73</v>
       </c>
@@ -38088,10 +38094,10 @@
       <c r="G22" s="55"/>
     </row>
     <row r="23" spans="1:7" ht="14" customHeight="1" thickBot="1">
-      <c r="A23" s="226" t="s">
+      <c r="A23" s="227" t="s">
         <v>379</v>
       </c>
-      <c r="B23" s="227"/>
+      <c r="B23" s="228"/>
       <c r="C23" s="8" t="s">
         <v>685</v>
       </c>
@@ -38223,10 +38229,10 @@
       <c r="G29" s="55"/>
     </row>
     <row r="30" spans="1:7" ht="14" customHeight="1" thickBot="1">
-      <c r="A30" s="226" t="s">
+      <c r="A30" s="227" t="s">
         <v>392</v>
       </c>
-      <c r="B30" s="227"/>
+      <c r="B30" s="228"/>
       <c r="C30" s="8" t="s">
         <v>683</v>
       </c>
@@ -38377,10 +38383,10 @@
       <c r="G37" s="55"/>
     </row>
     <row r="38" spans="1:7" ht="14" customHeight="1" thickBot="1">
-      <c r="A38" s="226" t="s">
+      <c r="A38" s="227" t="s">
         <v>407</v>
       </c>
-      <c r="B38" s="227"/>
+      <c r="B38" s="228"/>
       <c r="C38" s="8" t="s">
         <v>684</v>
       </c>
@@ -38512,10 +38518,10 @@
       <c r="G44" s="55"/>
     </row>
     <row r="45" spans="1:7" ht="14" customHeight="1" thickBot="1">
-      <c r="A45" s="226" t="s">
+      <c r="A45" s="227" t="s">
         <v>420</v>
       </c>
-      <c r="B45" s="227"/>
+      <c r="B45" s="228"/>
       <c r="C45" s="8" t="s">
         <v>73</v>
       </c>
@@ -39613,10 +39619,10 @@
       <c r="B2" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="232" t="s">
+      <c r="C2" s="233" t="s">
         <v>847</v>
       </c>
-      <c r="D2" s="233"/>
+      <c r="D2" s="234"/>
       <c r="E2" s="61">
         <f>SUMPRODUCT(($A$10:$A$227="Required")*(E$10:E$227="Missing"))+0.5*SUMPRODUCT(($A$10:$A$227="Required")*(E$10:E$227="Partial"))</f>
         <v>0</v>
@@ -39637,8 +39643,8 @@
       <c r="B3" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="234"/>
-      <c r="D3" s="235"/>
+      <c r="C3" s="235"/>
+      <c r="D3" s="236"/>
       <c r="E3" s="61">
         <f>SUMPRODUCT(($A$10:$A$227="Basic")*(E$10:E$227="Missing"))+0.5*SUMPRODUCT(($A$10:$A$227="Basic")*(E$10:E$227="Partial"))</f>
         <v>0</v>
@@ -39659,8 +39665,8 @@
       <c r="B4" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="234"/>
-      <c r="D4" s="235"/>
+      <c r="C4" s="235"/>
+      <c r="D4" s="236"/>
       <c r="E4" s="61">
         <f>SUMPRODUCT(($A$10:$A$227="Intermediate")*(E$10:E$227="Missing"))+0.5*SUMPRODUCT(($A$10:$A$227="Intermediate")*(E$10:E$227="Partial"))</f>
         <v>0</v>
@@ -39681,8 +39687,8 @@
       <c r="B5" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="234"/>
-      <c r="D5" s="235"/>
+      <c r="C5" s="235"/>
+      <c r="D5" s="236"/>
       <c r="E5" s="61">
         <f>SUMPRODUCT(($A$10:$A$227="Intermediate")*(E$10:E$227="Completed"))+SUMPRODUCT(($A$10:$A$227="Intermediate")*(E$10:E$227="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$227="Intermediate")*(E$10:E$227="Partial"))</f>
         <v>7</v>
@@ -39703,8 +39709,8 @@
       <c r="B6" s="55" t="s">
         <v>733</v>
       </c>
-      <c r="C6" s="234"/>
-      <c r="D6" s="235"/>
+      <c r="C6" s="235"/>
+      <c r="D6" s="236"/>
       <c r="E6" s="61">
         <f>SUMPRODUCT(($A$10:$A$227="Advanced")*(E$10:E$227="Missing"))+0.5*SUMPRODUCT(($A$10:$A$227="Advanced")*(E$10:E$227="Partial"))</f>
         <v>6</v>
@@ -39725,8 +39731,8 @@
       <c r="B7" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="C7" s="234"/>
-      <c r="D7" s="235"/>
+      <c r="C7" s="235"/>
+      <c r="D7" s="236"/>
       <c r="E7" s="61">
         <f>SUMPRODUCT(($A$10:$A$227="Advanced")*(E$10:E$227="Completed"))+SUMPRODUCT(($A$10:$A$227="Advanced")*(E$10:E$227="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$227="Advanced")*(E$10:E$227="Partial"))</f>
         <v>2</v>
@@ -39741,12 +39747,12 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="14" customHeight="1" thickBot="1">
-      <c r="A8" s="228" t="s">
+      <c r="A8" s="229" t="s">
         <v>734</v>
       </c>
-      <c r="B8" s="229"/>
-      <c r="C8" s="234"/>
-      <c r="D8" s="235"/>
+      <c r="B8" s="230"/>
+      <c r="C8" s="235"/>
+      <c r="D8" s="236"/>
       <c r="E8" s="61">
         <f>SUMPRODUCT(($A$10:$A$227="Professional")*(E$10:E$227="Completed"))+SUMPRODUCT(($A$10:$A$227="Professional")*(E$10:E$227="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$227="Professional")*(E$10:E$227="Partial"))</f>
         <v>0</v>
@@ -39761,10 +39767,10 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="14" customHeight="1" thickBot="1">
-      <c r="A9" s="230"/>
-      <c r="B9" s="231"/>
-      <c r="C9" s="236"/>
-      <c r="D9" s="237"/>
+      <c r="A9" s="231"/>
+      <c r="B9" s="232"/>
+      <c r="C9" s="237"/>
+      <c r="D9" s="238"/>
       <c r="E9" s="61">
         <f>SUMPRODUCT(($A$10:$A$240="Exceptional")*(E$10:E$240="Completed"))+SUMPRODUCT(($A$10:$A$240="Exceptional")*(E$10:E$240="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$240="Exceptional")*(E$10:E$240="Partial"))</f>
         <v>0</v>
@@ -39779,10 +39785,10 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="14" customHeight="1" thickBot="1">
-      <c r="A10" s="226" t="s">
+      <c r="A10" s="227" t="s">
         <v>445</v>
       </c>
-      <c r="B10" s="227"/>
+      <c r="B10" s="228"/>
       <c r="C10" s="8" t="s">
         <v>73</v>
       </c>
@@ -40142,10 +40148,10 @@
       <c r="G28" s="55"/>
     </row>
     <row r="29" spans="1:7" ht="14" customHeight="1" thickBot="1">
-      <c r="A29" s="226" t="s">
+      <c r="A29" s="227" t="s">
         <v>859</v>
       </c>
-      <c r="B29" s="227"/>
+      <c r="B29" s="228"/>
       <c r="C29" s="8" t="s">
         <v>680</v>
       </c>
@@ -40372,10 +40378,10 @@
       <c r="G40" s="55"/>
     </row>
     <row r="41" spans="1:7" s="24" customFormat="1" ht="14" customHeight="1" thickBot="1">
-      <c r="A41" s="226" t="s">
+      <c r="A41" s="227" t="s">
         <v>97</v>
       </c>
-      <c r="B41" s="227"/>
+      <c r="B41" s="228"/>
       <c r="C41" s="8" t="s">
         <v>73</v>
       </c>
@@ -40545,10 +40551,10 @@
       <c r="G49" s="55"/>
     </row>
     <row r="50" spans="1:7" s="24" customFormat="1" ht="14" customHeight="1" thickBot="1">
-      <c r="A50" s="226" t="s">
+      <c r="A50" s="227" t="s">
         <v>537</v>
       </c>
-      <c r="B50" s="227"/>
+      <c r="B50" s="228"/>
       <c r="C50" s="68" t="s">
         <v>681</v>
       </c>
@@ -41536,8 +41542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G118"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6875" defaultRowHeight="14" customHeight="1"/>
@@ -41581,10 +41587,10 @@
       <c r="B2" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="232" t="s">
+      <c r="C2" s="233" t="s">
         <v>558</v>
       </c>
-      <c r="D2" s="233"/>
+      <c r="D2" s="234"/>
       <c r="E2" s="61">
         <f>SUMPRODUCT(($A$10:$A$242="Required")*(E$10:E$242="Missing"))+0.5*SUMPRODUCT(($A$10:$A$242="Required")*(E$10:E$242="Partial"))</f>
         <v>0</v>
@@ -41605,8 +41611,8 @@
       <c r="B3" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="234"/>
-      <c r="D3" s="235"/>
+      <c r="C3" s="235"/>
+      <c r="D3" s="236"/>
       <c r="E3" s="61">
         <f>SUMPRODUCT(($A$10:$A$242="Basic")*(E$10:E$242="Missing"))+0.5*SUMPRODUCT(($A$10:$A$242="Basic")*(E$10:E$242="Partial"))</f>
         <v>0</v>
@@ -41627,15 +41633,15 @@
       <c r="B4" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="234"/>
-      <c r="D4" s="235"/>
+      <c r="C4" s="235"/>
+      <c r="D4" s="236"/>
       <c r="E4" s="61">
         <f>SUMPRODUCT(($A$10:$A$242="Intermediate")*(E$10:E$242="Missing"))+0.5*SUMPRODUCT(($A$10:$A$242="Intermediate")*(E$10:E$242="Partial"))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="61">
         <f>SUMPRODUCT(($A$10:$A$242="Intermediate")*(F$10:F$242="Missing"))+0.5*SUMPRODUCT(($A$10:$A$242="Intermediate")*(F$10:F$242="Partial"))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="55" t="str">
         <f>"Intermediate "&amp;$G$1&amp;"s "&amp;A3</f>
@@ -41649,15 +41655,15 @@
       <c r="B5" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="234"/>
-      <c r="D5" s="235"/>
+      <c r="C5" s="235"/>
+      <c r="D5" s="236"/>
       <c r="E5" s="61">
         <f>SUMPRODUCT(($A$10:$A$242="Intermediate")*(E$10:E$242="Completed"))+SUMPRODUCT(($A$10:$A$242="Intermediate")*(E$10:E$242="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$242="Intermediate")*(E$10:E$242="Partial"))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F5" s="61">
         <f>SUMPRODUCT(($A$10:$A$242="Intermediate")*(F$10:F$242="Completed"))+SUMPRODUCT(($A$10:$A$242="Intermediate")*(F$10:F$242="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$242="Intermediate")*(F$10:F$242="Partial"))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G5" s="55" t="str">
         <f>"Intermediate "&amp;$G$1&amp;"s "&amp;A5</f>
@@ -41671,8 +41677,8 @@
       <c r="B6" s="55" t="s">
         <v>733</v>
       </c>
-      <c r="C6" s="234"/>
-      <c r="D6" s="235"/>
+      <c r="C6" s="235"/>
+      <c r="D6" s="236"/>
       <c r="E6" s="61">
         <f>SUMPRODUCT(($A$10:$A$242="Advanced")*(E$10:E$242="Missing"))+0.5*SUMPRODUCT(($A$10:$A$242="Advanced")*(E$10:E$242="Partial"))</f>
         <v>4</v>
@@ -41693,8 +41699,8 @@
       <c r="B7" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="C7" s="234"/>
-      <c r="D7" s="235"/>
+      <c r="C7" s="235"/>
+      <c r="D7" s="236"/>
       <c r="E7" s="61">
         <f>SUMPRODUCT(($A$10:$A$242="Advanced")*(E$10:E$242="Completed"))+SUMPRODUCT(($A$10:$A$242="Advanced")*(E$10:E$242="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$242="Advanced")*(E$10:E$242="Partial"))</f>
         <v>1</v>
@@ -41709,19 +41715,19 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="14" customHeight="1" thickBot="1">
-      <c r="A8" s="228" t="s">
+      <c r="A8" s="229" t="s">
         <v>734</v>
       </c>
-      <c r="B8" s="229"/>
-      <c r="C8" s="234"/>
-      <c r="D8" s="235"/>
+      <c r="B8" s="230"/>
+      <c r="C8" s="235"/>
+      <c r="D8" s="236"/>
       <c r="E8" s="61">
         <f>SUMPRODUCT(($A$10:$A$242="Professional")*(E$10:E$242="Completed"))+SUMPRODUCT(($A$10:$A$242="Professional")*(E$10:E$242="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$242="Professional")*(E$10:E$242="Partial"))</f>
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="F8" s="61">
         <f>SUMPRODUCT(($A$10:$A$242="Professional")*(F$10:F$242="Completed"))+SUMPRODUCT(($A$10:$A$242="Professional")*(F$10:F$242="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$242="Professional")*(F$10:F$242="Partial"))</f>
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="G8" s="55" t="str">
         <f>"Professional "&amp;$G$1&amp;"s "&amp;A5</f>
@@ -41729,10 +41735,10 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="14" customHeight="1" thickBot="1">
-      <c r="A9" s="230"/>
-      <c r="B9" s="231"/>
-      <c r="C9" s="236"/>
-      <c r="D9" s="237"/>
+      <c r="A9" s="231"/>
+      <c r="B9" s="232"/>
+      <c r="C9" s="237"/>
+      <c r="D9" s="238"/>
       <c r="E9" s="61">
         <f>SUMPRODUCT(($A$10:$A$242="Exceptional")*(E$10:E$242="Completed"))+SUMPRODUCT(($A$10:$A$242="Exceptional")*(E$10:E$242="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$242="Exceptional")*(E$10:E$242="Partial"))</f>
         <v>0</v>
@@ -41747,10 +41753,10 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="14" customHeight="1" thickBot="1">
-      <c r="A10" s="226" t="s">
+      <c r="A10" s="227" t="s">
         <v>559</v>
       </c>
-      <c r="B10" s="227"/>
+      <c r="B10" s="228"/>
       <c r="C10" s="68" t="s">
         <v>674</v>
       </c>
@@ -42015,10 +42021,10 @@
       <c r="G23" s="55"/>
     </row>
     <row r="24" spans="1:7" ht="14" customHeight="1" thickBot="1">
-      <c r="A24" s="226" t="s">
+      <c r="A24" s="227" t="s">
         <v>582</v>
       </c>
-      <c r="B24" s="227"/>
+      <c r="B24" s="228"/>
       <c r="C24" s="8" t="s">
         <v>73</v>
       </c>
@@ -42140,12 +42146,14 @@
       <c r="C30" s="55" t="s">
         <v>595</v>
       </c>
-      <c r="D30" s="55"/>
+      <c r="D30" s="55" t="s">
+        <v>924</v>
+      </c>
       <c r="E30" s="8" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G30" s="55"/>
     </row>
@@ -42197,12 +42205,14 @@
       <c r="C33" s="55" t="s">
         <v>602</v>
       </c>
-      <c r="D33" s="55"/>
+      <c r="D33" s="55" t="s">
+        <v>923</v>
+      </c>
       <c r="E33" s="8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G33" s="55"/>
     </row>
@@ -42245,10 +42255,10 @@
       <c r="G35" s="55"/>
     </row>
     <row r="36" spans="1:7" ht="14" customHeight="1" thickBot="1">
-      <c r="A36" s="226" t="s">
+      <c r="A36" s="227" t="s">
         <v>670</v>
       </c>
-      <c r="B36" s="227"/>
+      <c r="B36" s="228"/>
       <c r="C36" s="8" t="s">
         <v>675</v>
       </c>
@@ -42380,10 +42390,10 @@
       <c r="G42" s="55"/>
     </row>
     <row r="43" spans="1:7" ht="14" customHeight="1" thickBot="1">
-      <c r="A43" s="226" t="s">
+      <c r="A43" s="227" t="s">
         <v>626</v>
       </c>
-      <c r="B43" s="227"/>
+      <c r="B43" s="228"/>
       <c r="C43" s="8" t="s">
         <v>73</v>
       </c>

--- a/Rubric/roguebot_rubric.xlsx
+++ b/Rubric/roguebot_rubric.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" tabRatio="698" firstSheet="1" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12140" tabRatio="698" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Game Data" sheetId="1" r:id="rId1"/>
@@ -26617,19 +26617,19 @@
       <selection activeCell="J22" sqref="J22:J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6875" defaultRowHeight="14" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="10.6875" style="33"/>
-    <col min="3" max="3" width="26.1875" style="33" customWidth="1"/>
-    <col min="4" max="4" width="9.6875" style="33" customWidth="1"/>
-    <col min="5" max="5" width="3.6875" style="33" customWidth="1"/>
-    <col min="6" max="6" width="25.1875" style="33" customWidth="1"/>
-    <col min="7" max="7" width="13.1875" style="33" customWidth="1"/>
-    <col min="8" max="8" width="4.6875" style="33" customWidth="1"/>
-    <col min="9" max="10" width="7.1875" style="33" customWidth="1"/>
-    <col min="11" max="11" width="3.6875" style="33" customWidth="1"/>
-    <col min="12" max="12" width="31.1875" style="33" customWidth="1"/>
-    <col min="13" max="16384" width="10.6875" style="33"/>
+    <col min="1" max="2" width="10.6640625" style="33"/>
+    <col min="3" max="3" width="26.1640625" style="33" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" style="33" customWidth="1"/>
+    <col min="5" max="5" width="3.6640625" style="33" customWidth="1"/>
+    <col min="6" max="6" width="25.1640625" style="33" customWidth="1"/>
+    <col min="7" max="7" width="13.1640625" style="33" customWidth="1"/>
+    <col min="8" max="8" width="4.6640625" style="33" customWidth="1"/>
+    <col min="9" max="10" width="7.1640625" style="33" customWidth="1"/>
+    <col min="11" max="11" width="3.6640625" style="33" customWidth="1"/>
+    <col min="12" max="12" width="31.1640625" style="33" customWidth="1"/>
+    <col min="13" max="16384" width="10.6640625" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="14" customHeight="1" thickBot="1">
@@ -27080,7 +27080,7 @@
       </c>
       <c r="G22" s="161">
         <f>'Project Grade'!$G$3</f>
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="H22" s="157"/>
       <c r="I22" s="30" t="s">
@@ -27364,19 +27364,19 @@
       <selection activeCell="O35" sqref="O35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6875" defaultRowHeight="14" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="29" style="33" customWidth="1"/>
     <col min="2" max="2" width="6.5" style="33" customWidth="1"/>
-    <col min="3" max="3" width="2.1875" style="33" customWidth="1"/>
-    <col min="4" max="4" width="4.6875" style="33" customWidth="1"/>
-    <col min="5" max="5" width="9.6875" style="33" customWidth="1"/>
-    <col min="6" max="6" width="2.1875" style="33" customWidth="1"/>
-    <col min="7" max="7" width="4.6875" style="33" customWidth="1"/>
-    <col min="8" max="8" width="9.6875" style="33" customWidth="1"/>
-    <col min="9" max="9" width="2.1875" style="33" customWidth="1"/>
+    <col min="3" max="3" width="2.1640625" style="33" customWidth="1"/>
+    <col min="4" max="4" width="4.6640625" style="33" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="33" customWidth="1"/>
+    <col min="6" max="6" width="2.1640625" style="33" customWidth="1"/>
+    <col min="7" max="7" width="4.6640625" style="33" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" style="33" customWidth="1"/>
+    <col min="9" max="9" width="2.1640625" style="33" customWidth="1"/>
     <col min="10" max="10" width="24" style="33" customWidth="1"/>
-    <col min="11" max="16384" width="10.6875" style="33"/>
+    <col min="11" max="16384" width="10.6640625" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1">
@@ -27424,12 +27424,12 @@
       <c r="F3" s="71"/>
       <c r="G3" s="176">
         <f>MAX(0,MIN(1,IF(($A$6+$G$6+J3) &lt;= 0.95, ROUND($A$6+$G$6+J3,2), FLOOR((0.95+($A$6+$G$6+J3-0.95)/5),0.01))))</f>
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="H3" s="177"/>
       <c r="J3" s="116">
         <f>IF(J6 &gt; 0.06, 0, 0.03-J6/2)</f>
-        <v>1.6250000000000007E-2</v>
+        <v>1.2500000000000011E-2</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="14" customHeight="1" thickBot="1">
@@ -27477,12 +27477,12 @@
       <c r="F6" s="11"/>
       <c r="G6" s="167">
         <f>H15+H24+H33+H42+H51+H60</f>
-        <v>0.12499999999999999</v>
+        <v>0.11749999999999999</v>
       </c>
       <c r="H6" s="168"/>
       <c r="J6" s="75">
         <f>ABS($D$6-$G$6)</f>
-        <v>2.7499999999999983E-2</v>
+        <v>3.4999999999999976E-2</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="14" customHeight="1" thickBot="1">
@@ -28781,11 +28781,11 @@
       <c r="F58" s="103"/>
       <c r="G58" s="99">
         <f>ACRs!$F$8</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H58" s="107">
         <f t="shared" si="11"/>
-        <v>1.4999999999999999E-2</v>
+        <v>7.4999999999999997E-3</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="14" customHeight="1" thickBot="1">
@@ -28832,7 +28832,7 @@
       </c>
       <c r="H60" s="101">
         <f>SUM(H54:H59)</f>
-        <v>1.4999999999999999E-2</v>
+        <v>7.4999999999999997E-3</v>
       </c>
     </row>
   </sheetData>
@@ -28883,15 +28883,15 @@
       <selection activeCell="A3" sqref="A3:F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6875" defaultRowHeight="14" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="22" style="56" customWidth="1"/>
-    <col min="2" max="2" width="12.6875" style="56" customWidth="1"/>
-    <col min="3" max="3" width="6.1875" style="56" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" style="56" customWidth="1"/>
+    <col min="3" max="3" width="6.1640625" style="56" customWidth="1"/>
     <col min="4" max="4" width="8" style="56" customWidth="1"/>
-    <col min="5" max="5" width="7.6875" style="56" customWidth="1"/>
-    <col min="6" max="6" width="94.1875" style="56" customWidth="1"/>
-    <col min="7" max="16384" width="10.6875" style="56"/>
+    <col min="5" max="5" width="7.6640625" style="56" customWidth="1"/>
+    <col min="6" max="6" width="94.1640625" style="56" customWidth="1"/>
+    <col min="7" max="16384" width="10.6640625" style="56"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14" customHeight="1" thickBot="1">
@@ -29203,7 +29203,7 @@
       <c r="E22" s="207"/>
       <c r="F22" s="208"/>
     </row>
-    <row r="23" spans="1:6" ht="15.75">
+    <row r="23" spans="1:6" ht="15.5">
       <c r="A23" s="204"/>
       <c r="B23" s="209"/>
       <c r="C23" s="210"/>
@@ -29211,7 +29211,7 @@
       <c r="E23" s="210"/>
       <c r="F23" s="211"/>
     </row>
-    <row r="24" spans="1:6" ht="15.75">
+    <row r="24" spans="1:6" ht="15.5">
       <c r="A24" s="204"/>
       <c r="B24" s="212" t="s">
         <v>748</v>
@@ -29221,7 +29221,7 @@
       <c r="E24" s="213"/>
       <c r="F24" s="214"/>
     </row>
-    <row r="25" spans="1:6" ht="15.75">
+    <row r="25" spans="1:6" ht="15.5">
       <c r="A25" s="204"/>
       <c r="B25" s="194" t="s">
         <v>749</v>
@@ -29231,7 +29231,7 @@
       <c r="E25" s="195"/>
       <c r="F25" s="196"/>
     </row>
-    <row r="26" spans="1:6" ht="15.75">
+    <row r="26" spans="1:6" ht="15.5">
       <c r="A26" s="204"/>
       <c r="B26" s="209"/>
       <c r="C26" s="210"/>
@@ -29249,7 +29249,7 @@
       <c r="E27" s="195"/>
       <c r="F27" s="196"/>
     </row>
-    <row r="28" spans="1:6" ht="15.75">
+    <row r="28" spans="1:6" ht="15.5">
       <c r="A28" s="204"/>
       <c r="B28" s="209"/>
       <c r="C28" s="210"/>
@@ -29257,7 +29257,7 @@
       <c r="E28" s="210"/>
       <c r="F28" s="211"/>
     </row>
-    <row r="29" spans="1:6" ht="15.75">
+    <row r="29" spans="1:6" ht="15.5">
       <c r="A29" s="204"/>
       <c r="B29" s="194" t="s">
         <v>751</v>
@@ -29267,7 +29267,7 @@
       <c r="E29" s="195"/>
       <c r="F29" s="196"/>
     </row>
-    <row r="30" spans="1:6" ht="15.75">
+    <row r="30" spans="1:6" ht="15.5">
       <c r="A30" s="204"/>
       <c r="B30" s="194" t="s">
         <v>752</v>
@@ -29277,7 +29277,7 @@
       <c r="E30" s="195"/>
       <c r="F30" s="196"/>
     </row>
-    <row r="31" spans="1:6" ht="15.75">
+    <row r="31" spans="1:6" ht="15.5">
       <c r="A31" s="204"/>
       <c r="B31" s="194" t="s">
         <v>753</v>
@@ -29287,7 +29287,7 @@
       <c r="E31" s="195"/>
       <c r="F31" s="196"/>
     </row>
-    <row r="32" spans="1:6" ht="15.75">
+    <row r="32" spans="1:6" ht="15.5">
       <c r="A32" s="204"/>
       <c r="B32" s="194" t="s">
         <v>754</v>
@@ -29297,7 +29297,7 @@
       <c r="E32" s="195"/>
       <c r="F32" s="196"/>
     </row>
-    <row r="33" spans="1:6" ht="15.75">
+    <row r="33" spans="1:6" ht="15.5">
       <c r="A33" s="204"/>
       <c r="B33" s="194" t="s">
         <v>755</v>
@@ -29307,7 +29307,7 @@
       <c r="E33" s="195"/>
       <c r="F33" s="196"/>
     </row>
-    <row r="34" spans="1:6" ht="15.75">
+    <row r="34" spans="1:6" ht="15.5">
       <c r="A34" s="204"/>
       <c r="B34" s="194" t="s">
         <v>756</v>
@@ -29317,7 +29317,7 @@
       <c r="E34" s="195"/>
       <c r="F34" s="196"/>
     </row>
-    <row r="35" spans="1:6" ht="15.75">
+    <row r="35" spans="1:6" ht="15.5">
       <c r="A35" s="204"/>
       <c r="B35" s="194" t="s">
         <v>757</v>
@@ -29327,7 +29327,7 @@
       <c r="E35" s="195"/>
       <c r="F35" s="196"/>
     </row>
-    <row r="36" spans="1:6" ht="16.149999999999999" thickBot="1">
+    <row r="36" spans="1:6" ht="16" thickBot="1">
       <c r="A36" s="205"/>
       <c r="B36" s="197" t="s">
         <v>758</v>
@@ -29361,7 +29361,7 @@
       <c r="E38" s="192"/>
       <c r="F38" s="193"/>
     </row>
-    <row r="39" spans="1:6" ht="16.149999999999999" thickBot="1">
+    <row r="39" spans="1:6" ht="16" thickBot="1">
       <c r="A39" s="54" t="s">
         <v>772</v>
       </c>
@@ -29373,7 +29373,7 @@
       <c r="E39" s="192"/>
       <c r="F39" s="193"/>
     </row>
-    <row r="40" spans="1:6" ht="39.75" thickBot="1">
+    <row r="40" spans="1:6" ht="39.5" thickBot="1">
       <c r="A40" s="55" t="s">
         <v>766</v>
       </c>
@@ -29397,7 +29397,7 @@
       <c r="E41" s="192"/>
       <c r="F41" s="193"/>
     </row>
-    <row r="42" spans="1:6" ht="16.149999999999999" thickBot="1">
+    <row r="42" spans="1:6" ht="16" thickBot="1">
       <c r="A42" s="54" t="s">
         <v>770</v>
       </c>
@@ -29409,7 +29409,7 @@
       <c r="E42" s="192"/>
       <c r="F42" s="193"/>
     </row>
-    <row r="43" spans="1:6" ht="39.75" thickBot="1">
+    <row r="43" spans="1:6" ht="39.5" thickBot="1">
       <c r="A43" s="55" t="s">
         <v>767</v>
       </c>
@@ -29505,19 +29505,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G125"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView topLeftCell="A112" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G94" sqref="G94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6875" defaultRowHeight="14" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="12" style="33" customWidth="1"/>
-    <col min="2" max="2" width="26.1875" style="33" customWidth="1"/>
+    <col min="2" max="2" width="26.1640625" style="33" customWidth="1"/>
     <col min="3" max="3" width="66" style="33" customWidth="1"/>
     <col min="4" max="4" width="24" style="33" customWidth="1"/>
     <col min="5" max="6" width="12" style="33" customWidth="1"/>
     <col min="7" max="7" width="24" style="33" customWidth="1"/>
-    <col min="8" max="16384" width="10.6875" style="33"/>
+    <col min="8" max="16384" width="10.6640625" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14" customHeight="1" thickBot="1">
@@ -29533,7 +29533,7 @@
       <c r="D1" s="8"/>
       <c r="E1" s="7" t="str">
         <f>""&amp;COUNTIF(E$10:E$249,$A$2)&amp;" "&amp;$A$2</f>
-        <v>1 Untested</v>
+        <v>0 Untested</v>
       </c>
       <c r="F1" s="7" t="str">
         <f>""&amp;COUNTIF(F$10:F$249,$A$2)&amp;" "&amp;$A$2</f>
@@ -29736,7 +29736,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="79.150000000000006" thickBot="1">
+    <row r="11" spans="1:7" ht="78.5" thickBot="1">
       <c r="A11" s="62" t="s">
         <v>76</v>
       </c>
@@ -29757,7 +29757,7 @@
       </c>
       <c r="G11" s="55"/>
     </row>
-    <row r="12" spans="1:7" ht="39.75" thickBot="1">
+    <row r="12" spans="1:7" ht="39.5" thickBot="1">
       <c r="A12" s="62" t="s">
         <v>76</v>
       </c>
@@ -29776,7 +29776,7 @@
       </c>
       <c r="G12" s="55"/>
     </row>
-    <row r="13" spans="1:7" ht="26.65" thickBot="1">
+    <row r="13" spans="1:7" ht="26.5" thickBot="1">
       <c r="A13" s="62" t="s">
         <v>76</v>
       </c>
@@ -29795,7 +29795,7 @@
       </c>
       <c r="G13" s="55"/>
     </row>
-    <row r="14" spans="1:7" ht="26.65" thickBot="1">
+    <row r="14" spans="1:7" ht="26.5" thickBot="1">
       <c r="A14" s="62" t="s">
         <v>76</v>
       </c>
@@ -29814,7 +29814,7 @@
       </c>
       <c r="G14" s="55"/>
     </row>
-    <row r="15" spans="1:7" ht="26.65" thickBot="1">
+    <row r="15" spans="1:7" ht="26.5" thickBot="1">
       <c r="A15" s="62" t="s">
         <v>76</v>
       </c>
@@ -29833,7 +29833,7 @@
       </c>
       <c r="G15" s="55"/>
     </row>
-    <row r="16" spans="1:7" ht="39.75" thickBot="1">
+    <row r="16" spans="1:7" ht="39.5" thickBot="1">
       <c r="A16" s="62" t="s">
         <v>76</v>
       </c>
@@ -29852,7 +29852,7 @@
       </c>
       <c r="G16" s="55"/>
     </row>
-    <row r="17" spans="1:7" ht="52.9" thickBot="1">
+    <row r="17" spans="1:7" ht="52.5" thickBot="1">
       <c r="A17" s="62" t="s">
         <v>76</v>
       </c>
@@ -29871,7 +29871,7 @@
       </c>
       <c r="G17" s="55"/>
     </row>
-    <row r="18" spans="1:7" ht="92.25" thickBot="1">
+    <row r="18" spans="1:7" ht="91.5" thickBot="1">
       <c r="A18" s="63" t="s">
         <v>79</v>
       </c>
@@ -29894,7 +29894,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="39.75" thickBot="1">
+    <row r="19" spans="1:7" ht="39.5" thickBot="1">
       <c r="A19" s="63" t="s">
         <v>79</v>
       </c>
@@ -29913,7 +29913,7 @@
       </c>
       <c r="G19" s="55"/>
     </row>
-    <row r="20" spans="1:7" ht="39.75" thickBot="1">
+    <row r="20" spans="1:7" ht="39.5" thickBot="1">
       <c r="A20" s="63" t="s">
         <v>79</v>
       </c>
@@ -29932,7 +29932,7 @@
       </c>
       <c r="G20" s="55"/>
     </row>
-    <row r="21" spans="1:7" ht="66" thickBot="1">
+    <row r="21" spans="1:7" ht="78.5" thickBot="1">
       <c r="A21" s="65" t="s">
         <v>93</v>
       </c>
@@ -29951,7 +29951,7 @@
       </c>
       <c r="G21" s="55"/>
     </row>
-    <row r="22" spans="1:7" ht="26.65" thickBot="1">
+    <row r="22" spans="1:7" ht="26.5" thickBot="1">
       <c r="A22" s="64" t="s">
         <v>81</v>
       </c>
@@ -29991,7 +29991,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="52.9" thickBot="1">
+    <row r="24" spans="1:7" ht="52.5" thickBot="1">
       <c r="A24" s="62" t="s">
         <v>76</v>
       </c>
@@ -30010,7 +30010,7 @@
       </c>
       <c r="G24" s="55"/>
     </row>
-    <row r="25" spans="1:7" ht="66" thickBot="1">
+    <row r="25" spans="1:7" ht="65.5" thickBot="1">
       <c r="A25" s="62" t="s">
         <v>76</v>
       </c>
@@ -30029,7 +30029,7 @@
       </c>
       <c r="G25" s="55"/>
     </row>
-    <row r="26" spans="1:7" ht="39.75" thickBot="1">
+    <row r="26" spans="1:7" ht="39.5" thickBot="1">
       <c r="A26" s="62" t="s">
         <v>76</v>
       </c>
@@ -30052,7 +30052,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="66" thickBot="1">
+    <row r="27" spans="1:7" ht="78.5" thickBot="1">
       <c r="A27" s="63" t="s">
         <v>79</v>
       </c>
@@ -30071,7 +30071,7 @@
       </c>
       <c r="G27" s="55"/>
     </row>
-    <row r="28" spans="1:7" ht="39.75" thickBot="1">
+    <row r="28" spans="1:7" ht="39.5" thickBot="1">
       <c r="A28" s="63" t="s">
         <v>79</v>
       </c>
@@ -30090,7 +30090,7 @@
       </c>
       <c r="G28" s="55"/>
     </row>
-    <row r="29" spans="1:7" ht="105.4" thickBot="1">
+    <row r="29" spans="1:7" ht="104.5" thickBot="1">
       <c r="A29" s="63" t="s">
         <v>79</v>
       </c>
@@ -30109,7 +30109,7 @@
       </c>
       <c r="G29" s="55"/>
     </row>
-    <row r="30" spans="1:7" ht="52.9" thickBot="1">
+    <row r="30" spans="1:7" ht="52.5" thickBot="1">
       <c r="A30" s="63" t="s">
         <v>79</v>
       </c>
@@ -30132,7 +30132,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="66" thickBot="1">
+    <row r="31" spans="1:7" ht="78.5" thickBot="1">
       <c r="A31" s="63" t="s">
         <v>79</v>
       </c>
@@ -30151,7 +30151,7 @@
       </c>
       <c r="G31" s="55"/>
     </row>
-    <row r="32" spans="1:7" ht="144.75" thickBot="1">
+    <row r="32" spans="1:7" ht="156.5" thickBot="1">
       <c r="A32" s="63" t="s">
         <v>79</v>
       </c>
@@ -30170,7 +30170,7 @@
       </c>
       <c r="G32" s="55"/>
     </row>
-    <row r="33" spans="1:7" ht="52.9" thickBot="1">
+    <row r="33" spans="1:7" ht="52.5" thickBot="1">
       <c r="A33" s="63" t="s">
         <v>79</v>
       </c>
@@ -30191,7 +30191,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="52.9" thickBot="1">
+    <row r="34" spans="1:7" ht="52.5" thickBot="1">
       <c r="A34" s="63" t="s">
         <v>79</v>
       </c>
@@ -30210,7 +30210,7 @@
       </c>
       <c r="G34" s="55"/>
     </row>
-    <row r="35" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="35" spans="1:7" ht="16" thickBot="1">
       <c r="A35" s="63" t="s">
         <v>79</v>
       </c>
@@ -30229,7 +30229,7 @@
       </c>
       <c r="G35" s="55"/>
     </row>
-    <row r="36" spans="1:7" ht="52.9" thickBot="1">
+    <row r="36" spans="1:7" ht="52.5" thickBot="1">
       <c r="A36" s="63" t="s">
         <v>79</v>
       </c>
@@ -30248,7 +30248,7 @@
       </c>
       <c r="G36" s="55"/>
     </row>
-    <row r="37" spans="1:7" ht="79.150000000000006" thickBot="1">
+    <row r="37" spans="1:7" ht="91.5" thickBot="1">
       <c r="A37" s="63" t="s">
         <v>79</v>
       </c>
@@ -30267,7 +30267,7 @@
       </c>
       <c r="G37" s="55"/>
     </row>
-    <row r="38" spans="1:7" ht="39.75" thickBot="1">
+    <row r="38" spans="1:7" ht="52.5" thickBot="1">
       <c r="A38" s="64" t="s">
         <v>81</v>
       </c>
@@ -30307,7 +30307,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="66" thickBot="1">
+    <row r="40" spans="1:7" ht="65.5" thickBot="1">
       <c r="A40" s="62" t="s">
         <v>76</v>
       </c>
@@ -30326,7 +30326,7 @@
       </c>
       <c r="G40" s="55"/>
     </row>
-    <row r="41" spans="1:7" ht="26.65" thickBot="1">
+    <row r="41" spans="1:7" ht="26.5" thickBot="1">
       <c r="A41" s="63" t="s">
         <v>79</v>
       </c>
@@ -30345,7 +30345,7 @@
       </c>
       <c r="G41" s="55"/>
     </row>
-    <row r="42" spans="1:7" ht="26.65" thickBot="1">
+    <row r="42" spans="1:7" ht="26.5" thickBot="1">
       <c r="A42" s="63" t="s">
         <v>79</v>
       </c>
@@ -30364,7 +30364,7 @@
       </c>
       <c r="G42" s="55"/>
     </row>
-    <row r="43" spans="1:7" ht="79.150000000000006" thickBot="1">
+    <row r="43" spans="1:7" ht="78.5" thickBot="1">
       <c r="A43" s="63" t="s">
         <v>79</v>
       </c>
@@ -30408,7 +30408,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="26.65" thickBot="1">
+    <row r="45" spans="1:7" ht="26.5" thickBot="1">
       <c r="A45" s="63" t="s">
         <v>79</v>
       </c>
@@ -30427,7 +30427,7 @@
       </c>
       <c r="G45" s="55"/>
     </row>
-    <row r="46" spans="1:7" ht="39.75" thickBot="1">
+    <row r="46" spans="1:7" ht="39.5" thickBot="1">
       <c r="A46" s="65" t="s">
         <v>93</v>
       </c>
@@ -30446,7 +30446,7 @@
       </c>
       <c r="G46" s="55"/>
     </row>
-    <row r="47" spans="1:7" ht="26.65" thickBot="1">
+    <row r="47" spans="1:7" ht="26.5" thickBot="1">
       <c r="A47" s="64" t="s">
         <v>81</v>
       </c>
@@ -30465,7 +30465,7 @@
       </c>
       <c r="G47" s="55"/>
     </row>
-    <row r="48" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="48" spans="1:7" ht="16" thickBot="1">
       <c r="A48" s="64" t="s">
         <v>81</v>
       </c>
@@ -30484,7 +30484,7 @@
       </c>
       <c r="G48" s="55"/>
     </row>
-    <row r="49" spans="1:7" ht="52.9" thickBot="1">
+    <row r="49" spans="1:7" ht="52.5" thickBot="1">
       <c r="A49" s="64" t="s">
         <v>118</v>
       </c>
@@ -30524,7 +30524,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="26.65" thickBot="1">
+    <row r="51" spans="1:7" ht="26.5" thickBot="1">
       <c r="A51" s="62" t="s">
         <v>76</v>
       </c>
@@ -30543,7 +30543,7 @@
       </c>
       <c r="G51" s="55"/>
     </row>
-    <row r="52" spans="1:7" ht="39.75" thickBot="1">
+    <row r="52" spans="1:7" ht="39.5" thickBot="1">
       <c r="A52" s="62" t="s">
         <v>76</v>
       </c>
@@ -30562,7 +30562,7 @@
       </c>
       <c r="G52" s="55"/>
     </row>
-    <row r="53" spans="1:7" ht="79.150000000000006" thickBot="1">
+    <row r="53" spans="1:7" ht="78.5" thickBot="1">
       <c r="A53" s="63" t="s">
         <v>79</v>
       </c>
@@ -30581,7 +30581,7 @@
       </c>
       <c r="G53" s="55"/>
     </row>
-    <row r="54" spans="1:7" ht="79.150000000000006" thickBot="1">
+    <row r="54" spans="1:7" ht="78.5" thickBot="1">
       <c r="A54" s="63" t="s">
         <v>79</v>
       </c>
@@ -30600,7 +30600,7 @@
       </c>
       <c r="G54" s="55"/>
     </row>
-    <row r="55" spans="1:7" ht="26.65" thickBot="1">
+    <row r="55" spans="1:7" ht="26.5" thickBot="1">
       <c r="A55" s="63" t="s">
         <v>79</v>
       </c>
@@ -30619,7 +30619,7 @@
       </c>
       <c r="G55" s="55"/>
     </row>
-    <row r="56" spans="1:7" ht="26.65" thickBot="1">
+    <row r="56" spans="1:7" ht="26.5" thickBot="1">
       <c r="A56" s="64" t="s">
         <v>81</v>
       </c>
@@ -30638,7 +30638,7 @@
       </c>
       <c r="G56" s="55"/>
     </row>
-    <row r="57" spans="1:7" ht="52.9" thickBot="1">
+    <row r="57" spans="1:7" ht="52.5" thickBot="1">
       <c r="A57" s="64" t="s">
         <v>81</v>
       </c>
@@ -30657,7 +30657,7 @@
       </c>
       <c r="G57" s="55"/>
     </row>
-    <row r="58" spans="1:7" ht="79.150000000000006" thickBot="1">
+    <row r="58" spans="1:7" ht="78.5" thickBot="1">
       <c r="A58" s="64" t="s">
         <v>81</v>
       </c>
@@ -30697,7 +30697,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="26.65" thickBot="1">
+    <row r="60" spans="1:7" ht="39.5" thickBot="1">
       <c r="A60" s="62" t="s">
         <v>76</v>
       </c>
@@ -30716,7 +30716,7 @@
       </c>
       <c r="G60" s="55"/>
     </row>
-    <row r="61" spans="1:7" ht="26.65" thickBot="1">
+    <row r="61" spans="1:7" ht="26.5" thickBot="1">
       <c r="A61" s="62" t="s">
         <v>76</v>
       </c>
@@ -30735,7 +30735,7 @@
       </c>
       <c r="G61" s="55"/>
     </row>
-    <row r="62" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="62" spans="1:7" ht="16" thickBot="1">
       <c r="A62" s="63" t="s">
         <v>79</v>
       </c>
@@ -30754,7 +30754,7 @@
       </c>
       <c r="G62" s="55"/>
     </row>
-    <row r="63" spans="1:7" ht="26.65" thickBot="1">
+    <row r="63" spans="1:7" ht="26.5" thickBot="1">
       <c r="A63" s="63" t="s">
         <v>79</v>
       </c>
@@ -30773,7 +30773,7 @@
       </c>
       <c r="G63" s="55"/>
     </row>
-    <row r="64" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="64" spans="1:7" ht="16" thickBot="1">
       <c r="A64" s="64" t="s">
         <v>81</v>
       </c>
@@ -30813,7 +30813,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="26.65" thickBot="1">
+    <row r="66" spans="1:7" ht="26.5" thickBot="1">
       <c r="A66" s="62" t="s">
         <v>76</v>
       </c>
@@ -30832,7 +30832,7 @@
       </c>
       <c r="G66" s="55"/>
     </row>
-    <row r="67" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="67" spans="1:7" ht="16" thickBot="1">
       <c r="A67" s="62" t="s">
         <v>76</v>
       </c>
@@ -30851,7 +30851,7 @@
       </c>
       <c r="G67" s="55"/>
     </row>
-    <row r="68" spans="1:7" ht="26.65" thickBot="1">
+    <row r="68" spans="1:7" ht="26.5" thickBot="1">
       <c r="A68" s="62" t="s">
         <v>76</v>
       </c>
@@ -30870,7 +30870,7 @@
       </c>
       <c r="G68" s="55"/>
     </row>
-    <row r="69" spans="1:7" ht="39.75" thickBot="1">
+    <row r="69" spans="1:7" ht="39.5" thickBot="1">
       <c r="A69" s="63" t="s">
         <v>79</v>
       </c>
@@ -30889,7 +30889,7 @@
       </c>
       <c r="G69" s="55"/>
     </row>
-    <row r="70" spans="1:7" ht="52.9" thickBot="1">
+    <row r="70" spans="1:7" ht="52.5" thickBot="1">
       <c r="A70" s="63" t="s">
         <v>79</v>
       </c>
@@ -30908,7 +30908,7 @@
       </c>
       <c r="G70" s="55"/>
     </row>
-    <row r="71" spans="1:7" ht="39.75" thickBot="1">
+    <row r="71" spans="1:7" ht="39.5" thickBot="1">
       <c r="A71" s="63" t="s">
         <v>79</v>
       </c>
@@ -30927,7 +30927,7 @@
       </c>
       <c r="G71" s="55"/>
     </row>
-    <row r="72" spans="1:7" ht="66" thickBot="1">
+    <row r="72" spans="1:7" ht="65.5" thickBot="1">
       <c r="A72" s="63" t="s">
         <v>79</v>
       </c>
@@ -30946,7 +30946,7 @@
       </c>
       <c r="G72" s="55"/>
     </row>
-    <row r="73" spans="1:7" ht="52.9" thickBot="1">
+    <row r="73" spans="1:7" ht="52.5" thickBot="1">
       <c r="A73" s="63" t="s">
         <v>79</v>
       </c>
@@ -30965,7 +30965,7 @@
       </c>
       <c r="G73" s="55"/>
     </row>
-    <row r="74" spans="1:7" ht="52.9" thickBot="1">
+    <row r="74" spans="1:7" ht="52.5" thickBot="1">
       <c r="A74" s="63" t="s">
         <v>79</v>
       </c>
@@ -30988,7 +30988,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="66" thickBot="1">
+    <row r="75" spans="1:7" ht="65.5" thickBot="1">
       <c r="A75" s="63" t="s">
         <v>79</v>
       </c>
@@ -31007,7 +31007,7 @@
       </c>
       <c r="G75" s="55"/>
     </row>
-    <row r="76" spans="1:7" ht="26.65" thickBot="1">
+    <row r="76" spans="1:7" ht="39.5" thickBot="1">
       <c r="A76" s="63" t="s">
         <v>79</v>
       </c>
@@ -31026,7 +31026,7 @@
       </c>
       <c r="G76" s="55"/>
     </row>
-    <row r="77" spans="1:7" ht="26.65" thickBot="1">
+    <row r="77" spans="1:7" ht="26.5" thickBot="1">
       <c r="A77" s="82" t="s">
         <v>93</v>
       </c>
@@ -31045,7 +31045,7 @@
       </c>
       <c r="G77" s="55"/>
     </row>
-    <row r="78" spans="1:7" ht="79.150000000000006" thickBot="1">
+    <row r="78" spans="1:7" ht="78.5" thickBot="1">
       <c r="A78" s="82" t="s">
         <v>93</v>
       </c>
@@ -31066,7 +31066,7 @@
       </c>
       <c r="G78" s="55"/>
     </row>
-    <row r="79" spans="1:7" ht="105.4" thickBot="1">
+    <row r="79" spans="1:7" ht="117.5" thickBot="1">
       <c r="A79" s="64" t="s">
         <v>81</v>
       </c>
@@ -31085,7 +31085,7 @@
       </c>
       <c r="G79" s="55"/>
     </row>
-    <row r="80" spans="1:7" ht="52.9" thickBot="1">
+    <row r="80" spans="1:7" ht="52.5" thickBot="1">
       <c r="A80" s="64" t="s">
         <v>81</v>
       </c>
@@ -31104,7 +31104,7 @@
       </c>
       <c r="G80" s="55"/>
     </row>
-    <row r="81" spans="1:7" ht="79.150000000000006" thickBot="1">
+    <row r="81" spans="1:7" ht="78.5" thickBot="1">
       <c r="A81" s="64" t="s">
         <v>81</v>
       </c>
@@ -31146,7 +31146,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="26.65" thickBot="1">
+    <row r="83" spans="1:7" ht="26.5" thickBot="1">
       <c r="A83" s="62" t="s">
         <v>76</v>
       </c>
@@ -31165,7 +31165,7 @@
       </c>
       <c r="G83" s="55"/>
     </row>
-    <row r="84" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="84" spans="1:7" ht="16" thickBot="1">
       <c r="A84" s="62" t="s">
         <v>79</v>
       </c>
@@ -31184,7 +31184,7 @@
       </c>
       <c r="G84" s="55"/>
     </row>
-    <row r="85" spans="1:7" ht="26.65" thickBot="1">
+    <row r="85" spans="1:7" ht="26.5" thickBot="1">
       <c r="A85" s="63" t="s">
         <v>93</v>
       </c>
@@ -31203,7 +31203,7 @@
       </c>
       <c r="G85" s="55"/>
     </row>
-    <row r="86" spans="1:7" ht="26.65" thickBot="1">
+    <row r="86" spans="1:7" ht="26.5" thickBot="1">
       <c r="A86" s="65" t="s">
         <v>93</v>
       </c>
@@ -31222,7 +31222,7 @@
       </c>
       <c r="G86" s="55"/>
     </row>
-    <row r="87" spans="1:7" ht="79.150000000000006" thickBot="1">
+    <row r="87" spans="1:7" ht="78.5" thickBot="1">
       <c r="A87" s="64" t="s">
         <v>81</v>
       </c>
@@ -31243,7 +31243,7 @@
       </c>
       <c r="G87" s="55"/>
     </row>
-    <row r="88" spans="1:7" ht="39.75" thickBot="1">
+    <row r="88" spans="1:7" ht="39.5" thickBot="1">
       <c r="A88" s="66" t="s">
         <v>118</v>
       </c>
@@ -31285,7 +31285,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="26.65" thickBot="1">
+    <row r="90" spans="1:7" ht="26.5" thickBot="1">
       <c r="A90" s="62" t="s">
         <v>76</v>
       </c>
@@ -31304,7 +31304,7 @@
       </c>
       <c r="G90" s="55"/>
     </row>
-    <row r="91" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="91" spans="1:7" ht="16" thickBot="1">
       <c r="A91" s="62" t="s">
         <v>76</v>
       </c>
@@ -31323,7 +31323,7 @@
       </c>
       <c r="G91" s="55"/>
     </row>
-    <row r="92" spans="1:7" ht="52.9" thickBot="1">
+    <row r="92" spans="1:7" ht="52.5" thickBot="1">
       <c r="A92" s="62" t="s">
         <v>76</v>
       </c>
@@ -31337,7 +31337,7 @@
         <v>919</v>
       </c>
       <c r="E92" s="8" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="F92" s="8" t="s">
         <v>62</v>
@@ -31346,7 +31346,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="52.9" thickBot="1">
+    <row r="93" spans="1:7" ht="52.5" thickBot="1">
       <c r="A93" s="63" t="s">
         <v>79</v>
       </c>
@@ -31367,7 +31367,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="144.75" thickBot="1">
+    <row r="94" spans="1:7" ht="143.5" thickBot="1">
       <c r="A94" s="63" t="s">
         <v>79</v>
       </c>
@@ -31388,7 +31388,7 @@
       </c>
       <c r="G94" s="55"/>
     </row>
-    <row r="95" spans="1:7" ht="39.75" thickBot="1">
+    <row r="95" spans="1:7" ht="39.5" thickBot="1">
       <c r="A95" s="63" t="s">
         <v>79</v>
       </c>
@@ -31407,7 +31407,7 @@
       </c>
       <c r="G95" s="55"/>
     </row>
-    <row r="96" spans="1:7" ht="26.65" thickBot="1">
+    <row r="96" spans="1:7" ht="26.5" thickBot="1">
       <c r="A96" s="65" t="s">
         <v>93</v>
       </c>
@@ -31426,7 +31426,7 @@
       </c>
       <c r="G96" s="55"/>
     </row>
-    <row r="97" spans="1:7" ht="31.9" thickBot="1">
+    <row r="97" spans="1:7" ht="31.5" thickBot="1">
       <c r="A97" s="64" t="s">
         <v>81</v>
       </c>
@@ -31470,7 +31470,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="79.150000000000006" thickBot="1">
+    <row r="99" spans="1:7" ht="78.5" thickBot="1">
       <c r="A99" s="63" t="s">
         <v>79</v>
       </c>
@@ -31491,7 +31491,7 @@
       </c>
       <c r="G99" s="55"/>
     </row>
-    <row r="100" spans="1:7" ht="26.65" thickBot="1">
+    <row r="100" spans="1:7" ht="26.5" thickBot="1">
       <c r="A100" s="64" t="s">
         <v>81</v>
       </c>
@@ -31510,7 +31510,7 @@
       </c>
       <c r="G100" s="55"/>
     </row>
-    <row r="101" spans="1:7" ht="26.65" thickBot="1">
+    <row r="101" spans="1:7" ht="26.5" thickBot="1">
       <c r="A101" s="64" t="s">
         <v>81</v>
       </c>
@@ -31529,7 +31529,7 @@
       </c>
       <c r="G101" s="55"/>
     </row>
-    <row r="102" spans="1:7" ht="26.65" thickBot="1">
+    <row r="102" spans="1:7" ht="26.5" thickBot="1">
       <c r="A102" s="66" t="s">
         <v>118</v>
       </c>
@@ -31569,7 +31569,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="66" thickBot="1">
+    <row r="104" spans="1:7" ht="65.5" thickBot="1">
       <c r="A104" s="62" t="s">
         <v>76</v>
       </c>
@@ -31588,7 +31588,7 @@
       </c>
       <c r="G104" s="55"/>
     </row>
-    <row r="105" spans="1:7" ht="39.75" thickBot="1">
+    <row r="105" spans="1:7" ht="39.5" thickBot="1">
       <c r="A105" s="63" t="s">
         <v>79</v>
       </c>
@@ -31607,7 +31607,7 @@
       </c>
       <c r="G105" s="55"/>
     </row>
-    <row r="106" spans="1:7" ht="26.65" thickBot="1">
+    <row r="106" spans="1:7" ht="26.5" thickBot="1">
       <c r="A106" s="65" t="s">
         <v>93</v>
       </c>
@@ -31626,7 +31626,7 @@
       </c>
       <c r="G106" s="55"/>
     </row>
-    <row r="107" spans="1:7" ht="26.65" thickBot="1">
+    <row r="107" spans="1:7" ht="26.5" thickBot="1">
       <c r="A107" s="64" t="s">
         <v>81</v>
       </c>
@@ -31666,7 +31666,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="52.9" thickBot="1">
+    <row r="109" spans="1:7" ht="52.5" thickBot="1">
       <c r="A109" s="62" t="s">
         <v>76</v>
       </c>
@@ -31685,7 +31685,7 @@
       </c>
       <c r="G109" s="55"/>
     </row>
-    <row r="110" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="110" spans="1:7" ht="16" thickBot="1">
       <c r="A110" s="62" t="s">
         <v>76</v>
       </c>
@@ -31704,7 +31704,7 @@
       </c>
       <c r="G110" s="55"/>
     </row>
-    <row r="111" spans="1:7" ht="118.5" thickBot="1">
+    <row r="111" spans="1:7" ht="117.5" thickBot="1">
       <c r="A111" s="63" t="s">
         <v>79</v>
       </c>
@@ -31744,7 +31744,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="113" spans="1:7" ht="16" thickBot="1">
       <c r="A113" s="62" t="s">
         <v>76</v>
       </c>
@@ -31763,7 +31763,7 @@
       </c>
       <c r="G113" s="55"/>
     </row>
-    <row r="114" spans="1:7" ht="118.5" thickBot="1">
+    <row r="114" spans="1:7" ht="117.5" thickBot="1">
       <c r="A114" s="64" t="s">
         <v>81</v>
       </c>
@@ -31784,7 +31784,7 @@
       </c>
       <c r="G114" s="55"/>
     </row>
-    <row r="115" spans="1:7" ht="39.75" thickBot="1">
+    <row r="115" spans="1:7" ht="39.5" thickBot="1">
       <c r="A115" s="66" t="s">
         <v>118</v>
       </c>
@@ -31805,7 +31805,7 @@
       </c>
       <c r="G115" s="55"/>
     </row>
-    <row r="116" spans="1:7" ht="39.75" thickBot="1">
+    <row r="116" spans="1:7" ht="39.5" thickBot="1">
       <c r="A116" s="64" t="s">
         <v>736</v>
       </c>
@@ -31845,7 +31845,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="118" spans="1:7" ht="26.5" thickBot="1">
       <c r="A118" s="62" t="s">
         <v>76</v>
       </c>
@@ -31864,7 +31864,7 @@
       </c>
       <c r="G118" s="55"/>
     </row>
-    <row r="119" spans="1:7" ht="26.65" thickBot="1">
+    <row r="119" spans="1:7" ht="26.5" thickBot="1">
       <c r="A119" s="63" t="s">
         <v>79</v>
       </c>
@@ -31883,7 +31883,7 @@
       </c>
       <c r="G119" s="55"/>
     </row>
-    <row r="120" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="120" spans="1:7" ht="16" thickBot="1">
       <c r="A120" s="63" t="s">
         <v>79</v>
       </c>
@@ -31902,7 +31902,7 @@
       </c>
       <c r="G120" s="55"/>
     </row>
-    <row r="121" spans="1:7" ht="26.65" thickBot="1">
+    <row r="121" spans="1:7" ht="26.5" thickBot="1">
       <c r="A121" s="65" t="s">
         <v>93</v>
       </c>
@@ -31921,7 +31921,7 @@
       </c>
       <c r="G121" s="55"/>
     </row>
-    <row r="122" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="122" spans="1:7" ht="16" thickBot="1">
       <c r="A122" s="64" t="s">
         <v>81</v>
       </c>
@@ -31940,7 +31940,7 @@
       </c>
       <c r="G122" s="55"/>
     </row>
-    <row r="123" spans="1:7" ht="26.65" thickBot="1">
+    <row r="123" spans="1:7" ht="26.5" thickBot="1">
       <c r="A123" s="64" t="s">
         <v>81</v>
       </c>
@@ -31959,7 +31959,7 @@
       </c>
       <c r="G123" s="55"/>
     </row>
-    <row r="124" spans="1:7" ht="39.75" thickBot="1">
+    <row r="124" spans="1:7" ht="39.5" thickBot="1">
       <c r="A124" s="66" t="s">
         <v>118</v>
       </c>
@@ -31978,7 +31978,7 @@
       </c>
       <c r="G124" s="55"/>
     </row>
-    <row r="125" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="125" spans="1:7" ht="16" thickBot="1">
       <c r="A125" s="64" t="s">
         <v>736</v>
       </c>
@@ -33728,15 +33728,15 @@
       <selection activeCell="I66" sqref="I66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6875" defaultRowHeight="14" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="12" style="33" customWidth="1"/>
-    <col min="2" max="2" width="26.1875" style="33" customWidth="1"/>
+    <col min="2" max="2" width="26.1640625" style="33" customWidth="1"/>
     <col min="3" max="3" width="66" style="33" customWidth="1"/>
     <col min="4" max="4" width="24" style="33" customWidth="1"/>
     <col min="5" max="6" width="12" style="33" customWidth="1"/>
     <col min="7" max="7" width="24" style="33" customWidth="1"/>
-    <col min="8" max="16384" width="10.6875" style="33"/>
+    <col min="8" max="16384" width="10.6640625" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14" customHeight="1" thickBot="1">
@@ -33955,7 +33955,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="26.65" thickBot="1">
+    <row r="11" spans="1:7" ht="26.5" thickBot="1">
       <c r="A11" s="86" t="s">
         <v>76</v>
       </c>
@@ -33976,7 +33976,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="26.65" thickBot="1">
+    <row r="12" spans="1:7" ht="26.5" thickBot="1">
       <c r="A12" s="86" t="s">
         <v>76</v>
       </c>
@@ -33995,7 +33995,7 @@
       </c>
       <c r="G12" s="55"/>
     </row>
-    <row r="13" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="13" spans="1:7" ht="16" thickBot="1">
       <c r="A13" s="87" t="s">
         <v>79</v>
       </c>
@@ -34014,7 +34014,7 @@
       </c>
       <c r="G13" s="55"/>
     </row>
-    <row r="14" spans="1:7" ht="52.9" thickBot="1">
+    <row r="14" spans="1:7" ht="52.5" thickBot="1">
       <c r="A14" s="87" t="s">
         <v>79</v>
       </c>
@@ -34033,7 +34033,7 @@
       </c>
       <c r="G14" s="55"/>
     </row>
-    <row r="15" spans="1:7" ht="39.75" thickBot="1">
+    <row r="15" spans="1:7" ht="39.5" thickBot="1">
       <c r="A15" s="89" t="s">
         <v>81</v>
       </c>
@@ -34052,7 +34052,7 @@
       </c>
       <c r="G15" s="55"/>
     </row>
-    <row r="16" spans="1:7" ht="26.65" thickBot="1">
+    <row r="16" spans="1:7" ht="26.5" thickBot="1">
       <c r="A16" s="90" t="s">
         <v>118</v>
       </c>
@@ -34111,7 +34111,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="26.65" thickBot="1">
+    <row r="19" spans="1:7" ht="26.5" thickBot="1">
       <c r="A19" s="86" t="s">
         <v>76</v>
       </c>
@@ -34130,7 +34130,7 @@
       </c>
       <c r="G19" s="55"/>
     </row>
-    <row r="20" spans="1:7" ht="66" thickBot="1">
+    <row r="20" spans="1:7" ht="65.5" thickBot="1">
       <c r="A20" s="87" t="s">
         <v>79</v>
       </c>
@@ -34149,7 +34149,7 @@
       </c>
       <c r="G20" s="55"/>
     </row>
-    <row r="21" spans="1:7" ht="79.150000000000006" thickBot="1">
+    <row r="21" spans="1:7" ht="78.5" thickBot="1">
       <c r="A21" s="87" t="s">
         <v>79</v>
       </c>
@@ -34168,7 +34168,7 @@
       </c>
       <c r="G21" s="55"/>
     </row>
-    <row r="22" spans="1:7" ht="92.25" thickBot="1">
+    <row r="22" spans="1:7" ht="91.5" thickBot="1">
       <c r="A22" s="87" t="s">
         <v>79</v>
       </c>
@@ -34187,7 +34187,7 @@
       </c>
       <c r="G22" s="55"/>
     </row>
-    <row r="23" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="23" spans="1:7" ht="16" thickBot="1">
       <c r="A23" s="89" t="s">
         <v>81</v>
       </c>
@@ -34206,7 +34206,7 @@
       </c>
       <c r="G23" s="55"/>
     </row>
-    <row r="24" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="24" spans="1:7" ht="16" thickBot="1">
       <c r="A24" s="90" t="s">
         <v>118</v>
       </c>
@@ -34225,7 +34225,7 @@
       </c>
       <c r="G24" s="55"/>
     </row>
-    <row r="25" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="25" spans="1:7" ht="16" thickBot="1">
       <c r="A25" s="91" t="s">
         <v>736</v>
       </c>
@@ -34265,7 +34265,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="26.65" thickBot="1">
+    <row r="27" spans="1:7" ht="26.5" thickBot="1">
       <c r="A27" s="86" t="s">
         <v>76</v>
       </c>
@@ -34284,7 +34284,7 @@
       </c>
       <c r="G27" s="55"/>
     </row>
-    <row r="28" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="28" spans="1:7" ht="16" thickBot="1">
       <c r="A28" s="86" t="s">
         <v>76</v>
       </c>
@@ -34303,7 +34303,7 @@
       </c>
       <c r="G28" s="55"/>
     </row>
-    <row r="29" spans="1:7" ht="26.65" thickBot="1">
+    <row r="29" spans="1:7" ht="26.5" thickBot="1">
       <c r="A29" s="86" t="s">
         <v>76</v>
       </c>
@@ -34322,7 +34322,7 @@
       </c>
       <c r="G29" s="55"/>
     </row>
-    <row r="30" spans="1:7" ht="26.65" thickBot="1">
+    <row r="30" spans="1:7" ht="26.5" thickBot="1">
       <c r="A30" s="87" t="s">
         <v>79</v>
       </c>
@@ -34341,7 +34341,7 @@
       </c>
       <c r="G30" s="55"/>
     </row>
-    <row r="31" spans="1:7" ht="26.65" thickBot="1">
+    <row r="31" spans="1:7" ht="26.5" thickBot="1">
       <c r="A31" s="87" t="s">
         <v>79</v>
       </c>
@@ -34360,7 +34360,7 @@
       </c>
       <c r="G31" s="55"/>
     </row>
-    <row r="32" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="32" spans="1:7" ht="16" thickBot="1">
       <c r="A32" s="87" t="s">
         <v>79</v>
       </c>
@@ -34398,7 +34398,7 @@
       </c>
       <c r="G33" s="55"/>
     </row>
-    <row r="34" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="34" spans="1:7" ht="16" thickBot="1">
       <c r="A34" s="87" t="s">
         <v>79</v>
       </c>
@@ -34417,7 +34417,7 @@
       </c>
       <c r="G34" s="55"/>
     </row>
-    <row r="35" spans="1:7" ht="39.75" thickBot="1">
+    <row r="35" spans="1:7" ht="39.5" thickBot="1">
       <c r="A35" s="87" t="s">
         <v>79</v>
       </c>
@@ -34436,7 +34436,7 @@
       </c>
       <c r="G35" s="55"/>
     </row>
-    <row r="36" spans="1:7" ht="26.65" thickBot="1">
+    <row r="36" spans="1:7" ht="26.5" thickBot="1">
       <c r="A36" s="88" t="s">
         <v>93</v>
       </c>
@@ -34455,7 +34455,7 @@
       </c>
       <c r="G36" s="55"/>
     </row>
-    <row r="37" spans="1:7" ht="26.65" thickBot="1">
+    <row r="37" spans="1:7" ht="26.5" thickBot="1">
       <c r="A37" s="89" t="s">
         <v>81</v>
       </c>
@@ -34474,7 +34474,7 @@
       </c>
       <c r="G37" s="55"/>
     </row>
-    <row r="38" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="38" spans="1:7" ht="16" thickBot="1">
       <c r="A38" s="89" t="s">
         <v>81</v>
       </c>
@@ -34493,7 +34493,7 @@
       </c>
       <c r="G38" s="55"/>
     </row>
-    <row r="39" spans="1:7" ht="26.65" thickBot="1">
+    <row r="39" spans="1:7" ht="26.5" thickBot="1">
       <c r="A39" s="89" t="s">
         <v>81</v>
       </c>
@@ -34512,7 +34512,7 @@
       </c>
       <c r="G39" s="55"/>
     </row>
-    <row r="40" spans="1:7" ht="26.65" thickBot="1">
+    <row r="40" spans="1:7" ht="26.5" thickBot="1">
       <c r="A40" s="89" t="s">
         <v>81</v>
       </c>
@@ -34531,7 +34531,7 @@
       </c>
       <c r="G40" s="55"/>
     </row>
-    <row r="41" spans="1:7" ht="26.65" thickBot="1">
+    <row r="41" spans="1:7" ht="26.5" thickBot="1">
       <c r="A41" s="89" t="s">
         <v>81</v>
       </c>
@@ -34550,7 +34550,7 @@
       </c>
       <c r="G41" s="55"/>
     </row>
-    <row r="42" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="42" spans="1:7" ht="26.5" thickBot="1">
       <c r="A42" s="90" t="s">
         <v>118</v>
       </c>
@@ -34569,7 +34569,7 @@
       </c>
       <c r="G42" s="55"/>
     </row>
-    <row r="43" spans="1:7" ht="26.65" thickBot="1">
+    <row r="43" spans="1:7" ht="26.5" thickBot="1">
       <c r="A43" s="90" t="s">
         <v>118</v>
       </c>
@@ -34588,7 +34588,7 @@
       </c>
       <c r="G43" s="55"/>
     </row>
-    <row r="44" spans="1:7" ht="26.65" thickBot="1">
+    <row r="44" spans="1:7" ht="26.5" thickBot="1">
       <c r="A44" s="90" t="s">
         <v>118</v>
       </c>
@@ -34607,7 +34607,7 @@
       </c>
       <c r="G44" s="55"/>
     </row>
-    <row r="45" spans="1:7" ht="26.65" thickBot="1">
+    <row r="45" spans="1:7" ht="26.5" thickBot="1">
       <c r="A45" s="90" t="s">
         <v>118</v>
       </c>
@@ -34626,7 +34626,7 @@
       </c>
       <c r="G45" s="55"/>
     </row>
-    <row r="46" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="46" spans="1:7" ht="16" thickBot="1">
       <c r="A46" s="90" t="s">
         <v>118</v>
       </c>
@@ -34645,7 +34645,7 @@
       </c>
       <c r="G46" s="55"/>
     </row>
-    <row r="47" spans="1:7" ht="26.65" thickBot="1">
+    <row r="47" spans="1:7" ht="26.5" thickBot="1">
       <c r="A47" s="91" t="s">
         <v>736</v>
       </c>
@@ -34664,7 +34664,7 @@
       </c>
       <c r="G47" s="55"/>
     </row>
-    <row r="48" spans="1:7" ht="26.65" thickBot="1">
+    <row r="48" spans="1:7" ht="26.5" thickBot="1">
       <c r="A48" s="91" t="s">
         <v>736</v>
       </c>
@@ -34683,7 +34683,7 @@
       </c>
       <c r="G48" s="55"/>
     </row>
-    <row r="49" spans="1:7" ht="26.65" thickBot="1">
+    <row r="49" spans="1:7" ht="26.5" thickBot="1">
       <c r="A49" s="91" t="s">
         <v>736</v>
       </c>
@@ -34702,7 +34702,7 @@
       </c>
       <c r="G49" s="55"/>
     </row>
-    <row r="50" spans="1:7" ht="26.65" thickBot="1">
+    <row r="50" spans="1:7" ht="26.5" thickBot="1">
       <c r="A50" s="91" t="s">
         <v>736</v>
       </c>
@@ -34721,7 +34721,7 @@
       </c>
       <c r="G50" s="55"/>
     </row>
-    <row r="51" spans="1:7" ht="26.65" thickBot="1">
+    <row r="51" spans="1:7" ht="26.5" thickBot="1">
       <c r="A51" s="91" t="s">
         <v>736</v>
       </c>
@@ -34780,7 +34780,7 @@
       </c>
       <c r="G53" s="55"/>
     </row>
-    <row r="54" spans="1:7" ht="26.65" thickBot="1">
+    <row r="54" spans="1:7" ht="26.5" thickBot="1">
       <c r="A54" s="86" t="s">
         <v>76</v>
       </c>
@@ -34799,7 +34799,7 @@
       </c>
       <c r="G54" s="55"/>
     </row>
-    <row r="55" spans="1:7" ht="26.65" thickBot="1">
+    <row r="55" spans="1:7" ht="26.5" thickBot="1">
       <c r="A55" s="86" t="s">
         <v>76</v>
       </c>
@@ -34818,7 +34818,7 @@
       </c>
       <c r="G55" s="55"/>
     </row>
-    <row r="56" spans="1:7" ht="39.75" thickBot="1">
+    <row r="56" spans="1:7" ht="39.5" thickBot="1">
       <c r="A56" s="87" t="s">
         <v>79</v>
       </c>
@@ -34837,7 +34837,7 @@
       </c>
       <c r="G56" s="55"/>
     </row>
-    <row r="57" spans="1:7" ht="26.65" thickBot="1">
+    <row r="57" spans="1:7" ht="26.5" thickBot="1">
       <c r="A57" s="87" t="s">
         <v>79</v>
       </c>
@@ -34856,7 +34856,7 @@
       </c>
       <c r="G57" s="55"/>
     </row>
-    <row r="58" spans="1:7" ht="26.65" thickBot="1">
+    <row r="58" spans="1:7" ht="26.5" thickBot="1">
       <c r="A58" s="87" t="s">
         <v>79</v>
       </c>
@@ -34875,7 +34875,7 @@
       </c>
       <c r="G58" s="55"/>
     </row>
-    <row r="59" spans="1:7" ht="26.65" thickBot="1">
+    <row r="59" spans="1:7" ht="26.5" thickBot="1">
       <c r="A59" s="88" t="s">
         <v>93</v>
       </c>
@@ -34894,7 +34894,7 @@
       </c>
       <c r="G59" s="55"/>
     </row>
-    <row r="60" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="60" spans="1:7" ht="16" thickBot="1">
       <c r="A60" s="88" t="s">
         <v>93</v>
       </c>
@@ -34913,7 +34913,7 @@
       </c>
       <c r="G60" s="55"/>
     </row>
-    <row r="61" spans="1:7" ht="26.65" thickBot="1">
+    <row r="61" spans="1:7" ht="26.5" thickBot="1">
       <c r="A61" s="117" t="s">
         <v>81</v>
       </c>
@@ -34932,7 +34932,7 @@
       </c>
       <c r="G61" s="55"/>
     </row>
-    <row r="62" spans="1:7" ht="39.75" thickBot="1">
+    <row r="62" spans="1:7" ht="39.5" thickBot="1">
       <c r="A62" s="118" t="s">
         <v>81</v>
       </c>
@@ -34953,7 +34953,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="26.65" thickBot="1">
+    <row r="63" spans="1:7" ht="39.5" thickBot="1">
       <c r="A63" s="118" t="s">
         <v>81</v>
       </c>
@@ -34972,7 +34972,7 @@
       </c>
       <c r="G63" s="55"/>
     </row>
-    <row r="64" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="64" spans="1:7" ht="16" thickBot="1">
       <c r="A64" s="118" t="s">
         <v>81</v>
       </c>
@@ -34991,7 +34991,7 @@
       </c>
       <c r="G64" s="55"/>
     </row>
-    <row r="65" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="65" spans="1:7" ht="16" thickBot="1">
       <c r="A65" s="118" t="s">
         <v>81</v>
       </c>
@@ -35010,7 +35010,7 @@
       </c>
       <c r="G65" s="55"/>
     </row>
-    <row r="66" spans="1:7" ht="26.65" thickBot="1">
+    <row r="66" spans="1:7" ht="26.5" thickBot="1">
       <c r="A66" s="119" t="s">
         <v>118</v>
       </c>
@@ -35029,7 +35029,7 @@
       </c>
       <c r="G66" s="55"/>
     </row>
-    <row r="67" spans="1:7" ht="26.65" thickBot="1">
+    <row r="67" spans="1:7" ht="26.5" thickBot="1">
       <c r="A67" s="119" t="s">
         <v>118</v>
       </c>
@@ -35048,7 +35048,7 @@
       </c>
       <c r="G67" s="55"/>
     </row>
-    <row r="68" spans="1:7" ht="26.65" thickBot="1">
+    <row r="68" spans="1:7" ht="26.5" thickBot="1">
       <c r="A68" s="119" t="s">
         <v>118</v>
       </c>
@@ -35067,7 +35067,7 @@
       </c>
       <c r="G68" s="55"/>
     </row>
-    <row r="69" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="69" spans="1:7" ht="16" thickBot="1">
       <c r="A69" s="119" t="s">
         <v>118</v>
       </c>
@@ -35086,7 +35086,7 @@
       </c>
       <c r="G69" s="55"/>
     </row>
-    <row r="70" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="70" spans="1:7" ht="16" thickBot="1">
       <c r="A70" s="119" t="s">
         <v>118</v>
       </c>
@@ -35105,7 +35105,7 @@
       </c>
       <c r="G70" s="55"/>
     </row>
-    <row r="71" spans="1:7" ht="26.65" thickBot="1">
+    <row r="71" spans="1:7" ht="26.5" thickBot="1">
       <c r="A71" s="91" t="s">
         <v>736</v>
       </c>
@@ -35145,7 +35145,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="73" spans="1:7" ht="16" thickBot="1">
       <c r="A73" s="86" t="s">
         <v>76</v>
       </c>
@@ -35164,7 +35164,7 @@
       </c>
       <c r="G73" s="55"/>
     </row>
-    <row r="74" spans="1:7" ht="39.75" thickBot="1">
+    <row r="74" spans="1:7" ht="39.5" thickBot="1">
       <c r="A74" s="86" t="s">
         <v>76</v>
       </c>
@@ -35183,7 +35183,7 @@
       </c>
       <c r="G74" s="55"/>
     </row>
-    <row r="75" spans="1:7" ht="39.75" thickBot="1">
+    <row r="75" spans="1:7" ht="39.5" thickBot="1">
       <c r="A75" s="87" t="s">
         <v>79</v>
       </c>
@@ -35202,7 +35202,7 @@
       </c>
       <c r="G75" s="55"/>
     </row>
-    <row r="76" spans="1:7" ht="26.65" thickBot="1">
+    <row r="76" spans="1:7" ht="26.5" thickBot="1">
       <c r="A76" s="87" t="s">
         <v>79</v>
       </c>
@@ -35221,7 +35221,7 @@
       </c>
       <c r="G76" s="55"/>
     </row>
-    <row r="77" spans="1:7" ht="26.65" thickBot="1">
+    <row r="77" spans="1:7" ht="26.5" thickBot="1">
       <c r="A77" s="88" t="s">
         <v>93</v>
       </c>
@@ -35240,7 +35240,7 @@
       </c>
       <c r="G77" s="55"/>
     </row>
-    <row r="78" spans="1:7" ht="26.65" thickBot="1">
+    <row r="78" spans="1:7" ht="26.5" thickBot="1">
       <c r="A78" s="88" t="s">
         <v>93</v>
       </c>
@@ -35259,7 +35259,7 @@
       </c>
       <c r="G78" s="55"/>
     </row>
-    <row r="79" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="79" spans="1:7" ht="16" thickBot="1">
       <c r="A79" s="89" t="s">
         <v>81</v>
       </c>
@@ -35278,7 +35278,7 @@
       </c>
       <c r="G79" s="55"/>
     </row>
-    <row r="80" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="80" spans="1:7" ht="16" thickBot="1">
       <c r="A80" s="89" t="s">
         <v>81</v>
       </c>
@@ -35297,7 +35297,7 @@
       </c>
       <c r="G80" s="55"/>
     </row>
-    <row r="81" spans="1:7" ht="26.65" thickBot="1">
+    <row r="81" spans="1:7" ht="26.5" thickBot="1">
       <c r="A81" s="90" t="s">
         <v>118</v>
       </c>
@@ -35316,7 +35316,7 @@
       </c>
       <c r="G81" s="55"/>
     </row>
-    <row r="82" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="82" spans="1:7" ht="16" thickBot="1">
       <c r="A82" s="90" t="s">
         <v>118</v>
       </c>
@@ -35335,7 +35335,7 @@
       </c>
       <c r="G82" s="55"/>
     </row>
-    <row r="83" spans="1:7" ht="26.65" thickBot="1">
+    <row r="83" spans="1:7" ht="26.5" thickBot="1">
       <c r="A83" s="91" t="s">
         <v>736</v>
       </c>
@@ -35354,7 +35354,7 @@
       </c>
       <c r="G83" s="55"/>
     </row>
-    <row r="84" spans="1:7" ht="26.65" thickBot="1">
+    <row r="84" spans="1:7" ht="39.5" thickBot="1">
       <c r="A84" s="91" t="s">
         <v>736</v>
       </c>
@@ -35373,7 +35373,7 @@
       </c>
       <c r="G84" s="55"/>
     </row>
-    <row r="85" spans="1:7" ht="26.65" thickBot="1">
+    <row r="85" spans="1:7" ht="39.5" thickBot="1">
       <c r="A85" s="91" t="s">
         <v>736</v>
       </c>
@@ -35392,7 +35392,7 @@
       </c>
       <c r="G85" s="55"/>
     </row>
-    <row r="86" spans="1:7" ht="26.65" thickBot="1">
+    <row r="86" spans="1:7" ht="39.5" thickBot="1">
       <c r="A86" s="91" t="s">
         <v>736</v>
       </c>
@@ -35411,7 +35411,7 @@
       </c>
       <c r="G86" s="55"/>
     </row>
-    <row r="87" spans="1:7" ht="26.65" thickBot="1">
+    <row r="87" spans="1:7" ht="39.5" thickBot="1">
       <c r="A87" s="91" t="s">
         <v>736</v>
       </c>
@@ -35430,7 +35430,7 @@
       </c>
       <c r="G87" s="55"/>
     </row>
-    <row r="88" spans="1:7" ht="26.65" thickBot="1">
+    <row r="88" spans="1:7" ht="39.5" thickBot="1">
       <c r="A88" s="91" t="s">
         <v>736</v>
       </c>
@@ -35449,28 +35449,28 @@
       </c>
       <c r="G88" s="55"/>
     </row>
-    <row r="89" spans="1:7" s="24" customFormat="1" ht="15.75"/>
-    <row r="90" spans="1:7" s="24" customFormat="1" ht="15.75"/>
-    <row r="91" spans="1:7" s="24" customFormat="1" ht="15.75"/>
-    <row r="92" spans="1:7" s="24" customFormat="1" ht="15.75"/>
+    <row r="89" spans="1:7" s="24" customFormat="1" ht="15.5"/>
+    <row r="90" spans="1:7" s="24" customFormat="1" ht="15.5"/>
+    <row r="91" spans="1:7" s="24" customFormat="1" ht="15.5"/>
+    <row r="92" spans="1:7" s="24" customFormat="1" ht="15.5"/>
     <row r="93" spans="1:7" s="24" customFormat="1" ht="14" customHeight="1"/>
-    <row r="94" spans="1:7" s="24" customFormat="1" ht="15.75"/>
-    <row r="95" spans="1:7" s="24" customFormat="1" ht="15.75"/>
-    <row r="96" spans="1:7" s="24" customFormat="1" ht="15.75"/>
+    <row r="94" spans="1:7" s="24" customFormat="1" ht="15.5"/>
+    <row r="95" spans="1:7" s="24" customFormat="1" ht="15.5"/>
+    <row r="96" spans="1:7" s="24" customFormat="1" ht="15.5"/>
     <row r="97" s="24" customFormat="1" ht="14" customHeight="1"/>
-    <row r="98" s="24" customFormat="1" ht="15.75"/>
-    <row r="99" s="24" customFormat="1" ht="15.75"/>
-    <row r="100" s="24" customFormat="1" ht="15.75"/>
-    <row r="101" s="24" customFormat="1" ht="15.75"/>
+    <row r="98" s="24" customFormat="1" ht="15.5"/>
+    <row r="99" s="24" customFormat="1" ht="15.5"/>
+    <row r="100" s="24" customFormat="1" ht="15.5"/>
+    <row r="101" s="24" customFormat="1" ht="15.5"/>
     <row r="102" s="24" customFormat="1" ht="14" customHeight="1"/>
-    <row r="103" s="24" customFormat="1" ht="15.75"/>
-    <row r="104" s="24" customFormat="1" ht="15.75"/>
-    <row r="105" s="24" customFormat="1" ht="15.75"/>
-    <row r="106" s="24" customFormat="1" ht="15.75"/>
-    <row r="107" s="24" customFormat="1" ht="15.75"/>
-    <row r="108" s="24" customFormat="1" ht="15.75"/>
-    <row r="109" s="24" customFormat="1" ht="15.75"/>
-    <row r="110" s="24" customFormat="1" ht="15.75"/>
+    <row r="103" s="24" customFormat="1" ht="15.5"/>
+    <row r="104" s="24" customFormat="1" ht="15.5"/>
+    <row r="105" s="24" customFormat="1" ht="15.5"/>
+    <row r="106" s="24" customFormat="1" ht="15.5"/>
+    <row r="107" s="24" customFormat="1" ht="15.5"/>
+    <row r="108" s="24" customFormat="1" ht="15.5"/>
+    <row r="109" s="24" customFormat="1" ht="15.5"/>
+    <row r="110" s="24" customFormat="1" ht="15.5"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A8:B9"/>
@@ -36284,15 +36284,15 @@
       <selection activeCell="H58" sqref="H58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6875" defaultRowHeight="14" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="12" style="33" customWidth="1"/>
-    <col min="2" max="2" width="26.1875" style="33" customWidth="1"/>
+    <col min="2" max="2" width="26.1640625" style="33" customWidth="1"/>
     <col min="3" max="3" width="66" style="33" customWidth="1"/>
     <col min="4" max="4" width="24" style="33" customWidth="1"/>
     <col min="5" max="6" width="12" style="33" customWidth="1"/>
     <col min="7" max="7" width="24" style="33" customWidth="1"/>
-    <col min="8" max="16384" width="10.6875" style="33"/>
+    <col min="8" max="16384" width="10.6640625" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14" customHeight="1" thickBot="1">
@@ -36511,7 +36511,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="26.65" thickBot="1">
+    <row r="11" spans="1:7" ht="26.5" thickBot="1">
       <c r="A11" s="62" t="s">
         <v>76</v>
       </c>
@@ -36530,7 +36530,7 @@
       </c>
       <c r="G11" s="55"/>
     </row>
-    <row r="12" spans="1:7" ht="26.65" thickBot="1">
+    <row r="12" spans="1:7" ht="26.5" thickBot="1">
       <c r="A12" s="62" t="s">
         <v>76</v>
       </c>
@@ -36549,7 +36549,7 @@
       </c>
       <c r="G12" s="55"/>
     </row>
-    <row r="13" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="13" spans="1:7" ht="16" thickBot="1">
       <c r="A13" s="63" t="s">
         <v>79</v>
       </c>
@@ -36568,7 +36568,7 @@
       </c>
       <c r="G13" s="55"/>
     </row>
-    <row r="14" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="14" spans="1:7" ht="16" thickBot="1">
       <c r="A14" s="63" t="s">
         <v>79</v>
       </c>
@@ -36587,7 +36587,7 @@
       </c>
       <c r="G14" s="55"/>
     </row>
-    <row r="15" spans="1:7" ht="26.65" thickBot="1">
+    <row r="15" spans="1:7" ht="26.5" thickBot="1">
       <c r="A15" s="63" t="s">
         <v>79</v>
       </c>
@@ -36606,7 +36606,7 @@
       </c>
       <c r="G15" s="55"/>
     </row>
-    <row r="16" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="16" spans="1:7" ht="16" thickBot="1">
       <c r="A16" s="65" t="s">
         <v>93</v>
       </c>
@@ -36625,7 +36625,7 @@
       </c>
       <c r="G16" s="55"/>
     </row>
-    <row r="17" spans="1:7" ht="52.9" thickBot="1">
+    <row r="17" spans="1:7" ht="52.5" thickBot="1">
       <c r="A17" s="65" t="s">
         <v>93</v>
       </c>
@@ -36644,7 +36644,7 @@
       </c>
       <c r="G17" s="55"/>
     </row>
-    <row r="18" spans="1:7" ht="26.65" thickBot="1">
+    <row r="18" spans="1:7" ht="26.5" thickBot="1">
       <c r="A18" s="64" t="s">
         <v>81</v>
       </c>
@@ -36663,7 +36663,7 @@
       </c>
       <c r="G18" s="55"/>
     </row>
-    <row r="19" spans="1:7" ht="39.75" thickBot="1">
+    <row r="19" spans="1:7" ht="39.5" thickBot="1">
       <c r="A19" s="64" t="s">
         <v>81</v>
       </c>
@@ -36682,7 +36682,7 @@
       </c>
       <c r="G19" s="55"/>
     </row>
-    <row r="20" spans="1:7" ht="26.65" thickBot="1">
+    <row r="20" spans="1:7" ht="26.5" thickBot="1">
       <c r="A20" s="66" t="s">
         <v>118</v>
       </c>
@@ -36701,7 +36701,7 @@
       </c>
       <c r="G20" s="55"/>
     </row>
-    <row r="21" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="21" spans="1:7" ht="16" thickBot="1">
       <c r="A21" s="67" t="s">
         <v>736</v>
       </c>
@@ -36741,7 +36741,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="23" spans="1:7" ht="16" thickBot="1">
       <c r="A23" s="62" t="s">
         <v>76</v>
       </c>
@@ -36760,7 +36760,7 @@
       </c>
       <c r="G23" s="55"/>
     </row>
-    <row r="24" spans="1:7" ht="26.65" thickBot="1">
+    <row r="24" spans="1:7" ht="26.5" thickBot="1">
       <c r="A24" s="63" t="s">
         <v>79</v>
       </c>
@@ -36779,7 +36779,7 @@
       </c>
       <c r="G24" s="55"/>
     </row>
-    <row r="25" spans="1:7" ht="26.65" thickBot="1">
+    <row r="25" spans="1:7" ht="26.5" thickBot="1">
       <c r="A25" s="65" t="s">
         <v>93</v>
       </c>
@@ -36798,7 +36798,7 @@
       </c>
       <c r="G25" s="55"/>
     </row>
-    <row r="26" spans="1:7" ht="26.65" thickBot="1">
+    <row r="26" spans="1:7" ht="26.5" thickBot="1">
       <c r="A26" s="64" t="s">
         <v>81</v>
       </c>
@@ -36817,7 +36817,7 @@
       </c>
       <c r="G26" s="55"/>
     </row>
-    <row r="27" spans="1:7" ht="26.65" thickBot="1">
+    <row r="27" spans="1:7" ht="26.5" thickBot="1">
       <c r="A27" s="64" t="s">
         <v>81</v>
       </c>
@@ -36836,7 +36836,7 @@
       </c>
       <c r="G27" s="55"/>
     </row>
-    <row r="28" spans="1:7" ht="26.65" thickBot="1">
+    <row r="28" spans="1:7" ht="26.5" thickBot="1">
       <c r="A28" s="64" t="s">
         <v>81</v>
       </c>
@@ -36855,7 +36855,7 @@
       </c>
       <c r="G28" s="55"/>
     </row>
-    <row r="29" spans="1:7" ht="26.65" thickBot="1">
+    <row r="29" spans="1:7" ht="26.5" thickBot="1">
       <c r="A29" s="66" t="s">
         <v>118</v>
       </c>
@@ -36874,7 +36874,7 @@
       </c>
       <c r="G29" s="55"/>
     </row>
-    <row r="30" spans="1:7" ht="26.65" thickBot="1">
+    <row r="30" spans="1:7" ht="26.5" thickBot="1">
       <c r="A30" s="66" t="s">
         <v>118</v>
       </c>
@@ -36893,7 +36893,7 @@
       </c>
       <c r="G30" s="55"/>
     </row>
-    <row r="31" spans="1:7" ht="26.65" thickBot="1">
+    <row r="31" spans="1:7" ht="26.5" thickBot="1">
       <c r="A31" s="67" t="s">
         <v>736</v>
       </c>
@@ -36933,7 +36933,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="66" thickBot="1">
+    <row r="33" spans="1:7" ht="65.5" thickBot="1">
       <c r="A33" s="62" t="s">
         <v>76</v>
       </c>
@@ -36952,7 +36952,7 @@
       </c>
       <c r="G33" s="55"/>
     </row>
-    <row r="34" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="34" spans="1:7" ht="16" thickBot="1">
       <c r="A34" s="62" t="s">
         <v>76</v>
       </c>
@@ -36971,7 +36971,7 @@
       </c>
       <c r="G34" s="55"/>
     </row>
-    <row r="35" spans="1:7" ht="26.65" thickBot="1">
+    <row r="35" spans="1:7" ht="26.5" thickBot="1">
       <c r="A35" s="62" t="s">
         <v>76</v>
       </c>
@@ -36990,7 +36990,7 @@
       </c>
       <c r="G35" s="55"/>
     </row>
-    <row r="36" spans="1:7" ht="52.9" thickBot="1">
+    <row r="36" spans="1:7" ht="65.5" thickBot="1">
       <c r="A36" s="63" t="s">
         <v>79</v>
       </c>
@@ -37009,7 +37009,7 @@
       </c>
       <c r="G36" s="55"/>
     </row>
-    <row r="37" spans="1:7" s="24" customFormat="1" ht="52.9" thickBot="1">
+    <row r="37" spans="1:7" s="24" customFormat="1" ht="65.5" thickBot="1">
       <c r="A37" s="63" t="s">
         <v>79</v>
       </c>
@@ -37028,7 +37028,7 @@
       </c>
       <c r="G37" s="55"/>
     </row>
-    <row r="38" spans="1:7" s="24" customFormat="1" ht="39.75" thickBot="1">
+    <row r="38" spans="1:7" s="24" customFormat="1" ht="39.5" thickBot="1">
       <c r="A38" s="64" t="s">
         <v>81</v>
       </c>
@@ -37047,7 +37047,7 @@
       </c>
       <c r="G38" s="55"/>
     </row>
-    <row r="39" spans="1:7" s="24" customFormat="1" ht="16.149999999999999" thickBot="1">
+    <row r="39" spans="1:7" s="24" customFormat="1" ht="26.5" thickBot="1">
       <c r="A39" s="64" t="s">
         <v>81</v>
       </c>
@@ -37066,7 +37066,7 @@
       </c>
       <c r="G39" s="55"/>
     </row>
-    <row r="40" spans="1:7" s="24" customFormat="1" ht="26.65" thickBot="1">
+    <row r="40" spans="1:7" s="24" customFormat="1" ht="26.5" thickBot="1">
       <c r="A40" s="66" t="s">
         <v>118</v>
       </c>
@@ -37085,7 +37085,7 @@
       </c>
       <c r="G40" s="55"/>
     </row>
-    <row r="41" spans="1:7" s="24" customFormat="1" ht="16.149999999999999" thickBot="1">
+    <row r="41" spans="1:7" s="24" customFormat="1" ht="16" thickBot="1">
       <c r="A41" s="66" t="s">
         <v>118</v>
       </c>
@@ -37104,7 +37104,7 @@
       </c>
       <c r="G41" s="55"/>
     </row>
-    <row r="42" spans="1:7" s="24" customFormat="1" ht="26.65" thickBot="1">
+    <row r="42" spans="1:7" s="24" customFormat="1" ht="26.5" thickBot="1">
       <c r="A42" s="67" t="s">
         <v>736</v>
       </c>
@@ -37144,7 +37144,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="39.75" thickBot="1">
+    <row r="44" spans="1:7" ht="39.5" thickBot="1">
       <c r="A44" s="62" t="s">
         <v>76</v>
       </c>
@@ -37163,7 +37163,7 @@
       </c>
       <c r="G44" s="55"/>
     </row>
-    <row r="45" spans="1:7" ht="26.65" thickBot="1">
+    <row r="45" spans="1:7" ht="26.5" thickBot="1">
       <c r="A45" s="63" t="s">
         <v>79</v>
       </c>
@@ -37182,7 +37182,7 @@
       </c>
       <c r="G45" s="55"/>
     </row>
-    <row r="46" spans="1:7" ht="26.65" thickBot="1">
+    <row r="46" spans="1:7" ht="26.5" thickBot="1">
       <c r="A46" s="63" t="s">
         <v>79</v>
       </c>
@@ -37201,7 +37201,7 @@
       </c>
       <c r="G46" s="55"/>
     </row>
-    <row r="47" spans="1:7" ht="39.75" thickBot="1">
+    <row r="47" spans="1:7" ht="39.5" thickBot="1">
       <c r="A47" s="65" t="s">
         <v>93</v>
       </c>
@@ -37241,7 +37241,7 @@
       </c>
       <c r="G48" s="55"/>
     </row>
-    <row r="49" spans="1:7" ht="26.65" thickBot="1">
+    <row r="49" spans="1:7" ht="26.5" thickBot="1">
       <c r="A49" s="66" t="s">
         <v>118</v>
       </c>
@@ -37260,7 +37260,7 @@
       </c>
       <c r="G49" s="55"/>
     </row>
-    <row r="50" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="50" spans="1:7" ht="16" thickBot="1">
       <c r="A50" s="66" t="s">
         <v>118</v>
       </c>
@@ -37279,7 +37279,7 @@
       </c>
       <c r="G50" s="55"/>
     </row>
-    <row r="51" spans="1:7" ht="26.65" thickBot="1">
+    <row r="51" spans="1:7" ht="26.5" thickBot="1">
       <c r="A51" s="67" t="s">
         <v>736</v>
       </c>
@@ -37298,7 +37298,7 @@
       </c>
       <c r="G51" s="55"/>
     </row>
-    <row r="52" spans="1:7" s="24" customFormat="1" ht="15.75"/>
+    <row r="52" spans="1:7" s="24" customFormat="1" ht="15.5"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="C2:D9"/>
@@ -37634,15 +37634,15 @@
       <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6875" defaultRowHeight="14" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="12" style="33" customWidth="1"/>
-    <col min="2" max="2" width="26.1875" style="33" customWidth="1"/>
+    <col min="2" max="2" width="26.1640625" style="33" customWidth="1"/>
     <col min="3" max="3" width="66" style="33" customWidth="1"/>
     <col min="4" max="4" width="24" style="33" customWidth="1"/>
     <col min="5" max="6" width="12" style="33" customWidth="1"/>
     <col min="7" max="7" width="24" style="33" customWidth="1"/>
-    <col min="8" max="16384" width="10.6875" style="33"/>
+    <col min="8" max="16384" width="10.6640625" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14" customHeight="1" thickBot="1">
@@ -37861,7 +37861,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="11" spans="1:7" ht="16" thickBot="1">
       <c r="A11" s="86" t="s">
         <v>76</v>
       </c>
@@ -37880,7 +37880,7 @@
       </c>
       <c r="G11" s="55"/>
     </row>
-    <row r="12" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="12" spans="1:7" ht="16" thickBot="1">
       <c r="A12" s="87" t="s">
         <v>79</v>
       </c>
@@ -37899,7 +37899,7 @@
       </c>
       <c r="G12" s="55"/>
     </row>
-    <row r="13" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="13" spans="1:7" ht="16" thickBot="1">
       <c r="A13" s="88" t="s">
         <v>93</v>
       </c>
@@ -37918,7 +37918,7 @@
       </c>
       <c r="G13" s="55"/>
     </row>
-    <row r="14" spans="1:7" ht="26.65" thickBot="1">
+    <row r="14" spans="1:7" ht="26.5" thickBot="1">
       <c r="A14" s="89" t="s">
         <v>81</v>
       </c>
@@ -37939,7 +37939,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="26.65" thickBot="1">
+    <row r="15" spans="1:7" ht="26.5" thickBot="1">
       <c r="A15" s="90" t="s">
         <v>118</v>
       </c>
@@ -37958,7 +37958,7 @@
       </c>
       <c r="G15" s="55"/>
     </row>
-    <row r="16" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="16" spans="1:7" ht="16" thickBot="1">
       <c r="A16" s="91" t="s">
         <v>736</v>
       </c>
@@ -37998,7 +37998,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="18" spans="1:7" ht="16" thickBot="1">
       <c r="A18" s="86" t="s">
         <v>76</v>
       </c>
@@ -38017,7 +38017,7 @@
       </c>
       <c r="G18" s="55"/>
     </row>
-    <row r="19" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="19" spans="1:7" ht="16" thickBot="1">
       <c r="A19" s="87" t="s">
         <v>79</v>
       </c>
@@ -38036,7 +38036,7 @@
       </c>
       <c r="G19" s="55"/>
     </row>
-    <row r="20" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="20" spans="1:7" ht="16" thickBot="1">
       <c r="A20" s="89" t="s">
         <v>81</v>
       </c>
@@ -38055,7 +38055,7 @@
       </c>
       <c r="G20" s="55"/>
     </row>
-    <row r="21" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="21" spans="1:7" ht="16" thickBot="1">
       <c r="A21" s="90" t="s">
         <v>118</v>
       </c>
@@ -38074,7 +38074,7 @@
       </c>
       <c r="G21" s="55"/>
     </row>
-    <row r="22" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="22" spans="1:7" ht="16" thickBot="1">
       <c r="A22" s="91" t="s">
         <v>736</v>
       </c>
@@ -38114,7 +38114,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="24" spans="1:7" ht="16" thickBot="1">
       <c r="A24" s="86" t="s">
         <v>76</v>
       </c>
@@ -38133,7 +38133,7 @@
       </c>
       <c r="G24" s="55"/>
     </row>
-    <row r="25" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="25" spans="1:7" ht="16" thickBot="1">
       <c r="A25" s="87" t="s">
         <v>79</v>
       </c>
@@ -38152,7 +38152,7 @@
       </c>
       <c r="G25" s="55"/>
     </row>
-    <row r="26" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="26" spans="1:7" ht="16" thickBot="1">
       <c r="A26" s="89" t="s">
         <v>81</v>
       </c>
@@ -38171,7 +38171,7 @@
       </c>
       <c r="G26" s="55"/>
     </row>
-    <row r="27" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="27" spans="1:7" ht="16" thickBot="1">
       <c r="A27" s="90" t="s">
         <v>118</v>
       </c>
@@ -38190,7 +38190,7 @@
       </c>
       <c r="G27" s="55"/>
     </row>
-    <row r="28" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="28" spans="1:7" ht="16" thickBot="1">
       <c r="A28" s="91" t="s">
         <v>736</v>
       </c>
@@ -38209,7 +38209,7 @@
       </c>
       <c r="G28" s="55"/>
     </row>
-    <row r="29" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="29" spans="1:7" ht="16" thickBot="1">
       <c r="A29" s="91" t="s">
         <v>736</v>
       </c>
@@ -38249,7 +38249,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="31" spans="1:7" ht="16" thickBot="1">
       <c r="A31" s="86" t="s">
         <v>76</v>
       </c>
@@ -38268,7 +38268,7 @@
       </c>
       <c r="G31" s="55"/>
     </row>
-    <row r="32" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="32" spans="1:7" ht="26.5" thickBot="1">
       <c r="A32" s="87" t="s">
         <v>79</v>
       </c>
@@ -38287,7 +38287,7 @@
       </c>
       <c r="G32" s="55"/>
     </row>
-    <row r="33" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="33" spans="1:7" ht="16" thickBot="1">
       <c r="A33" s="89" t="s">
         <v>81</v>
       </c>
@@ -38306,7 +38306,7 @@
       </c>
       <c r="G33" s="55"/>
     </row>
-    <row r="34" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="34" spans="1:7" ht="16" thickBot="1">
       <c r="A34" s="90" t="s">
         <v>118</v>
       </c>
@@ -38325,7 +38325,7 @@
       </c>
       <c r="G34" s="55"/>
     </row>
-    <row r="35" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="35" spans="1:7" ht="16" thickBot="1">
       <c r="A35" s="91" t="s">
         <v>736</v>
       </c>
@@ -38344,7 +38344,7 @@
       </c>
       <c r="G35" s="55"/>
     </row>
-    <row r="36" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="36" spans="1:7" ht="16" thickBot="1">
       <c r="A36" s="91" t="s">
         <v>736</v>
       </c>
@@ -38363,7 +38363,7 @@
       </c>
       <c r="G36" s="55"/>
     </row>
-    <row r="37" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="37" spans="1:7" ht="16" thickBot="1">
       <c r="A37" s="91" t="s">
         <v>736</v>
       </c>
@@ -38422,7 +38422,7 @@
       </c>
       <c r="G39" s="55"/>
     </row>
-    <row r="40" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="40" spans="1:7" ht="16" thickBot="1">
       <c r="A40" s="87" t="s">
         <v>79</v>
       </c>
@@ -38441,7 +38441,7 @@
       </c>
       <c r="G40" s="55"/>
     </row>
-    <row r="41" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="41" spans="1:7" ht="16" thickBot="1">
       <c r="A41" s="89" t="s">
         <v>81</v>
       </c>
@@ -38460,7 +38460,7 @@
       </c>
       <c r="G41" s="55"/>
     </row>
-    <row r="42" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="42" spans="1:7" ht="16" thickBot="1">
       <c r="A42" s="90" t="s">
         <v>118</v>
       </c>
@@ -38479,7 +38479,7 @@
       </c>
       <c r="G42" s="55"/>
     </row>
-    <row r="43" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="43" spans="1:7" ht="16" thickBot="1">
       <c r="A43" s="90" t="s">
         <v>118</v>
       </c>
@@ -38498,7 +38498,7 @@
       </c>
       <c r="G43" s="55"/>
     </row>
-    <row r="44" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="44" spans="1:7" ht="16" thickBot="1">
       <c r="A44" s="91" t="s">
         <v>736</v>
       </c>
@@ -38557,7 +38557,7 @@
       </c>
       <c r="G46" s="55"/>
     </row>
-    <row r="47" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="47" spans="1:7" ht="16" thickBot="1">
       <c r="A47" s="87" t="s">
         <v>79</v>
       </c>
@@ -38576,7 +38576,7 @@
       </c>
       <c r="G47" s="55"/>
     </row>
-    <row r="48" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="48" spans="1:7" ht="16" thickBot="1">
       <c r="A48" s="89" t="s">
         <v>81</v>
       </c>
@@ -38595,7 +38595,7 @@
       </c>
       <c r="G48" s="55"/>
     </row>
-    <row r="49" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="49" spans="1:7" ht="16" thickBot="1">
       <c r="A49" s="89" t="s">
         <v>81</v>
       </c>
@@ -38614,7 +38614,7 @@
       </c>
       <c r="G49" s="55"/>
     </row>
-    <row r="50" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="50" spans="1:7" ht="16" thickBot="1">
       <c r="A50" s="89" t="s">
         <v>81</v>
       </c>
@@ -38652,7 +38652,7 @@
       </c>
       <c r="G51" s="55"/>
     </row>
-    <row r="52" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="52" spans="1:7" ht="16" thickBot="1">
       <c r="A52" s="90" t="s">
         <v>118</v>
       </c>
@@ -38671,7 +38671,7 @@
       </c>
       <c r="G52" s="55"/>
     </row>
-    <row r="53" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="53" spans="1:7" ht="16" thickBot="1">
       <c r="A53" s="90" t="s">
         <v>118</v>
       </c>
@@ -38690,7 +38690,7 @@
       </c>
       <c r="G53" s="55"/>
     </row>
-    <row r="54" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="54" spans="1:7" ht="16" thickBot="1">
       <c r="A54" s="91" t="s">
         <v>736</v>
       </c>
@@ -38709,7 +38709,7 @@
       </c>
       <c r="G54" s="55"/>
     </row>
-    <row r="55" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="55" spans="1:7" ht="16" thickBot="1">
       <c r="A55" s="91" t="s">
         <v>736</v>
       </c>
@@ -38728,7 +38728,7 @@
       </c>
       <c r="G55" s="55"/>
     </row>
-    <row r="56" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="56" spans="1:7" ht="16" thickBot="1">
       <c r="A56" s="91" t="s">
         <v>736</v>
       </c>
@@ -38748,74 +38748,74 @@
       <c r="G56" s="55"/>
     </row>
     <row r="57" spans="1:7" s="24" customFormat="1" ht="14" customHeight="1"/>
-    <row r="58" spans="1:7" s="24" customFormat="1" ht="15.75"/>
-    <row r="59" spans="1:7" s="24" customFormat="1" ht="15.75"/>
-    <row r="60" spans="1:7" s="24" customFormat="1" ht="15.75"/>
-    <row r="61" spans="1:7" s="24" customFormat="1" ht="15.75"/>
-    <row r="62" spans="1:7" s="24" customFormat="1" ht="15.75"/>
-    <row r="63" spans="1:7" s="24" customFormat="1" ht="15.75"/>
-    <row r="64" spans="1:7" s="24" customFormat="1" ht="15.75"/>
-    <row r="65" s="24" customFormat="1" ht="15.75"/>
+    <row r="58" spans="1:7" s="24" customFormat="1" ht="15.5"/>
+    <row r="59" spans="1:7" s="24" customFormat="1" ht="15.5"/>
+    <row r="60" spans="1:7" s="24" customFormat="1" ht="15.5"/>
+    <row r="61" spans="1:7" s="24" customFormat="1" ht="15.5"/>
+    <row r="62" spans="1:7" s="24" customFormat="1" ht="15.5"/>
+    <row r="63" spans="1:7" s="24" customFormat="1" ht="15.5"/>
+    <row r="64" spans="1:7" s="24" customFormat="1" ht="15.5"/>
+    <row r="65" s="24" customFormat="1" ht="15.5"/>
     <row r="66" s="24" customFormat="1" ht="14" customHeight="1"/>
-    <row r="67" s="24" customFormat="1" ht="15.75"/>
-    <row r="68" s="24" customFormat="1" ht="15.75"/>
-    <row r="69" s="24" customFormat="1" ht="15.75"/>
-    <row r="70" s="24" customFormat="1" ht="15.75"/>
-    <row r="71" s="24" customFormat="1" ht="15.75"/>
+    <row r="67" s="24" customFormat="1" ht="15.5"/>
+    <row r="68" s="24" customFormat="1" ht="15.5"/>
+    <row r="69" s="24" customFormat="1" ht="15.5"/>
+    <row r="70" s="24" customFormat="1" ht="15.5"/>
+    <row r="71" s="24" customFormat="1" ht="15.5"/>
     <row r="72" s="24" customFormat="1" ht="14" customHeight="1"/>
-    <row r="73" s="24" customFormat="1" ht="15.75"/>
-    <row r="74" s="24" customFormat="1" ht="15.75"/>
-    <row r="75" s="24" customFormat="1" ht="15.75"/>
-    <row r="76" s="24" customFormat="1" ht="15.75"/>
-    <row r="77" s="24" customFormat="1" ht="15.75"/>
-    <row r="78" s="24" customFormat="1" ht="15.75"/>
-    <row r="79" s="24" customFormat="1" ht="15.75"/>
-    <row r="80" s="24" customFormat="1" ht="15.75"/>
-    <row r="81" s="24" customFormat="1" ht="15.75"/>
-    <row r="82" s="24" customFormat="1" ht="15.75"/>
-    <row r="83" s="24" customFormat="1" ht="15.75"/>
-    <row r="84" s="24" customFormat="1" ht="15.75"/>
-    <row r="85" s="24" customFormat="1" ht="15.75"/>
-    <row r="86" s="24" customFormat="1" ht="15.75"/>
-    <row r="87" s="24" customFormat="1" ht="15.75"/>
-    <row r="88" s="24" customFormat="1" ht="15.75"/>
+    <row r="73" s="24" customFormat="1" ht="15.5"/>
+    <row r="74" s="24" customFormat="1" ht="15.5"/>
+    <row r="75" s="24" customFormat="1" ht="15.5"/>
+    <row r="76" s="24" customFormat="1" ht="15.5"/>
+    <row r="77" s="24" customFormat="1" ht="15.5"/>
+    <row r="78" s="24" customFormat="1" ht="15.5"/>
+    <row r="79" s="24" customFormat="1" ht="15.5"/>
+    <row r="80" s="24" customFormat="1" ht="15.5"/>
+    <row r="81" s="24" customFormat="1" ht="15.5"/>
+    <row r="82" s="24" customFormat="1" ht="15.5"/>
+    <row r="83" s="24" customFormat="1" ht="15.5"/>
+    <row r="84" s="24" customFormat="1" ht="15.5"/>
+    <row r="85" s="24" customFormat="1" ht="15.5"/>
+    <row r="86" s="24" customFormat="1" ht="15.5"/>
+    <row r="87" s="24" customFormat="1" ht="15.5"/>
+    <row r="88" s="24" customFormat="1" ht="15.5"/>
     <row r="89" s="24" customFormat="1" ht="14" customHeight="1"/>
-    <row r="90" s="24" customFormat="1" ht="15.75"/>
-    <row r="91" s="24" customFormat="1" ht="15.75"/>
-    <row r="92" s="24" customFormat="1" ht="15.75"/>
-    <row r="93" s="24" customFormat="1" ht="15.75"/>
-    <row r="94" s="24" customFormat="1" ht="15.75"/>
-    <row r="95" s="24" customFormat="1" ht="15.75"/>
+    <row r="90" s="24" customFormat="1" ht="15.5"/>
+    <row r="91" s="24" customFormat="1" ht="15.5"/>
+    <row r="92" s="24" customFormat="1" ht="15.5"/>
+    <row r="93" s="24" customFormat="1" ht="15.5"/>
+    <row r="94" s="24" customFormat="1" ht="15.5"/>
+    <row r="95" s="24" customFormat="1" ht="15.5"/>
     <row r="96" s="24" customFormat="1" ht="14" customHeight="1"/>
-    <row r="97" s="24" customFormat="1" ht="15.75"/>
-    <row r="98" s="24" customFormat="1" ht="15.75"/>
-    <row r="99" s="24" customFormat="1" ht="15.75"/>
-    <row r="100" s="24" customFormat="1" ht="15.75"/>
-    <row r="101" s="24" customFormat="1" ht="15.75"/>
-    <row r="102" s="24" customFormat="1" ht="15.75"/>
+    <row r="97" s="24" customFormat="1" ht="15.5"/>
+    <row r="98" s="24" customFormat="1" ht="15.5"/>
+    <row r="99" s="24" customFormat="1" ht="15.5"/>
+    <row r="100" s="24" customFormat="1" ht="15.5"/>
+    <row r="101" s="24" customFormat="1" ht="15.5"/>
+    <row r="102" s="24" customFormat="1" ht="15.5"/>
     <row r="103" s="24" customFormat="1" ht="14" customHeight="1"/>
-    <row r="104" s="24" customFormat="1" ht="15.75"/>
-    <row r="105" s="24" customFormat="1" ht="15.75"/>
-    <row r="106" s="24" customFormat="1" ht="15.75"/>
-    <row r="107" s="24" customFormat="1" ht="15.75"/>
+    <row r="104" s="24" customFormat="1" ht="15.5"/>
+    <row r="105" s="24" customFormat="1" ht="15.5"/>
+    <row r="106" s="24" customFormat="1" ht="15.5"/>
+    <row r="107" s="24" customFormat="1" ht="15.5"/>
     <row r="108" s="24" customFormat="1" ht="14" customHeight="1"/>
-    <row r="109" s="24" customFormat="1" ht="15.75"/>
-    <row r="110" s="24" customFormat="1" ht="15.75"/>
-    <row r="111" s="24" customFormat="1" ht="15.75"/>
+    <row r="109" s="24" customFormat="1" ht="15.5"/>
+    <row r="110" s="24" customFormat="1" ht="15.5"/>
+    <row r="111" s="24" customFormat="1" ht="15.5"/>
     <row r="112" s="24" customFormat="1" ht="14" customHeight="1"/>
-    <row r="113" s="24" customFormat="1" ht="15.75"/>
-    <row r="114" s="24" customFormat="1" ht="15.75"/>
-    <row r="115" s="24" customFormat="1" ht="15.75"/>
-    <row r="116" s="24" customFormat="1" ht="15.75"/>
+    <row r="113" s="24" customFormat="1" ht="15.5"/>
+    <row r="114" s="24" customFormat="1" ht="15.5"/>
+    <row r="115" s="24" customFormat="1" ht="15.5"/>
+    <row r="116" s="24" customFormat="1" ht="15.5"/>
     <row r="117" s="24" customFormat="1" ht="14" customHeight="1"/>
-    <row r="118" s="24" customFormat="1" ht="15.75"/>
-    <row r="119" s="24" customFormat="1" ht="15.75"/>
-    <row r="120" s="24" customFormat="1" ht="15.75"/>
-    <row r="121" s="24" customFormat="1" ht="15.75"/>
-    <row r="122" s="24" customFormat="1" ht="15.75"/>
-    <row r="123" s="24" customFormat="1" ht="15.75"/>
-    <row r="124" s="24" customFormat="1" ht="15.75"/>
-    <row r="125" s="24" customFormat="1" ht="15.75"/>
+    <row r="118" s="24" customFormat="1" ht="15.5"/>
+    <row r="119" s="24" customFormat="1" ht="15.5"/>
+    <row r="120" s="24" customFormat="1" ht="15.5"/>
+    <row r="121" s="24" customFormat="1" ht="15.5"/>
+    <row r="122" s="24" customFormat="1" ht="15.5"/>
+    <row r="123" s="24" customFormat="1" ht="15.5"/>
+    <row r="124" s="24" customFormat="1" ht="15.5"/>
+    <row r="125" s="24" customFormat="1" ht="15.5"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A8:B9"/>
@@ -39578,15 +39578,15 @@
       <selection activeCell="L38" sqref="L38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6875" defaultRowHeight="14" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="12" style="33" customWidth="1"/>
-    <col min="2" max="2" width="26.1875" style="33" customWidth="1"/>
+    <col min="2" max="2" width="26.1640625" style="33" customWidth="1"/>
     <col min="3" max="3" width="66" style="33" customWidth="1"/>
     <col min="4" max="4" width="24" style="33" customWidth="1"/>
     <col min="5" max="6" width="12" style="33" customWidth="1"/>
     <col min="7" max="7" width="24" style="33" customWidth="1"/>
-    <col min="8" max="16384" width="10.6875" style="33"/>
+    <col min="8" max="16384" width="10.6640625" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14" customHeight="1" thickBot="1">
@@ -39805,7 +39805,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="11" spans="1:7" ht="16" thickBot="1">
       <c r="A11" s="86" t="s">
         <v>76</v>
       </c>
@@ -39824,7 +39824,7 @@
       </c>
       <c r="G11" s="55"/>
     </row>
-    <row r="12" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="12" spans="1:7" ht="16" thickBot="1">
       <c r="A12" s="86" t="s">
         <v>76</v>
       </c>
@@ -39843,7 +39843,7 @@
       </c>
       <c r="G12" s="55"/>
     </row>
-    <row r="13" spans="1:7" ht="26.65" thickBot="1">
+    <row r="13" spans="1:7" ht="26.5" thickBot="1">
       <c r="A13" s="86" t="s">
         <v>76</v>
       </c>
@@ -39862,7 +39862,7 @@
       </c>
       <c r="G13" s="55"/>
     </row>
-    <row r="14" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="14" spans="1:7" ht="16" thickBot="1">
       <c r="A14" s="87" t="s">
         <v>79</v>
       </c>
@@ -39881,7 +39881,7 @@
       </c>
       <c r="G14" s="55"/>
     </row>
-    <row r="15" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="15" spans="1:7" ht="16" thickBot="1">
       <c r="A15" s="87" t="s">
         <v>79</v>
       </c>
@@ -39900,7 +39900,7 @@
       </c>
       <c r="G15" s="55"/>
     </row>
-    <row r="16" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="16" spans="1:7" ht="16" thickBot="1">
       <c r="A16" s="87" t="s">
         <v>79</v>
       </c>
@@ -39938,7 +39938,7 @@
       </c>
       <c r="G17" s="55"/>
     </row>
-    <row r="18" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="18" spans="1:7" ht="16" thickBot="1">
       <c r="A18" s="88" t="s">
         <v>93</v>
       </c>
@@ -39957,7 +39957,7 @@
       </c>
       <c r="G18" s="55"/>
     </row>
-    <row r="19" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="19" spans="1:7" ht="16" thickBot="1">
       <c r="A19" s="88" t="s">
         <v>93</v>
       </c>
@@ -39976,7 +39976,7 @@
       </c>
       <c r="G19" s="55"/>
     </row>
-    <row r="20" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="20" spans="1:7" ht="16" thickBot="1">
       <c r="A20" s="89" t="s">
         <v>81</v>
       </c>
@@ -39995,7 +39995,7 @@
       </c>
       <c r="G20" s="55"/>
     </row>
-    <row r="21" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="21" spans="1:7" ht="16" thickBot="1">
       <c r="A21" s="89" t="s">
         <v>81</v>
       </c>
@@ -40014,7 +40014,7 @@
       </c>
       <c r="G21" s="55"/>
     </row>
-    <row r="22" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="22" spans="1:7" ht="16" thickBot="1">
       <c r="A22" s="90" t="s">
         <v>118</v>
       </c>
@@ -40033,7 +40033,7 @@
       </c>
       <c r="G22" s="55"/>
     </row>
-    <row r="23" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="23" spans="1:7" ht="16" thickBot="1">
       <c r="A23" s="90" t="s">
         <v>118</v>
       </c>
@@ -40052,7 +40052,7 @@
       </c>
       <c r="G23" s="55"/>
     </row>
-    <row r="24" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="24" spans="1:7" ht="16" thickBot="1">
       <c r="A24" s="91" t="s">
         <v>736</v>
       </c>
@@ -40071,7 +40071,7 @@
       </c>
       <c r="G24" s="55"/>
     </row>
-    <row r="25" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="25" spans="1:7" ht="16" thickBot="1">
       <c r="A25" s="91" t="s">
         <v>736</v>
       </c>
@@ -40090,7 +40090,7 @@
       </c>
       <c r="G25" s="55"/>
     </row>
-    <row r="26" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="26" spans="1:7" ht="16" thickBot="1">
       <c r="A26" s="91" t="s">
         <v>736</v>
       </c>
@@ -40109,7 +40109,7 @@
       </c>
       <c r="G26" s="55"/>
     </row>
-    <row r="27" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="27" spans="1:7" ht="16" thickBot="1">
       <c r="A27" s="91" t="s">
         <v>736</v>
       </c>
@@ -40128,7 +40128,7 @@
       </c>
       <c r="G27" s="55"/>
     </row>
-    <row r="28" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="28" spans="1:7" ht="16" thickBot="1">
       <c r="A28" s="91" t="s">
         <v>736</v>
       </c>
@@ -40168,7 +40168,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="26.65" thickBot="1">
+    <row r="30" spans="1:7" ht="26.5" thickBot="1">
       <c r="A30" s="86" t="s">
         <v>76</v>
       </c>
@@ -40187,7 +40187,7 @@
       </c>
       <c r="G30" s="55"/>
     </row>
-    <row r="31" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="31" spans="1:7" ht="16" thickBot="1">
       <c r="A31" s="87" t="s">
         <v>79</v>
       </c>
@@ -40206,7 +40206,7 @@
       </c>
       <c r="G31" s="55"/>
     </row>
-    <row r="32" spans="1:7" ht="26.65" thickBot="1">
+    <row r="32" spans="1:7" ht="26.5" thickBot="1">
       <c r="A32" s="87" t="s">
         <v>79</v>
       </c>
@@ -40225,7 +40225,7 @@
       </c>
       <c r="G32" s="55"/>
     </row>
-    <row r="33" spans="1:7" ht="26.65" thickBot="1">
+    <row r="33" spans="1:7" ht="26.5" thickBot="1">
       <c r="A33" s="88" t="s">
         <v>93</v>
       </c>
@@ -40244,7 +40244,7 @@
       </c>
       <c r="G33" s="55"/>
     </row>
-    <row r="34" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="34" spans="1:7" ht="16" thickBot="1">
       <c r="A34" s="89" t="s">
         <v>81</v>
       </c>
@@ -40263,7 +40263,7 @@
       </c>
       <c r="G34" s="55"/>
     </row>
-    <row r="35" spans="1:7" ht="26.65" thickBot="1">
+    <row r="35" spans="1:7" ht="26.5" thickBot="1">
       <c r="A35" s="89" t="s">
         <v>81</v>
       </c>
@@ -40282,7 +40282,7 @@
       </c>
       <c r="G35" s="55"/>
     </row>
-    <row r="36" spans="1:7" ht="26.65" thickBot="1">
+    <row r="36" spans="1:7" ht="26.5" thickBot="1">
       <c r="A36" s="90" t="s">
         <v>118</v>
       </c>
@@ -40301,7 +40301,7 @@
       </c>
       <c r="G36" s="55"/>
     </row>
-    <row r="37" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="37" spans="1:7" ht="16" thickBot="1">
       <c r="A37" s="90" t="s">
         <v>118</v>
       </c>
@@ -40320,7 +40320,7 @@
       </c>
       <c r="G37" s="55"/>
     </row>
-    <row r="38" spans="1:7" ht="26.65" thickBot="1">
+    <row r="38" spans="1:7" ht="26.5" thickBot="1">
       <c r="A38" s="90" t="s">
         <v>118</v>
       </c>
@@ -40339,7 +40339,7 @@
       </c>
       <c r="G38" s="55"/>
     </row>
-    <row r="39" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="39" spans="1:7" ht="16" thickBot="1">
       <c r="A39" s="91" t="s">
         <v>736</v>
       </c>
@@ -40358,7 +40358,7 @@
       </c>
       <c r="G39" s="55"/>
     </row>
-    <row r="40" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="40" spans="1:7" ht="16" thickBot="1">
       <c r="A40" s="91" t="s">
         <v>736</v>
       </c>
@@ -40398,7 +40398,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="42" spans="1:7" s="24" customFormat="1" ht="16.149999999999999" thickBot="1">
+    <row r="42" spans="1:7" s="24" customFormat="1" ht="16" thickBot="1">
       <c r="A42" s="86" t="s">
         <v>76</v>
       </c>
@@ -40417,7 +40417,7 @@
       </c>
       <c r="G42" s="55"/>
     </row>
-    <row r="43" spans="1:7" s="24" customFormat="1" ht="39.75" thickBot="1">
+    <row r="43" spans="1:7" s="24" customFormat="1" ht="39.5" thickBot="1">
       <c r="A43" s="87" t="s">
         <v>79</v>
       </c>
@@ -40436,7 +40436,7 @@
       </c>
       <c r="G43" s="55"/>
     </row>
-    <row r="44" spans="1:7" s="24" customFormat="1" ht="16.149999999999999" thickBot="1">
+    <row r="44" spans="1:7" s="24" customFormat="1" ht="16" thickBot="1">
       <c r="A44" s="88" t="s">
         <v>93</v>
       </c>
@@ -40474,7 +40474,7 @@
       </c>
       <c r="G45" s="55"/>
     </row>
-    <row r="46" spans="1:7" s="24" customFormat="1" ht="16.149999999999999" thickBot="1">
+    <row r="46" spans="1:7" s="24" customFormat="1" ht="16" thickBot="1">
       <c r="A46" s="89" t="s">
         <v>81</v>
       </c>
@@ -40493,7 +40493,7 @@
       </c>
       <c r="G46" s="55"/>
     </row>
-    <row r="47" spans="1:7" s="24" customFormat="1" ht="16.149999999999999" thickBot="1">
+    <row r="47" spans="1:7" s="24" customFormat="1" ht="16" thickBot="1">
       <c r="A47" s="89" t="s">
         <v>81</v>
       </c>
@@ -40512,7 +40512,7 @@
       </c>
       <c r="G47" s="55"/>
     </row>
-    <row r="48" spans="1:7" s="24" customFormat="1" ht="16.149999999999999" thickBot="1">
+    <row r="48" spans="1:7" s="24" customFormat="1" ht="16" thickBot="1">
       <c r="A48" s="90" t="s">
         <v>118</v>
       </c>
@@ -40531,7 +40531,7 @@
       </c>
       <c r="G48" s="55"/>
     </row>
-    <row r="49" spans="1:7" s="24" customFormat="1" ht="16.149999999999999" thickBot="1">
+    <row r="49" spans="1:7" s="24" customFormat="1" ht="16" thickBot="1">
       <c r="A49" s="90" t="s">
         <v>118</v>
       </c>
@@ -40571,7 +40571,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="51" spans="1:7" s="24" customFormat="1" ht="16.149999999999999" thickBot="1">
+    <row r="51" spans="1:7" s="24" customFormat="1" ht="16" thickBot="1">
       <c r="A51" s="86" t="s">
         <v>76</v>
       </c>
@@ -40590,7 +40590,7 @@
       </c>
       <c r="G51" s="55"/>
     </row>
-    <row r="52" spans="1:7" s="24" customFormat="1" ht="52.9" thickBot="1">
+    <row r="52" spans="1:7" s="24" customFormat="1" ht="65.5" thickBot="1">
       <c r="A52" s="87" t="s">
         <v>79</v>
       </c>
@@ -40609,7 +40609,7 @@
       </c>
       <c r="G52" s="55"/>
     </row>
-    <row r="53" spans="1:7" s="24" customFormat="1" ht="16.149999999999999" thickBot="1">
+    <row r="53" spans="1:7" s="24" customFormat="1" ht="16" thickBot="1">
       <c r="A53" s="88" t="s">
         <v>93</v>
       </c>
@@ -40628,7 +40628,7 @@
       </c>
       <c r="G53" s="55"/>
     </row>
-    <row r="54" spans="1:7" s="24" customFormat="1" ht="26.65" thickBot="1">
+    <row r="54" spans="1:7" s="24" customFormat="1" ht="26.5" thickBot="1">
       <c r="A54" s="88" t="s">
         <v>93</v>
       </c>
@@ -40647,7 +40647,7 @@
       </c>
       <c r="G54" s="55"/>
     </row>
-    <row r="55" spans="1:7" s="24" customFormat="1" ht="26.65" thickBot="1">
+    <row r="55" spans="1:7" s="24" customFormat="1" ht="39.5" thickBot="1">
       <c r="A55" s="89" t="s">
         <v>81</v>
       </c>
@@ -40666,7 +40666,7 @@
       </c>
       <c r="G55" s="55"/>
     </row>
-    <row r="56" spans="1:7" s="24" customFormat="1" ht="16.149999999999999" thickBot="1">
+    <row r="56" spans="1:7" s="24" customFormat="1" ht="16" thickBot="1">
       <c r="A56" s="89" t="s">
         <v>81</v>
       </c>
@@ -40685,7 +40685,7 @@
       </c>
       <c r="G56" s="55"/>
     </row>
-    <row r="57" spans="1:7" s="24" customFormat="1" ht="16.149999999999999" thickBot="1">
+    <row r="57" spans="1:7" s="24" customFormat="1" ht="16" thickBot="1">
       <c r="A57" s="89" t="s">
         <v>81</v>
       </c>
@@ -40704,7 +40704,7 @@
       </c>
       <c r="G57" s="55"/>
     </row>
-    <row r="58" spans="1:7" s="24" customFormat="1" ht="16.149999999999999" thickBot="1">
+    <row r="58" spans="1:7" s="24" customFormat="1" ht="16" thickBot="1">
       <c r="A58" s="90" t="s">
         <v>118</v>
       </c>
@@ -40723,7 +40723,7 @@
       </c>
       <c r="G58" s="55"/>
     </row>
-    <row r="59" spans="1:7" s="24" customFormat="1" ht="26.65" thickBot="1">
+    <row r="59" spans="1:7" s="24" customFormat="1" ht="26.5" thickBot="1">
       <c r="A59" s="90" t="s">
         <v>118</v>
       </c>
@@ -40742,50 +40742,50 @@
       </c>
       <c r="G59" s="55"/>
     </row>
-    <row r="60" spans="1:7" s="24" customFormat="1" ht="15.75"/>
-    <row r="61" spans="1:7" s="24" customFormat="1" ht="15.75"/>
-    <row r="62" spans="1:7" s="24" customFormat="1" ht="15.75"/>
-    <row r="63" spans="1:7" s="24" customFormat="1" ht="15.75"/>
-    <row r="64" spans="1:7" s="24" customFormat="1" ht="15.75"/>
-    <row r="65" s="24" customFormat="1" ht="15.75"/>
-    <row r="66" s="24" customFormat="1" ht="15.75"/>
+    <row r="60" spans="1:7" s="24" customFormat="1" ht="15.5"/>
+    <row r="61" spans="1:7" s="24" customFormat="1" ht="15.5"/>
+    <row r="62" spans="1:7" s="24" customFormat="1" ht="15.5"/>
+    <row r="63" spans="1:7" s="24" customFormat="1" ht="15.5"/>
+    <row r="64" spans="1:7" s="24" customFormat="1" ht="15.5"/>
+    <row r="65" s="24" customFormat="1" ht="15.5"/>
+    <row r="66" s="24" customFormat="1" ht="15.5"/>
     <row r="67" s="24" customFormat="1" ht="14" customHeight="1"/>
-    <row r="68" s="24" customFormat="1" ht="15.75"/>
-    <row r="69" s="24" customFormat="1" ht="15.75"/>
-    <row r="70" s="24" customFormat="1" ht="15.75"/>
-    <row r="71" s="24" customFormat="1" ht="15.75"/>
-    <row r="72" s="24" customFormat="1" ht="15.75"/>
-    <row r="73" s="24" customFormat="1" ht="15.75"/>
+    <row r="68" s="24" customFormat="1" ht="15.5"/>
+    <row r="69" s="24" customFormat="1" ht="15.5"/>
+    <row r="70" s="24" customFormat="1" ht="15.5"/>
+    <row r="71" s="24" customFormat="1" ht="15.5"/>
+    <row r="72" s="24" customFormat="1" ht="15.5"/>
+    <row r="73" s="24" customFormat="1" ht="15.5"/>
     <row r="74" s="24" customFormat="1" ht="14" customHeight="1"/>
-    <row r="75" s="24" customFormat="1" ht="15.75"/>
-    <row r="76" s="24" customFormat="1" ht="15.75"/>
-    <row r="77" s="24" customFormat="1" ht="15.75"/>
-    <row r="78" s="24" customFormat="1" ht="15.75"/>
-    <row r="79" s="24" customFormat="1" ht="15.75"/>
-    <row r="80" s="24" customFormat="1" ht="15.75"/>
+    <row r="75" s="24" customFormat="1" ht="15.5"/>
+    <row r="76" s="24" customFormat="1" ht="15.5"/>
+    <row r="77" s="24" customFormat="1" ht="15.5"/>
+    <row r="78" s="24" customFormat="1" ht="15.5"/>
+    <row r="79" s="24" customFormat="1" ht="15.5"/>
+    <row r="80" s="24" customFormat="1" ht="15.5"/>
     <row r="81" s="24" customFormat="1" ht="14" customHeight="1"/>
-    <row r="82" s="24" customFormat="1" ht="15.75"/>
-    <row r="83" s="24" customFormat="1" ht="15.75"/>
-    <row r="84" s="24" customFormat="1" ht="15.75"/>
-    <row r="85" s="24" customFormat="1" ht="15.75"/>
+    <row r="82" s="24" customFormat="1" ht="15.5"/>
+    <row r="83" s="24" customFormat="1" ht="15.5"/>
+    <row r="84" s="24" customFormat="1" ht="15.5"/>
+    <row r="85" s="24" customFormat="1" ht="15.5"/>
     <row r="86" s="24" customFormat="1" ht="14" customHeight="1"/>
-    <row r="87" s="24" customFormat="1" ht="15.75"/>
-    <row r="88" s="24" customFormat="1" ht="15.75"/>
-    <row r="89" s="24" customFormat="1" ht="15.75"/>
+    <row r="87" s="24" customFormat="1" ht="15.5"/>
+    <row r="88" s="24" customFormat="1" ht="15.5"/>
+    <row r="89" s="24" customFormat="1" ht="15.5"/>
     <row r="90" s="24" customFormat="1" ht="14" customHeight="1"/>
-    <row r="91" s="24" customFormat="1" ht="15.75"/>
-    <row r="92" s="24" customFormat="1" ht="15.75"/>
-    <row r="93" s="24" customFormat="1" ht="15.75"/>
-    <row r="94" s="24" customFormat="1" ht="15.75"/>
+    <row r="91" s="24" customFormat="1" ht="15.5"/>
+    <row r="92" s="24" customFormat="1" ht="15.5"/>
+    <row r="93" s="24" customFormat="1" ht="15.5"/>
+    <row r="94" s="24" customFormat="1" ht="15.5"/>
     <row r="95" s="24" customFormat="1" ht="14" customHeight="1"/>
-    <row r="96" s="24" customFormat="1" ht="15.75"/>
-    <row r="97" s="24" customFormat="1" ht="15.75"/>
-    <row r="98" s="24" customFormat="1" ht="15.75"/>
-    <row r="99" s="24" customFormat="1" ht="15.75"/>
-    <row r="100" s="24" customFormat="1" ht="15.75"/>
-    <row r="101" s="24" customFormat="1" ht="15.75"/>
-    <row r="102" s="24" customFormat="1" ht="15.75"/>
-    <row r="103" s="24" customFormat="1" ht="15.75"/>
+    <row r="96" s="24" customFormat="1" ht="15.5"/>
+    <row r="97" s="24" customFormat="1" ht="15.5"/>
+    <row r="98" s="24" customFormat="1" ht="15.5"/>
+    <row r="99" s="24" customFormat="1" ht="15.5"/>
+    <row r="100" s="24" customFormat="1" ht="15.5"/>
+    <row r="101" s="24" customFormat="1" ht="15.5"/>
+    <row r="102" s="24" customFormat="1" ht="15.5"/>
+    <row r="103" s="24" customFormat="1" ht="15.5"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="C2:D9"/>
@@ -41542,19 +41542,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6875" defaultRowHeight="14" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="12" style="33" customWidth="1"/>
-    <col min="2" max="2" width="26.1875" style="33" customWidth="1"/>
+    <col min="2" max="2" width="26.1640625" style="33" customWidth="1"/>
     <col min="3" max="3" width="66" style="33" customWidth="1"/>
     <col min="4" max="4" width="24" style="33" customWidth="1"/>
     <col min="5" max="6" width="12" style="33" customWidth="1"/>
     <col min="7" max="7" width="24" style="33" customWidth="1"/>
-    <col min="8" max="16384" width="10.6875" style="33"/>
+    <col min="8" max="16384" width="10.6640625" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14" customHeight="1" thickBot="1">
@@ -41574,7 +41574,7 @@
       </c>
       <c r="F1" s="7" t="str">
         <f>""&amp;COUNTIF(F$10:F$242,$A$2)&amp;" "&amp;$A$2</f>
-        <v>1 Untested</v>
+        <v>3 Untested</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>556</v>
@@ -41663,7 +41663,7 @@
       </c>
       <c r="F5" s="61">
         <f>SUMPRODUCT(($A$10:$A$242="Intermediate")*(F$10:F$242="Completed"))+SUMPRODUCT(($A$10:$A$242="Intermediate")*(F$10:F$242="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$242="Intermediate")*(F$10:F$242="Partial"))</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G5" s="55" t="str">
         <f>"Intermediate "&amp;$G$1&amp;"s "&amp;A5</f>
@@ -41727,7 +41727,7 @@
       </c>
       <c r="F8" s="61">
         <f>SUMPRODUCT(($A$10:$A$242="Professional")*(F$10:F$242="Completed"))+SUMPRODUCT(($A$10:$A$242="Professional")*(F$10:F$242="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$242="Professional")*(F$10:F$242="Partial"))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G8" s="55" t="str">
         <f>"Professional "&amp;$G$1&amp;"s "&amp;A5</f>
@@ -41773,7 +41773,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="11" spans="1:7" ht="16" thickBot="1">
       <c r="A11" s="62" t="s">
         <v>76</v>
       </c>
@@ -41792,7 +41792,7 @@
       </c>
       <c r="G11" s="55"/>
     </row>
-    <row r="12" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="12" spans="1:7" ht="16" thickBot="1">
       <c r="A12" s="62" t="s">
         <v>76</v>
       </c>
@@ -41811,7 +41811,7 @@
       </c>
       <c r="G12" s="55"/>
     </row>
-    <row r="13" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="13" spans="1:7" ht="16" thickBot="1">
       <c r="A13" s="63" t="s">
         <v>79</v>
       </c>
@@ -41830,7 +41830,7 @@
       </c>
       <c r="G13" s="55"/>
     </row>
-    <row r="14" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="14" spans="1:7" ht="16" thickBot="1">
       <c r="A14" s="63" t="s">
         <v>79</v>
       </c>
@@ -41849,7 +41849,7 @@
       </c>
       <c r="G14" s="55"/>
     </row>
-    <row r="15" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="15" spans="1:7" ht="16" thickBot="1">
       <c r="A15" s="65" t="s">
         <v>93</v>
       </c>
@@ -41868,7 +41868,7 @@
       </c>
       <c r="G15" s="55"/>
     </row>
-    <row r="16" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="16" spans="1:7" ht="16" thickBot="1">
       <c r="A16" s="65" t="s">
         <v>93</v>
       </c>
@@ -41887,7 +41887,7 @@
       </c>
       <c r="G16" s="55"/>
     </row>
-    <row r="17" spans="1:7" ht="26.65" thickBot="1">
+    <row r="17" spans="1:7" ht="26.5" thickBot="1">
       <c r="A17" s="64" t="s">
         <v>81</v>
       </c>
@@ -41906,7 +41906,7 @@
       </c>
       <c r="G17" s="55"/>
     </row>
-    <row r="18" spans="1:7" ht="26.65" thickBot="1">
+    <row r="18" spans="1:7" ht="26.5" thickBot="1">
       <c r="A18" s="64" t="s">
         <v>81</v>
       </c>
@@ -41925,7 +41925,7 @@
       </c>
       <c r="G18" s="55"/>
     </row>
-    <row r="19" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="19" spans="1:7" ht="16" thickBot="1">
       <c r="A19" s="66" t="s">
         <v>118</v>
       </c>
@@ -41944,7 +41944,7 @@
       </c>
       <c r="G19" s="55"/>
     </row>
-    <row r="20" spans="1:7" ht="26.65" thickBot="1">
+    <row r="20" spans="1:7" ht="26.5" thickBot="1">
       <c r="A20" s="66" t="s">
         <v>118</v>
       </c>
@@ -41963,7 +41963,7 @@
       </c>
       <c r="G20" s="55"/>
     </row>
-    <row r="21" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="21" spans="1:7" ht="16" thickBot="1">
       <c r="A21" s="66" t="s">
         <v>118</v>
       </c>
@@ -41982,7 +41982,7 @@
       </c>
       <c r="G21" s="55"/>
     </row>
-    <row r="22" spans="1:7" ht="26.65" thickBot="1">
+    <row r="22" spans="1:7" ht="26.5" thickBot="1">
       <c r="A22" s="67" t="s">
         <v>736</v>
       </c>
@@ -42001,7 +42001,7 @@
       </c>
       <c r="G22" s="55"/>
     </row>
-    <row r="23" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="23" spans="1:7" ht="16" thickBot="1">
       <c r="A23" s="67" t="s">
         <v>736</v>
       </c>
@@ -42041,7 +42041,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="25" spans="1:7" ht="16" thickBot="1">
       <c r="A25" s="62" t="s">
         <v>76</v>
       </c>
@@ -42060,7 +42060,7 @@
       </c>
       <c r="G25" s="55"/>
     </row>
-    <row r="26" spans="1:7" ht="26.65" thickBot="1">
+    <row r="26" spans="1:7" ht="26.5" thickBot="1">
       <c r="A26" s="62" t="s">
         <v>76</v>
       </c>
@@ -42079,7 +42079,7 @@
       </c>
       <c r="G26" s="55"/>
     </row>
-    <row r="27" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="27" spans="1:7" ht="16" thickBot="1">
       <c r="A27" s="63" t="s">
         <v>79</v>
       </c>
@@ -42098,7 +42098,7 @@
       </c>
       <c r="G27" s="55"/>
     </row>
-    <row r="28" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="28" spans="1:7" ht="16" thickBot="1">
       <c r="A28" s="63" t="s">
         <v>79</v>
       </c>
@@ -42117,7 +42117,7 @@
       </c>
       <c r="G28" s="55"/>
     </row>
-    <row r="29" spans="1:7" ht="26.65" thickBot="1">
+    <row r="29" spans="1:7" ht="26.5" thickBot="1">
       <c r="A29" s="65" t="s">
         <v>93</v>
       </c>
@@ -42136,7 +42136,7 @@
       </c>
       <c r="G29" s="55"/>
     </row>
-    <row r="30" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="30" spans="1:7" ht="16" thickBot="1">
       <c r="A30" s="65" t="s">
         <v>93</v>
       </c>
@@ -42153,11 +42153,11 @@
         <v>68</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="G30" s="55"/>
     </row>
-    <row r="31" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="31" spans="1:7" ht="16" thickBot="1">
       <c r="A31" s="64" t="s">
         <v>81</v>
       </c>
@@ -42176,7 +42176,7 @@
       </c>
       <c r="G31" s="55"/>
     </row>
-    <row r="32" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="32" spans="1:7" ht="16" thickBot="1">
       <c r="A32" s="64" t="s">
         <v>81</v>
       </c>
@@ -42195,7 +42195,7 @@
       </c>
       <c r="G32" s="55"/>
     </row>
-    <row r="33" spans="1:7" ht="26.65" thickBot="1">
+    <row r="33" spans="1:7" ht="26.5" thickBot="1">
       <c r="A33" s="66" t="s">
         <v>118</v>
       </c>
@@ -42212,11 +42212,11 @@
         <v>68</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="G33" s="55"/>
     </row>
-    <row r="34" spans="1:7" ht="26.65" thickBot="1">
+    <row r="34" spans="1:7" ht="26.5" thickBot="1">
       <c r="A34" s="66" t="s">
         <v>118</v>
       </c>
@@ -42235,7 +42235,7 @@
       </c>
       <c r="G34" s="55"/>
     </row>
-    <row r="35" spans="1:7" ht="26.65" thickBot="1">
+    <row r="35" spans="1:7" ht="26.5" thickBot="1">
       <c r="A35" s="67" t="s">
         <v>736</v>
       </c>
@@ -42275,7 +42275,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="37" spans="1:7" ht="16" thickBot="1">
       <c r="A37" s="62" t="s">
         <v>76</v>
       </c>
@@ -42294,7 +42294,7 @@
       </c>
       <c r="G37" s="55"/>
     </row>
-    <row r="38" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="38" spans="1:7" ht="16" thickBot="1">
       <c r="A38" s="62" t="s">
         <v>76</v>
       </c>
@@ -42313,7 +42313,7 @@
       </c>
       <c r="G38" s="55"/>
     </row>
-    <row r="39" spans="1:7" ht="26.65" thickBot="1">
+    <row r="39" spans="1:7" ht="26.5" thickBot="1">
       <c r="A39" s="63" t="s">
         <v>79</v>
       </c>
@@ -42332,7 +42332,7 @@
       </c>
       <c r="G39" s="55"/>
     </row>
-    <row r="40" spans="1:7" ht="26.65" thickBot="1">
+    <row r="40" spans="1:7" ht="26.5" thickBot="1">
       <c r="A40" s="64" t="s">
         <v>81</v>
       </c>
@@ -42351,7 +42351,7 @@
       </c>
       <c r="G40" s="55"/>
     </row>
-    <row r="41" spans="1:7" ht="39.75" thickBot="1">
+    <row r="41" spans="1:7" ht="39.5" thickBot="1">
       <c r="A41" s="66" t="s">
         <v>118</v>
       </c>
@@ -42370,7 +42370,7 @@
       </c>
       <c r="G41" s="55"/>
     </row>
-    <row r="42" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="42" spans="1:7" ht="16" thickBot="1">
       <c r="A42" s="67" t="s">
         <v>736</v>
       </c>
@@ -42410,7 +42410,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="26.65" thickBot="1">
+    <row r="44" spans="1:7" ht="26.5" thickBot="1">
       <c r="A44" s="62" t="s">
         <v>76</v>
       </c>
@@ -42429,7 +42429,7 @@
       </c>
       <c r="G44" s="55"/>
     </row>
-    <row r="45" spans="1:7" ht="39.75" thickBot="1">
+    <row r="45" spans="1:7" ht="39.5" thickBot="1">
       <c r="A45" s="63" t="s">
         <v>79</v>
       </c>
@@ -42448,7 +42448,7 @@
       </c>
       <c r="G45" s="55"/>
     </row>
-    <row r="46" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="46" spans="1:7" ht="16" thickBot="1">
       <c r="A46" s="65" t="s">
         <v>93</v>
       </c>
@@ -42467,7 +42467,7 @@
       </c>
       <c r="G46" s="55"/>
     </row>
-    <row r="47" spans="1:7" ht="26.65" thickBot="1">
+    <row r="47" spans="1:7" ht="26.5" thickBot="1">
       <c r="A47" s="64" t="s">
         <v>81</v>
       </c>
@@ -42486,77 +42486,77 @@
       </c>
       <c r="G47" s="55"/>
     </row>
-    <row r="48" spans="1:7" s="24" customFormat="1" ht="15.75"/>
-    <row r="49" s="24" customFormat="1" ht="15.75"/>
+    <row r="48" spans="1:7" s="24" customFormat="1" ht="15.5"/>
+    <row r="49" s="24" customFormat="1" ht="15.5"/>
     <row r="50" s="24" customFormat="1" ht="14" customHeight="1"/>
-    <row r="51" s="24" customFormat="1" ht="15.75"/>
-    <row r="52" s="24" customFormat="1" ht="15.75"/>
-    <row r="53" s="24" customFormat="1" ht="15.75"/>
-    <row r="54" s="24" customFormat="1" ht="15.75"/>
-    <row r="55" s="24" customFormat="1" ht="15.75"/>
-    <row r="56" s="24" customFormat="1" ht="15.75"/>
-    <row r="57" s="24" customFormat="1" ht="15.75"/>
-    <row r="58" s="24" customFormat="1" ht="15.75"/>
+    <row r="51" s="24" customFormat="1" ht="15.5"/>
+    <row r="52" s="24" customFormat="1" ht="15.5"/>
+    <row r="53" s="24" customFormat="1" ht="15.5"/>
+    <row r="54" s="24" customFormat="1" ht="15.5"/>
+    <row r="55" s="24" customFormat="1" ht="15.5"/>
+    <row r="56" s="24" customFormat="1" ht="15.5"/>
+    <row r="57" s="24" customFormat="1" ht="15.5"/>
+    <row r="58" s="24" customFormat="1" ht="15.5"/>
     <row r="59" s="24" customFormat="1" ht="14" customHeight="1"/>
-    <row r="60" s="24" customFormat="1" ht="15.75"/>
-    <row r="61" s="24" customFormat="1" ht="15.75"/>
-    <row r="62" s="24" customFormat="1" ht="15.75"/>
-    <row r="63" s="24" customFormat="1" ht="15.75"/>
-    <row r="64" s="24" customFormat="1" ht="15.75"/>
+    <row r="60" s="24" customFormat="1" ht="15.5"/>
+    <row r="61" s="24" customFormat="1" ht="15.5"/>
+    <row r="62" s="24" customFormat="1" ht="15.5"/>
+    <row r="63" s="24" customFormat="1" ht="15.5"/>
+    <row r="64" s="24" customFormat="1" ht="15.5"/>
     <row r="65" s="24" customFormat="1" ht="14" customHeight="1"/>
-    <row r="66" s="24" customFormat="1" ht="15.75"/>
-    <row r="67" s="24" customFormat="1" ht="15.75"/>
-    <row r="68" s="24" customFormat="1" ht="15.75"/>
-    <row r="69" s="24" customFormat="1" ht="15.75"/>
-    <row r="70" s="24" customFormat="1" ht="15.75"/>
-    <row r="71" s="24" customFormat="1" ht="15.75"/>
-    <row r="72" s="24" customFormat="1" ht="15.75"/>
-    <row r="73" s="24" customFormat="1" ht="15.75"/>
-    <row r="74" s="24" customFormat="1" ht="15.75"/>
-    <row r="75" s="24" customFormat="1" ht="15.75"/>
-    <row r="76" s="24" customFormat="1" ht="15.75"/>
-    <row r="77" s="24" customFormat="1" ht="15.75"/>
-    <row r="78" s="24" customFormat="1" ht="15.75"/>
-    <row r="79" s="24" customFormat="1" ht="15.75"/>
-    <row r="80" s="24" customFormat="1" ht="15.75"/>
-    <row r="81" s="24" customFormat="1" ht="15.75"/>
+    <row r="66" s="24" customFormat="1" ht="15.5"/>
+    <row r="67" s="24" customFormat="1" ht="15.5"/>
+    <row r="68" s="24" customFormat="1" ht="15.5"/>
+    <row r="69" s="24" customFormat="1" ht="15.5"/>
+    <row r="70" s="24" customFormat="1" ht="15.5"/>
+    <row r="71" s="24" customFormat="1" ht="15.5"/>
+    <row r="72" s="24" customFormat="1" ht="15.5"/>
+    <row r="73" s="24" customFormat="1" ht="15.5"/>
+    <row r="74" s="24" customFormat="1" ht="15.5"/>
+    <row r="75" s="24" customFormat="1" ht="15.5"/>
+    <row r="76" s="24" customFormat="1" ht="15.5"/>
+    <row r="77" s="24" customFormat="1" ht="15.5"/>
+    <row r="78" s="24" customFormat="1" ht="15.5"/>
+    <row r="79" s="24" customFormat="1" ht="15.5"/>
+    <row r="80" s="24" customFormat="1" ht="15.5"/>
+    <row r="81" s="24" customFormat="1" ht="15.5"/>
     <row r="82" s="24" customFormat="1" ht="14" customHeight="1"/>
-    <row r="83" s="24" customFormat="1" ht="15.75"/>
-    <row r="84" s="24" customFormat="1" ht="15.75"/>
-    <row r="85" s="24" customFormat="1" ht="15.75"/>
-    <row r="86" s="24" customFormat="1" ht="15.75"/>
-    <row r="87" s="24" customFormat="1" ht="15.75"/>
-    <row r="88" s="24" customFormat="1" ht="15.75"/>
+    <row r="83" s="24" customFormat="1" ht="15.5"/>
+    <row r="84" s="24" customFormat="1" ht="15.5"/>
+    <row r="85" s="24" customFormat="1" ht="15.5"/>
+    <row r="86" s="24" customFormat="1" ht="15.5"/>
+    <row r="87" s="24" customFormat="1" ht="15.5"/>
+    <row r="88" s="24" customFormat="1" ht="15.5"/>
     <row r="89" s="24" customFormat="1" ht="14" customHeight="1"/>
-    <row r="90" s="24" customFormat="1" ht="15.75"/>
-    <row r="91" s="24" customFormat="1" ht="15.75"/>
-    <row r="92" s="24" customFormat="1" ht="15.75"/>
-    <row r="93" s="24" customFormat="1" ht="15.75"/>
-    <row r="94" s="24" customFormat="1" ht="15.75"/>
-    <row r="95" s="24" customFormat="1" ht="15.75"/>
+    <row r="90" s="24" customFormat="1" ht="15.5"/>
+    <row r="91" s="24" customFormat="1" ht="15.5"/>
+    <row r="92" s="24" customFormat="1" ht="15.5"/>
+    <row r="93" s="24" customFormat="1" ht="15.5"/>
+    <row r="94" s="24" customFormat="1" ht="15.5"/>
+    <row r="95" s="24" customFormat="1" ht="15.5"/>
     <row r="96" s="24" customFormat="1" ht="14" customHeight="1"/>
-    <row r="97" s="24" customFormat="1" ht="15.75"/>
-    <row r="98" s="24" customFormat="1" ht="15.75"/>
-    <row r="99" s="24" customFormat="1" ht="15.75"/>
-    <row r="100" s="24" customFormat="1" ht="15.75"/>
+    <row r="97" s="24" customFormat="1" ht="15.5"/>
+    <row r="98" s="24" customFormat="1" ht="15.5"/>
+    <row r="99" s="24" customFormat="1" ht="15.5"/>
+    <row r="100" s="24" customFormat="1" ht="15.5"/>
     <row r="101" s="24" customFormat="1" ht="14" customHeight="1"/>
-    <row r="102" s="24" customFormat="1" ht="15.75"/>
-    <row r="103" s="24" customFormat="1" ht="15.75"/>
-    <row r="104" s="24" customFormat="1" ht="15.75"/>
+    <row r="102" s="24" customFormat="1" ht="15.5"/>
+    <row r="103" s="24" customFormat="1" ht="15.5"/>
+    <row r="104" s="24" customFormat="1" ht="15.5"/>
     <row r="105" s="24" customFormat="1" ht="14" customHeight="1"/>
-    <row r="106" s="24" customFormat="1" ht="15.75"/>
-    <row r="107" s="24" customFormat="1" ht="15.75"/>
-    <row r="108" s="24" customFormat="1" ht="15.75"/>
-    <row r="109" s="24" customFormat="1" ht="15.75"/>
+    <row r="106" s="24" customFormat="1" ht="15.5"/>
+    <row r="107" s="24" customFormat="1" ht="15.5"/>
+    <row r="108" s="24" customFormat="1" ht="15.5"/>
+    <row r="109" s="24" customFormat="1" ht="15.5"/>
     <row r="110" s="24" customFormat="1" ht="14" customHeight="1"/>
-    <row r="111" s="24" customFormat="1" ht="15.75"/>
-    <row r="112" s="24" customFormat="1" ht="15.75"/>
-    <row r="113" s="24" customFormat="1" ht="15.75"/>
-    <row r="114" s="24" customFormat="1" ht="15.75"/>
-    <row r="115" s="24" customFormat="1" ht="15.75"/>
-    <row r="116" s="24" customFormat="1" ht="15.75"/>
-    <row r="117" s="24" customFormat="1" ht="15.75"/>
-    <row r="118" s="24" customFormat="1" ht="15.75"/>
+    <row r="111" s="24" customFormat="1" ht="15.5"/>
+    <row r="112" s="24" customFormat="1" ht="15.5"/>
+    <row r="113" s="24" customFormat="1" ht="15.5"/>
+    <row r="114" s="24" customFormat="1" ht="15.5"/>
+    <row r="115" s="24" customFormat="1" ht="15.5"/>
+    <row r="116" s="24" customFormat="1" ht="15.5"/>
+    <row r="117" s="24" customFormat="1" ht="15.5"/>
+    <row r="118" s="24" customFormat="1" ht="15.5"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="C2:D9"/>
